--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_11_33.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_11_33.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2758835.459313258</v>
+        <v>2866986.55222755</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>12443012.75936921</v>
+        <v>12383593.4843585</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283183</v>
+        <v>416855.1052283186</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8760647.549912483</v>
+        <v>8766690.560499741</v>
       </c>
     </row>
     <row r="11">
@@ -665,19 +667,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>330.4331780571521</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>411.547702772954</v>
+        <v>67.99028908615186</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -716,13 +718,13 @@
         <v>251.045250128462</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -756,7 +758,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I3" t="n">
-        <v>20.22295923705012</v>
+        <v>20.22295923705013</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -814,7 +816,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -823,7 +825,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
@@ -865,25 +867,25 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>48.58848187983761</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>111.3057074754898</v>
       </c>
     </row>
     <row r="5">
@@ -896,25 +898,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>105.5988241452748</v>
       </c>
       <c r="G5" t="n">
-        <v>302.761700250404</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I5" t="n">
-        <v>65.70991267247047</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,22 +946,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T5" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -993,7 +995,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I6" t="n">
-        <v>20.22295923705012</v>
+        <v>20.22295923705013</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1051,28 +1053,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H7" t="n">
-        <v>147.2515091551288</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,28 +1101,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>77.0002836718308</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>286.2271541212006</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>110.6796476850517</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1130,28 +1132,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>186.770847453703</v>
       </c>
       <c r="G8" t="n">
-        <v>256.727352354685</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1184,10 +1186,10 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -1196,7 +1198,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1224,13 +1226,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>134.9994691657081</v>
+        <v>135.3343964518635</v>
       </c>
       <c r="H9" t="n">
-        <v>89.59687541851115</v>
+        <v>92.83156789269626</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247742</v>
+        <v>20.22295923705015</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,16 +1259,16 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734098204</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>128.1435076414547</v>
+        <v>134.3646350838588</v>
       </c>
       <c r="T9" t="n">
-        <v>190.7165703189231</v>
+        <v>192.0665623188214</v>
       </c>
       <c r="U9" t="n">
-        <v>225.7871683969286</v>
+        <v>225.8092030868072</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
@@ -1288,16 +1290,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5.417333439929259</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -1306,10 +1308,10 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,28 +1338,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>37.49208478790683</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1373,7 +1375,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206824</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
@@ -1418,13 +1420,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695526</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1534,19 +1536,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>18.50276072357152</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0.8253826161909023</v>
       </c>
       <c r="I13" t="n">
-        <v>81.2658363185655</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012164</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1588,7 +1590,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -1655,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695526</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1664,10 +1666,10 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701346</v>
       </c>
       <c r="W14" t="n">
-        <v>349.2409687174136</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
@@ -1762,7 +1764,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -1771,10 +1773,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
@@ -1783,7 +1785,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>74.95497330698058</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1813,10 +1815,10 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>113.5413580759688</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>286.1844743892441</v>
@@ -1847,7 +1849,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>354.6830416206834</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
         <v>381.9303700722618</v>
@@ -1892,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1901,7 +1903,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701346</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -1999,19 +2001,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
@@ -2020,7 +2022,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,13 +2049,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>111.3213230702139</v>
       </c>
       <c r="U19" t="n">
         <v>286.1844743892441</v>
@@ -2065,10 +2067,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>212.4076860934771</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2129,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2245,19 +2247,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>104.1233804225859</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>66.09841665934276</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2293,7 +2295,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2302,10 +2304,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2366,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2381,7 +2383,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784677</v>
       </c>
       <c r="Y23" t="n">
         <v>386.2379386560536</v>
@@ -2479,22 +2481,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2530,7 +2532,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>217.8886059122779</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2539,10 +2541,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2603,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2710,28 +2712,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>112.5284434523316</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>36.21070476472219</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,13 +2760,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
         <v>286.1844743892441</v>
@@ -2840,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2956,10 +2958,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>71.39698738222801</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
@@ -2968,7 +2970,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,13 +2997,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>286.1844743892441</v>
@@ -3010,10 +3012,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>145.0635245304618</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -3077,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3190,22 +3192,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703276</v>
       </c>
       <c r="H34" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>54.45740180395846</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,10 +3234,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
         <v>217.4054503272883</v>
@@ -3250,7 +3252,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -3314,13 +3316,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
-        <v>199.022230457617</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3427,16 +3429,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>112.5284434523316</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H37" t="n">
         <v>140.2947128462239</v>
@@ -3469,13 +3471,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
         <v>286.1844743892441</v>
@@ -3551,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3560,7 +3562,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701346</v>
       </c>
       <c r="W38" t="n">
         <v>349.240968717413</v>
@@ -3670,13 +3672,13 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3706,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3724,7 +3726,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>89.43475015428592</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -3788,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695619</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3901,13 +3903,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>82.30974811734347</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
@@ -3943,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -3964,7 +3966,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -3977,7 +3979,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710079</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
         <v>354.683041620683</v>
@@ -4025,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4147,13 +4149,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>108.2950343703276</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>1.799772605717294</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4304,40 +4306,40 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1211.708328559738</v>
+        <v>901.3425442071336</v>
       </c>
       <c r="C2" t="n">
-        <v>1211.708328559738</v>
+        <v>901.3425442071336</v>
       </c>
       <c r="D2" t="n">
-        <v>1211.708328559738</v>
+        <v>901.3425442071336</v>
       </c>
       <c r="E2" t="n">
-        <v>877.9374416333219</v>
+        <v>901.3425442071336</v>
       </c>
       <c r="F2" t="n">
-        <v>466.9515368437143</v>
+        <v>490.3566394175261</v>
       </c>
       <c r="G2" t="n">
-        <v>51.2467865680031</v>
+        <v>421.6795797345444</v>
       </c>
       <c r="H2" t="n">
-        <v>51.2467865680031</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I2" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J2" t="n">
-        <v>187.5281822362819</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K2" t="n">
         <v>442.5171852816084</v>
       </c>
       <c r="L2" t="n">
-        <v>795.755353087291</v>
+        <v>795.7553530872915</v>
       </c>
       <c r="M2" t="n">
-        <v>1220.470313923561</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N2" t="n">
         <v>1656.671415230817</v>
@@ -4358,22 +4360,22 @@
         <v>2437.640120926626</v>
       </c>
       <c r="T2" t="n">
-        <v>2228.89447953245</v>
+        <v>2228.894479532451</v>
       </c>
       <c r="U2" t="n">
         <v>1975.31341879663</v>
       </c>
       <c r="V2" t="n">
-        <v>1975.31341879663</v>
+        <v>1644.250531453059</v>
       </c>
       <c r="W2" t="n">
-        <v>1975.31341879663</v>
+        <v>1291.481876182945</v>
       </c>
       <c r="X2" t="n">
-        <v>1601.84766053555</v>
+        <v>1291.481876182945</v>
       </c>
       <c r="Y2" t="n">
-        <v>1211.708328559738</v>
+        <v>901.3425442071336</v>
       </c>
     </row>
     <row r="3">
@@ -4383,52 +4385,52 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>931.3041410966384</v>
+        <v>931.3041410966389</v>
       </c>
       <c r="C3" t="n">
-        <v>756.8511118155114</v>
+        <v>756.8511118155119</v>
       </c>
       <c r="D3" t="n">
-        <v>607.9167021542601</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E3" t="n">
-        <v>448.6792471488045</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F3" t="n">
-        <v>302.1446891756896</v>
+        <v>302.14468917569</v>
       </c>
       <c r="G3" t="n">
-        <v>165.4432786182518</v>
+        <v>165.4432786182524</v>
       </c>
       <c r="H3" t="n">
-        <v>71.67401812057899</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I3" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J3" t="n">
-        <v>238.4273302370161</v>
+        <v>113.5972052500114</v>
       </c>
       <c r="K3" t="n">
-        <v>423.1489515180662</v>
+        <v>298.3188265310613</v>
       </c>
       <c r="L3" t="n">
-        <v>717.8525085495379</v>
+        <v>932.4978103100998</v>
       </c>
       <c r="M3" t="n">
-        <v>1352.031492328576</v>
+        <v>1456.147065963532</v>
       </c>
       <c r="N3" t="n">
-        <v>1739.316620925522</v>
+        <v>1843.432194560478</v>
       </c>
       <c r="O3" t="n">
-        <v>2199.840679460312</v>
+        <v>2175.502629736639</v>
       </c>
       <c r="P3" t="n">
-        <v>2447.023413292609</v>
+        <v>2422.685363568936</v>
       </c>
       <c r="Q3" t="n">
-        <v>2562.339328400155</v>
+        <v>2538.001278676482</v>
       </c>
       <c r="R3" t="n">
         <v>2562.339328400155</v>
@@ -4440,16 +4442,16 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U3" t="n">
-        <v>2004.520742047137</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V3" t="n">
         <v>1769.368633815395</v>
       </c>
       <c r="W3" t="n">
-        <v>1515.131277087193</v>
+        <v>1515.131277087194</v>
       </c>
       <c r="X3" t="n">
-        <v>1307.27977688166</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y3" t="n">
         <v>1099.519478116707</v>
@@ -4462,13 +4464,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>939.770065904978</v>
+        <v>1087.683159487371</v>
       </c>
       <c r="C4" t="n">
-        <v>770.8338829770711</v>
+        <v>918.7469765594642</v>
       </c>
       <c r="D4" t="n">
-        <v>620.7172435647353</v>
+        <v>768.6303371471284</v>
       </c>
       <c r="E4" t="n">
         <v>620.7172435647353</v>
@@ -4480,22 +4482,22 @@
         <v>305.8408313751036</v>
       </c>
       <c r="H4" t="n">
-        <v>157.1019332386097</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="I4" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J4" t="n">
         <v>76.71595955312199</v>
       </c>
       <c r="K4" t="n">
-        <v>248.4064713020476</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L4" t="n">
-        <v>523.6376499693235</v>
+        <v>523.6376499693234</v>
       </c>
       <c r="M4" t="n">
-        <v>824.2194607096588</v>
+        <v>824.2194607096587</v>
       </c>
       <c r="N4" t="n">
         <v>1123.088724245823</v>
@@ -4513,25 +4515,25 @@
         <v>1636.446120074497</v>
       </c>
       <c r="S4" t="n">
-        <v>1439.817372234359</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="T4" t="n">
-        <v>1216.838891429094</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="U4" t="n">
-        <v>1167.759616802995</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="V4" t="n">
-        <v>1167.759616802995</v>
+        <v>1381.76163186861</v>
       </c>
       <c r="W4" t="n">
-        <v>1167.759616802995</v>
+        <v>1381.76163186861</v>
       </c>
       <c r="X4" t="n">
-        <v>939.770065904978</v>
+        <v>1381.76163186861</v>
       </c>
       <c r="Y4" t="n">
-        <v>939.770065904978</v>
+        <v>1269.331624317611</v>
       </c>
     </row>
     <row r="5">
@@ -4541,22 +4543,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1203.388756704966</v>
+        <v>1329.838061543121</v>
       </c>
       <c r="C5" t="n">
-        <v>834.4262397645546</v>
+        <v>1329.838061543121</v>
       </c>
       <c r="D5" t="n">
-        <v>834.4262397645546</v>
+        <v>1329.838061543121</v>
       </c>
       <c r="E5" t="n">
-        <v>834.4262397645546</v>
+        <v>944.0498089448765</v>
       </c>
       <c r="F5" t="n">
-        <v>423.440334974947</v>
+        <v>837.3843300102556</v>
       </c>
       <c r="G5" t="n">
-        <v>117.6204357321147</v>
+        <v>421.6795797345444</v>
       </c>
       <c r="H5" t="n">
         <v>117.6204357321147</v>
@@ -4565,16 +4567,16 @@
         <v>51.2467865680031</v>
       </c>
       <c r="J5" t="n">
-        <v>187.5281822362819</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K5" t="n">
-        <v>442.5171852816084</v>
+        <v>442.5171852816081</v>
       </c>
       <c r="L5" t="n">
-        <v>795.755353087291</v>
+        <v>795.7553530872915</v>
       </c>
       <c r="M5" t="n">
-        <v>1220.470313923561</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N5" t="n">
         <v>1656.671415230817</v>
@@ -4592,25 +4594,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S5" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926625</v>
       </c>
       <c r="T5" t="n">
-        <v>2353.59368700598</v>
+        <v>2437.640120926625</v>
       </c>
       <c r="U5" t="n">
-        <v>2353.59368700598</v>
+        <v>2437.640120926625</v>
       </c>
       <c r="V5" t="n">
-        <v>2353.59368700598</v>
+        <v>2106.577233583054</v>
       </c>
       <c r="W5" t="n">
-        <v>2353.59368700598</v>
+        <v>2106.577233583054</v>
       </c>
       <c r="X5" t="n">
-        <v>1980.1279287449</v>
+        <v>2106.577233583054</v>
       </c>
       <c r="Y5" t="n">
-        <v>1589.988596769088</v>
+        <v>1716.437901607243</v>
       </c>
     </row>
     <row r="6">
@@ -4638,34 +4640,34 @@
         <v>165.443278618252</v>
       </c>
       <c r="H6" t="n">
-        <v>71.67401812057898</v>
+        <v>71.67401812057899</v>
       </c>
       <c r="I6" t="n">
         <v>51.2467865680031</v>
       </c>
       <c r="J6" t="n">
-        <v>113.5972052500114</v>
+        <v>113.5972052500113</v>
       </c>
       <c r="K6" t="n">
-        <v>298.3188265310614</v>
+        <v>298.3188265310613</v>
       </c>
       <c r="L6" t="n">
-        <v>593.0223835625332</v>
+        <v>932.4978103100997</v>
       </c>
       <c r="M6" t="n">
-        <v>956.2844025217532</v>
+        <v>1295.75982926932</v>
       </c>
       <c r="N6" t="n">
-        <v>1343.569531118698</v>
+        <v>1683.044957866265</v>
       </c>
       <c r="O6" t="n">
-        <v>1676.586023648284</v>
+        <v>2015.115393042426</v>
       </c>
       <c r="P6" t="n">
-        <v>2239.046898434118</v>
+        <v>2422.685363568936</v>
       </c>
       <c r="Q6" t="n">
-        <v>2562.339328400155</v>
+        <v>2538.001278676482</v>
       </c>
       <c r="R6" t="n">
         <v>2562.339328400155</v>
@@ -4699,40 +4701,40 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>305.8408313751036</v>
+        <v>833.0891146802707</v>
       </c>
       <c r="C7" t="n">
-        <v>305.8408313751036</v>
+        <v>664.1529317523638</v>
       </c>
       <c r="D7" t="n">
-        <v>305.8408313751036</v>
+        <v>514.036292340028</v>
       </c>
       <c r="E7" t="n">
-        <v>305.8408313751036</v>
+        <v>366.1231987576349</v>
       </c>
       <c r="F7" t="n">
-        <v>305.8408313751036</v>
+        <v>219.2332512597245</v>
       </c>
       <c r="G7" t="n">
-        <v>305.8408313751036</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="H7" t="n">
-        <v>157.1019332386097</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I7" t="n">
         <v>51.2467865680031</v>
       </c>
       <c r="J7" t="n">
-        <v>76.71595955312199</v>
+        <v>76.71595955312198</v>
       </c>
       <c r="K7" t="n">
-        <v>248.4064713020476</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L7" t="n">
-        <v>523.6376499693235</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M7" t="n">
-        <v>824.2194607096588</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N7" t="n">
         <v>1123.088724245823</v>
@@ -4747,28 +4749,28 @@
         <v>1636.446120074497</v>
       </c>
       <c r="R7" t="n">
-        <v>1558.668055759517</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S7" t="n">
-        <v>1362.039307919378</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="T7" t="n">
-        <v>1139.060827114113</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="U7" t="n">
-        <v>849.9424896179511</v>
+        <v>1347.327782578335</v>
       </c>
       <c r="V7" t="n">
-        <v>595.2580014120642</v>
+        <v>1347.327782578335</v>
       </c>
       <c r="W7" t="n">
-        <v>305.8408313751036</v>
+        <v>1347.327782578335</v>
       </c>
       <c r="X7" t="n">
-        <v>305.8408313751036</v>
+        <v>1235.53015865404</v>
       </c>
       <c r="Y7" t="n">
-        <v>305.8408313751036</v>
+        <v>1014.73757951051</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1491.569348694472</v>
+        <v>1026.041751680663</v>
       </c>
       <c r="C8" t="n">
-        <v>1122.606831754061</v>
+        <v>1026.041751680663</v>
       </c>
       <c r="D8" t="n">
-        <v>1122.606831754061</v>
+        <v>1026.041751680663</v>
       </c>
       <c r="E8" t="n">
-        <v>736.8185791558162</v>
+        <v>1026.041751680663</v>
       </c>
       <c r="F8" t="n">
-        <v>325.8326743662087</v>
+        <v>837.3843300102556</v>
       </c>
       <c r="G8" t="n">
-        <v>66.51211643218342</v>
+        <v>421.6795797345444</v>
       </c>
       <c r="H8" t="n">
-        <v>66.51211643218342</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218342</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912089</v>
+        <v>187.5281822362822</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810553</v>
+        <v>442.5171852816088</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329464</v>
+        <v>795.755353087292</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001388</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060171</v>
+        <v>1656.671415230817</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939508</v>
+        <v>2055.22848474084</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296686</v>
+        <v>2360.886721764997</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052368</v>
+        <v>2542.25058172385</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.605821609171</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S8" t="n">
-        <v>3325.605821609171</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="T8" t="n">
-        <v>3325.605821609171</v>
+        <v>2353.59368700598</v>
       </c>
       <c r="U8" t="n">
-        <v>3325.605821609171</v>
+        <v>2100.012626270159</v>
       </c>
       <c r="V8" t="n">
-        <v>2994.5429342656</v>
+        <v>1768.949738926588</v>
       </c>
       <c r="W8" t="n">
-        <v>2641.774278995485</v>
+        <v>1416.181083656474</v>
       </c>
       <c r="X8" t="n">
-        <v>2268.308520734406</v>
+        <v>1416.181083656474</v>
       </c>
       <c r="Y8" t="n">
-        <v>1878.169188758594</v>
+        <v>1026.041751680663</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811082</v>
+        <v>931.3041410966388</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999812</v>
+        <v>756.8511118155118</v>
       </c>
       <c r="D9" t="n">
-        <v>618.15641553873</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332745</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601595</v>
+        <v>302.1446891756899</v>
       </c>
       <c r="G9" t="n">
-        <v>176.021302392778</v>
+        <v>165.443278618252</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064547</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218342</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228007</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031479</v>
+        <v>614.5430248380227</v>
       </c>
       <c r="L9" t="n">
-        <v>765.151745215813</v>
+        <v>909.2465818694943</v>
       </c>
       <c r="M9" t="n">
-        <v>1212.428070438129</v>
+        <v>1272.508600828714</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992583</v>
+        <v>1659.79372942566</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410638</v>
+        <v>1991.864164601821</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886741</v>
+        <v>2239.046898434118</v>
       </c>
       <c r="Q9" t="n">
-        <v>2565.053542533341</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125856</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619336</v>
+        <v>2426.617474780096</v>
       </c>
       <c r="T9" t="n">
-        <v>2242.828302297192</v>
+        <v>2232.610846175226</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431607</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V9" t="n">
-        <v>1779.608347199865</v>
+        <v>1769.368633815395</v>
       </c>
       <c r="W9" t="n">
-        <v>1525.370990471663</v>
+        <v>1515.131277087193</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.51949026613</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501176</v>
+        <v>1099.519478116707</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>777.020896318616</v>
+        <v>201.3634259803388</v>
       </c>
       <c r="C10" t="n">
-        <v>608.0847133907091</v>
+        <v>201.3634259803388</v>
       </c>
       <c r="D10" t="n">
-        <v>457.9680739783734</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="E10" t="n">
-        <v>310.0549803959803</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="F10" t="n">
-        <v>310.0549803959803</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="G10" t="n">
-        <v>310.0549803959803</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="H10" t="n">
-        <v>163.8377936138381</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218342</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J10" t="n">
-        <v>111.634748879119</v>
+        <v>76.71595955312196</v>
       </c>
       <c r="K10" t="n">
-        <v>315.6219318279954</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L10" t="n">
-        <v>632.1817302764914</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M10" t="n">
-        <v>976.3387758760405</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N10" t="n">
-        <v>1317.747152581905</v>
+        <v>1123.088724245823</v>
       </c>
       <c r="O10" t="n">
-        <v>1617.076751502319</v>
+        <v>1383.126566999034</v>
       </c>
       <c r="P10" t="n">
-        <v>1849.684251935978</v>
+        <v>1582.113182171023</v>
       </c>
       <c r="Q10" t="n">
-        <v>1927.294548088493</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="R10" t="n">
-        <v>1837.464090846021</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S10" t="n">
-        <v>1837.464090846021</v>
+        <v>1598.57532735944</v>
       </c>
       <c r="T10" t="n">
-        <v>1615.697475415547</v>
+        <v>1375.596846554175</v>
       </c>
       <c r="U10" t="n">
-        <v>1326.59460854119</v>
+        <v>1086.478509058013</v>
       </c>
       <c r="V10" t="n">
-        <v>1071.910120335303</v>
+        <v>831.794020852126</v>
       </c>
       <c r="W10" t="n">
-        <v>782.4929502983425</v>
+        <v>831.794020852126</v>
       </c>
       <c r="X10" t="n">
-        <v>782.4929502983425</v>
+        <v>603.8044699541086</v>
       </c>
       <c r="Y10" t="n">
-        <v>782.4929502983425</v>
+        <v>383.0118908105785</v>
       </c>
     </row>
     <row r="11">
@@ -5033,19 +5035,19 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192605</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111704</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075799</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
         <v>2206.558663014779</v>
@@ -5054,34 +5056,34 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5103,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5112,28 +5114,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L12" t="n">
-        <v>243.4633055756266</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="M12" t="n">
-        <v>840.8417932021787</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="N12" t="n">
-        <v>1344.266747951537</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190824</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P12" t="n">
         <v>2319.799627685893</v>
@@ -5173,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>803.2707707770328</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C13" t="n">
-        <v>634.3345878491259</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D13" t="n">
-        <v>484.2179484367902</v>
+        <v>261.8464821474262</v>
       </c>
       <c r="E13" t="n">
-        <v>336.304854854397</v>
+        <v>261.8464821474262</v>
       </c>
       <c r="F13" t="n">
-        <v>317.6151975578601</v>
+        <v>261.8464821474262</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578601</v>
+        <v>94.65038286230612</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832664</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487568</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510509</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854707</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.70136564882</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W13" t="n">
-        <v>1433.70136564882</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X13" t="n">
-        <v>1205.711814750803</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y13" t="n">
-        <v>984.9192356072725</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="14">
@@ -5270,13 +5272,13 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192611</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K14" t="n">
         <v>852.8523611075807</v>
@@ -5294,22 +5296,22 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
         <v>3820.749612123003</v>
@@ -5340,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5349,34 +5351,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K15" t="n">
-        <v>577.3880777468473</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L15" t="n">
-        <v>1072.713683962606</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M15" t="n">
-        <v>1670.092171589158</v>
+        <v>913.2907898187001</v>
       </c>
       <c r="N15" t="n">
-        <v>2297.690135143765</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="O15" t="n">
-        <v>2553.061288060775</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>945.4026036630049</v>
+        <v>868.6673633290469</v>
       </c>
       <c r="C16" t="n">
-        <v>776.466420735098</v>
+        <v>699.73118040114</v>
       </c>
       <c r="D16" t="n">
-        <v>626.3497813227623</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="E16" t="n">
-        <v>478.4366877403692</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F16" t="n">
-        <v>478.4366877403692</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G16" t="n">
-        <v>311.2405884552491</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
-        <v>169.5287572974472</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S16" t="n">
-        <v>2446.963083580261</v>
+        <v>2332.274843099484</v>
       </c>
       <c r="T16" t="n">
-        <v>2227.361618603202</v>
+        <v>2332.274843099484</v>
       </c>
       <c r="U16" t="n">
-        <v>1938.2863919474</v>
+        <v>2043.199616443682</v>
       </c>
       <c r="V16" t="n">
-        <v>1683.601903741513</v>
+        <v>1788.515128237795</v>
       </c>
       <c r="W16" t="n">
-        <v>1394.184733704552</v>
+        <v>1499.097958200834</v>
       </c>
       <c r="X16" t="n">
-        <v>1166.195182806535</v>
+        <v>1271.108407302817</v>
       </c>
       <c r="Y16" t="n">
-        <v>945.4026036630049</v>
+        <v>1050.315828159287</v>
       </c>
     </row>
     <row r="17">
@@ -5492,7 +5494,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
         <v>1590.547811004713</v>
@@ -5507,16 +5509,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
         <v>95.34095638192616</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5525,28 +5527,28 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
         <v>3820.749612123003</v>
@@ -5577,7 +5579,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5586,10 +5588,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
         <v>243.4633055756266</v>
@@ -5601,19 +5603,19 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>1670.092171589158</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N18" t="n">
-        <v>2297.690135143765</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O18" t="n">
-        <v>2297.690135143765</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P18" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>929.7309773356194</v>
+        <v>3047.734188001555</v>
       </c>
       <c r="C19" t="n">
-        <v>929.7309773356194</v>
+        <v>2878.798005073648</v>
       </c>
       <c r="D19" t="n">
-        <v>779.6143379232836</v>
+        <v>2728.681365661313</v>
       </c>
       <c r="E19" t="n">
-        <v>631.7012443408905</v>
+        <v>2728.681365661313</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429802</v>
+        <v>2728.681365661313</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578601</v>
+        <v>2561.485266376193</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>2419.773435218391</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797189</v>
+        <v>2337.686731866304</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>2417.922750296628</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>2679.612012822167</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>3070.010606998107</v>
       </c>
       <c r="M19" t="n">
-        <v>1248.150240910809</v>
+        <v>3492.020309729142</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>3909.43018138915</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>4278.959462098135</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.764848853361</v>
+        <v>4571.634917671694</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>4623.787448650995</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487568</v>
+        <v>4623.787448650995</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510509</v>
+        <v>4511.341667771992</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854707</v>
+        <v>4222.26644111619</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.70136564882</v>
+        <v>3967.581952910303</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611859</v>
+        <v>3678.164782873342</v>
       </c>
       <c r="X19" t="n">
-        <v>929.7309773356194</v>
+        <v>3450.175231975325</v>
       </c>
       <c r="Y19" t="n">
-        <v>929.7309773356194</v>
+        <v>3229.382652831795</v>
       </c>
     </row>
     <row r="20">
@@ -5738,34 +5740,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G20" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
         <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5805,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>943.3991132778466</v>
+        <v>3081.170977615666</v>
       </c>
       <c r="C21" t="n">
-        <v>768.9460839967196</v>
+        <v>2906.717948334539</v>
       </c>
       <c r="D21" t="n">
-        <v>620.0116743354683</v>
+        <v>2757.783538673288</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300129</v>
+        <v>2598.546083667832</v>
       </c>
       <c r="F21" t="n">
-        <v>314.2396613568978</v>
+        <v>2452.011525694717</v>
       </c>
       <c r="G21" t="n">
-        <v>178.4809954028057</v>
+        <v>2316.252859740625</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797189</v>
+        <v>2231.588527385791</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797189</v>
+        <v>2231.588527385791</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>2231.588527385791</v>
       </c>
       <c r="K21" t="n">
-        <v>243.4633055756266</v>
+        <v>2231.588527385791</v>
       </c>
       <c r="L21" t="n">
-        <v>738.7889117913853</v>
+        <v>2726.91413360155</v>
       </c>
       <c r="M21" t="n">
-        <v>1336.167399417937</v>
+        <v>3324.292621228102</v>
       </c>
       <c r="N21" t="n">
-        <v>1963.765362972544</v>
+        <v>3482.038612289356</v>
       </c>
       <c r="O21" t="n">
-        <v>1963.765362972544</v>
+        <v>4033.948342528643</v>
       </c>
       <c r="P21" t="n">
-        <v>2319.799627685893</v>
+        <v>4457.571492023711</v>
       </c>
       <c r="Q21" t="n">
-        <v>2553.061288060775</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="R21" t="n">
-        <v>2553.061288060775</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S21" t="n">
-        <v>2434.850501963388</v>
+        <v>4572.622366301206</v>
       </c>
       <c r="T21" t="n">
-        <v>2244.643795685161</v>
+        <v>4382.41566002298</v>
       </c>
       <c r="U21" t="n">
-        <v>2016.615714228345</v>
+        <v>4154.387578566165</v>
       </c>
       <c r="V21" t="n">
-        <v>1781.463605996603</v>
+        <v>3919.235470334422</v>
       </c>
       <c r="W21" t="n">
-        <v>1527.226249268401</v>
+        <v>3664.998113606221</v>
       </c>
       <c r="X21" t="n">
-        <v>1319.374749062868</v>
+        <v>3457.146613400688</v>
       </c>
       <c r="Y21" t="n">
-        <v>1111.614450297915</v>
+        <v>3249.386314635734</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1023.721406539404</v>
+        <v>741.8431516380886</v>
       </c>
       <c r="C22" t="n">
-        <v>854.7852236114971</v>
+        <v>572.9069687101817</v>
       </c>
       <c r="D22" t="n">
-        <v>704.6685841991614</v>
+        <v>422.7903292978459</v>
       </c>
       <c r="E22" t="n">
-        <v>556.7554906167683</v>
+        <v>422.7903292978459</v>
       </c>
       <c r="F22" t="n">
-        <v>409.8655431188579</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G22" t="n">
-        <v>242.6694438337378</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H22" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1977.461080510509</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1722.776592304622</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1433.359422267661</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>1205.369871369644</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="Y22" t="n">
-        <v>1205.369871369644</v>
+        <v>923.4916164683283</v>
       </c>
     </row>
     <row r="23">
@@ -5975,61 +5977,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6060,28 +6062,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="K24" t="n">
-        <v>577.3880777468471</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L24" t="n">
-        <v>577.3880777468471</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M24" t="n">
-        <v>1174.766565373399</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N24" t="n">
-        <v>1802.364528928006</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O24" t="n">
-        <v>2354.274259167293</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P24" t="n">
         <v>2553.061288060775</v>
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1098.667160263526</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>929.7309773356194</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D25" t="n">
-        <v>779.6143379232836</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E25" t="n">
-        <v>631.7012443408905</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F25" t="n">
-        <v>484.8112968429802</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1824.417283336614</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1569.732795130727</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1280.315625093766</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>1280.315625093766</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6200,46 +6202,46 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6257,19 +6259,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="27">
@@ -6303,22 +6305,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K27" t="n">
-        <v>577.3880777468471</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L27" t="n">
-        <v>1072.713683962606</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M27" t="n">
-        <v>1670.092171589158</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N27" t="n">
-        <v>2297.690135143765</v>
+        <v>1814.118720444889</v>
       </c>
       <c r="O27" t="n">
-        <v>2297.690135143765</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P27" t="n">
         <v>2553.061288060775</v>
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>983.3556038098242</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="C28" t="n">
-        <v>814.4194208819173</v>
+        <v>526.5658826424041</v>
       </c>
       <c r="D28" t="n">
-        <v>664.3027814695815</v>
+        <v>526.5658826424041</v>
       </c>
       <c r="E28" t="n">
-        <v>516.3896878871884</v>
+        <v>526.5658826424041</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908938</v>
+        <v>379.6759351444937</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>212.4798358593736</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2446.963083580261</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2446.963083580261</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>2157.887856924459</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1903.203368718572</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1613.786198681611</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>1385.796647783594</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>1165.004068640064</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6452,19 +6454,19 @@
         <v>793.7736536168609</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6473,22 +6475,22 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T29" t="n">
         <v>4405.252601474784</v>
@@ -6534,10 +6536,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
         <v>243.4633055756266</v>
@@ -6549,10 +6551,10 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M30" t="n">
-        <v>1373.553594266881</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N30" t="n">
-        <v>2001.151557821488</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O30" t="n">
         <v>2553.061288060775</v>
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>3195.647281583947</v>
+        <v>1022.872235754091</v>
       </c>
       <c r="C31" t="n">
-        <v>3026.711098656041</v>
+        <v>853.936052826184</v>
       </c>
       <c r="D31" t="n">
-        <v>2876.594459243705</v>
+        <v>703.8194134138482</v>
       </c>
       <c r="E31" t="n">
-        <v>2728.681365661312</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F31" t="n">
-        <v>2728.681365661312</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G31" t="n">
-        <v>2561.485266376192</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H31" t="n">
-        <v>2419.77343521839</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I31" t="n">
-        <v>2337.686731866303</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>2417.922750296627</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>2679.612012822166</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>3070.010606998106</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
-        <v>3492.020309729141</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>3909.430181389149</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>4278.959462098134</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
-        <v>4571.634917671693</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>4690.833152398593</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>4507.978318053497</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>4288.376853076438</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="U31" t="n">
-        <v>3999.301626420636</v>
+        <v>1907.987318831765</v>
       </c>
       <c r="V31" t="n">
-        <v>3744.61713821475</v>
+        <v>1653.302830625878</v>
       </c>
       <c r="W31" t="n">
-        <v>3598.088325557717</v>
+        <v>1653.302830625878</v>
       </c>
       <c r="X31" t="n">
-        <v>3598.088325557717</v>
+        <v>1425.313279727861</v>
       </c>
       <c r="Y31" t="n">
-        <v>3377.295746414187</v>
+        <v>1204.520700584331</v>
       </c>
     </row>
     <row r="32">
@@ -6686,40 +6688,40 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N32" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
@@ -6777,28 +6779,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K33" t="n">
-        <v>243.4633055756266</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L33" t="n">
-        <v>243.4633055756266</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M33" t="n">
-        <v>840.8417932021785</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N33" t="n">
-        <v>1468.439756756785</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="O33" t="n">
-        <v>2020.349486996072</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P33" t="n">
-        <v>2443.97263649114</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q33" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>924.6979859831846</v>
+        <v>2757.723669558405</v>
       </c>
       <c r="C34" t="n">
-        <v>755.7618030552777</v>
+        <v>2588.787486630498</v>
       </c>
       <c r="D34" t="n">
-        <v>605.645163642942</v>
+        <v>2588.787486630498</v>
       </c>
       <c r="E34" t="n">
-        <v>457.7320700605488</v>
+        <v>2588.787486630498</v>
       </c>
       <c r="F34" t="n">
-        <v>457.7320700605488</v>
+        <v>2588.787486630498</v>
       </c>
       <c r="G34" t="n">
-        <v>290.5359707754288</v>
+        <v>2479.398563024106</v>
       </c>
       <c r="H34" t="n">
-        <v>148.8241396176269</v>
+        <v>2337.686731866304</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797187</v>
+        <v>2337.686731866304</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782958</v>
+        <v>2417.922750296628</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038345</v>
+        <v>2679.612012822167</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797747</v>
+        <v>3070.010606998107</v>
       </c>
       <c r="M34" t="n">
-        <v>1248.150240910809</v>
+        <v>3492.020309729142</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570818</v>
+        <v>3909.43018138915</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279803</v>
+        <v>4278.959462098135</v>
       </c>
       <c r="P34" t="n">
-        <v>2327.764848853361</v>
+        <v>4571.634917671694</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.963083580261</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="R34" t="n">
-        <v>2379.917379832663</v>
+        <v>4623.787448650995</v>
       </c>
       <c r="S34" t="n">
-        <v>2379.917379832663</v>
+        <v>4440.9326143059</v>
       </c>
       <c r="T34" t="n">
-        <v>2160.315914855604</v>
+        <v>4221.331149328841</v>
       </c>
       <c r="U34" t="n">
-        <v>1871.240688199802</v>
+        <v>3932.255922673039</v>
       </c>
       <c r="V34" t="n">
-        <v>1616.556199993915</v>
+        <v>3677.571434467152</v>
       </c>
       <c r="W34" t="n">
-        <v>1327.139029956954</v>
+        <v>3388.154264430192</v>
       </c>
       <c r="X34" t="n">
-        <v>1327.139029956954</v>
+        <v>3160.164713532175</v>
       </c>
       <c r="Y34" t="n">
-        <v>1106.346450813424</v>
+        <v>2939.372134388645</v>
       </c>
     </row>
     <row r="35">
@@ -6923,19 +6925,19 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192602</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
         <v>852.8523611075809</v>
@@ -6947,25 +6949,25 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
         <v>4151.812499466573</v>
@@ -6999,7 +7001,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7008,34 +7010,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K36" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L36" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="M36" t="n">
-        <v>840.8417932021785</v>
+        <v>691.1951506745238</v>
       </c>
       <c r="N36" t="n">
-        <v>1468.439756756785</v>
+        <v>1318.79311422913</v>
       </c>
       <c r="O36" t="n">
-        <v>2020.349486996072</v>
+        <v>1870.702844468417</v>
       </c>
       <c r="P36" t="n">
-        <v>2319.799627685893</v>
+        <v>2294.325993963485</v>
       </c>
       <c r="Q36" t="n">
-        <v>2553.061288060775</v>
+        <v>2527.587654338368</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>983.3556038098242</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>814.4194208819173</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D37" t="n">
-        <v>664.3027814695815</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E37" t="n">
-        <v>516.3896878871884</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F37" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G37" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2446.963083580261</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2446.963083580261</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>2157.887856924459</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1903.203368718572</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1613.786198681611</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>1385.796647783594</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>1165.004068640064</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7166,55 +7168,55 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
         <v>95.34095638192599</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N38" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7236,7 +7238,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7245,10 +7247,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
         <v>243.4633055756266</v>
@@ -7260,7 +7262,7 @@
         <v>243.4633055756266</v>
       </c>
       <c r="M39" t="n">
-        <v>680.0291294438171</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N39" t="n">
         <v>1307.627092998424</v>
@@ -7306,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>718.550723916711</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>549.6145409888042</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D40" t="n">
-        <v>549.6145409888042</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E40" t="n">
-        <v>549.6145409888042</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F40" t="n">
-        <v>402.7245934908938</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>1120.991767890481</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>900.1991887469508</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7406,34 +7408,34 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R41" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
         <v>4606.285157492578</v>
@@ -7445,13 +7447,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7473,7 +7475,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F42" t="n">
         <v>314.2396613568978</v>
@@ -7482,31 +7484,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>243.4633055756266</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K42" t="n">
-        <v>243.4633055756266</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L42" t="n">
-        <v>738.7889117913853</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M42" t="n">
-        <v>1336.167399417937</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="N42" t="n">
-        <v>1336.167399417937</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="O42" t="n">
-        <v>1888.077129657224</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P42" t="n">
-        <v>2311.700279152293</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q42" t="n">
         <v>2516.421633107662</v>
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>801.6918836311994</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C43" t="n">
-        <v>632.7557007032925</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D43" t="n">
-        <v>549.6145409888042</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E43" t="n">
-        <v>549.6145409888042</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F43" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G43" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.963083580261</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S43" t="n">
-        <v>2264.108249235165</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T43" t="n">
-        <v>2044.506784258106</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U43" t="n">
-        <v>1755.431557602304</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V43" t="n">
-        <v>1500.747069396417</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W43" t="n">
-        <v>1211.329899359456</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X43" t="n">
-        <v>983.3403484614391</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y43" t="n">
-        <v>983.3403484614391</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="44">
@@ -7646,49 +7648,49 @@
         <v>95.34095638192599</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R44" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T44" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
         <v>2704.375866615997</v>
@@ -7710,7 +7712,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E45" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F45" t="n">
         <v>314.2396613568978</v>
@@ -7719,31 +7721,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K45" t="n">
-        <v>577.3880777468471</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L45" t="n">
-        <v>1072.713683962606</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M45" t="n">
-        <v>1344.266747951537</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N45" t="n">
-        <v>1344.266747951537</v>
+        <v>1814.118720444889</v>
       </c>
       <c r="O45" t="n">
-        <v>1896.176478190824</v>
+        <v>2366.028450684176</v>
       </c>
       <c r="P45" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
         <v>2553.061288060775</v>
@@ -7780,70 +7782,70 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>2757.723669558406</v>
+        <v>2757.723669558405</v>
       </c>
       <c r="C46" t="n">
-        <v>2588.787486630499</v>
+        <v>2588.787486630498</v>
       </c>
       <c r="D46" t="n">
-        <v>2588.787486630499</v>
+        <v>2588.787486630498</v>
       </c>
       <c r="E46" t="n">
-        <v>2588.787486630499</v>
+        <v>2588.787486630498</v>
       </c>
       <c r="F46" t="n">
-        <v>2588.787486630499</v>
+        <v>2588.787486630498</v>
       </c>
       <c r="G46" t="n">
-        <v>2479.398563024107</v>
+        <v>2421.591387345378</v>
       </c>
       <c r="H46" t="n">
-        <v>2337.686731866305</v>
+        <v>2419.773435218391</v>
       </c>
       <c r="I46" t="n">
-        <v>2337.686731866305</v>
+        <v>2337.686731866304</v>
       </c>
       <c r="J46" t="n">
-        <v>2417.922750296629</v>
+        <v>2417.922750296628</v>
       </c>
       <c r="K46" t="n">
-        <v>2679.612012822168</v>
+        <v>2679.612012822167</v>
       </c>
       <c r="L46" t="n">
-        <v>3070.010606998108</v>
+        <v>3070.010606998107</v>
       </c>
       <c r="M46" t="n">
-        <v>3492.020309729143</v>
+        <v>3492.020309729142</v>
       </c>
       <c r="N46" t="n">
-        <v>3909.430181389151</v>
+        <v>3909.43018138915</v>
       </c>
       <c r="O46" t="n">
-        <v>4278.959462098136</v>
+        <v>4278.959462098135</v>
       </c>
       <c r="P46" t="n">
-        <v>4571.634917671695</v>
+        <v>4571.634917671694</v>
       </c>
       <c r="Q46" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="R46" t="n">
-        <v>4623.787448650996</v>
+        <v>4623.787448650995</v>
       </c>
       <c r="S46" t="n">
-        <v>4440.932614305901</v>
+        <v>4440.9326143059</v>
       </c>
       <c r="T46" t="n">
-        <v>4221.331149328842</v>
+        <v>4221.331149328841</v>
       </c>
       <c r="U46" t="n">
-        <v>3932.25592267304</v>
+        <v>3932.255922673039</v>
       </c>
       <c r="V46" t="n">
-        <v>3677.571434467153</v>
+        <v>3677.571434467152</v>
       </c>
       <c r="W46" t="n">
-        <v>3388.154264430193</v>
+        <v>3388.154264430192</v>
       </c>
       <c r="X46" t="n">
         <v>3160.164713532175</v>
@@ -8055,22 +8057,22 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>342.9044714621887</v>
       </c>
       <c r="M3" t="n">
-        <v>273.6534998179982</v>
+        <v>162.0073097921339</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>129.7511347056854</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -8079,7 +8081,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>20.93778120154988</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8298,7 +8300,7 @@
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>342.9044714621886</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -8307,16 +8309,16 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>0.9556134883063123</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>318.4627686399372</v>
+        <v>162.0073097921338</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>20.93778120154988</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8526,13 +8528,13 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>193.327346787835</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8550,10 +8552,10 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>20.93778120154991</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -23422,19 +23424,19 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>126.9182872993597</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>139.469330230033</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23476,7 +23478,7 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23650,7 +23652,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -23659,10 +23661,10 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -23671,7 +23673,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>6.310863011584928</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,13 +23700,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012164</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>67.48492792567578</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23887,19 +23889,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -23938,10 +23940,10 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>106.0841272570744</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23953,10 +23955,10 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>13.30196929556007</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24133,16 +24135,16 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>41.29766760034539</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>74.1962961868811</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -24181,7 +24183,7 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24190,10 +24192,10 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24367,22 +24369,22 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>65.54986409393068</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24418,7 +24420,7 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>68.29586847696629</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24427,10 +24429,10 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24598,28 +24600,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>32.8926045705996</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>104.0840080815017</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,13 +24648,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24844,10 +24846,10 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>75.03697526434117</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -24883,13 +24885,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -24898,10 +24900,10 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>141.4594738061292</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25078,22 +25080,22 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>57.22910392194129</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>26.80843451460706</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25123,7 +25125,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25138,7 +25140,7 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25315,22 +25317,22 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>32.89260457059966</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,13 +25359,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25558,16 +25560,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>62.35543909864957</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25612,7 +25614,7 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>136.2749052347512</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25789,13 +25791,13 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>66.30572490086888</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -25804,7 +25806,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012166</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -25852,7 +25854,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -26035,13 +26037,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>57.22910392194129</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>138.4949402405066</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>766173.0207395977</v>
+        <v>772709.1409907757</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>753319.9883283913</v>
+        <v>753319.9883283912</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>753319.9883283912</v>
+        <v>753319.9883283913</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>753319.9883283912</v>
+        <v>753319.9883283911</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>753319.9883283912</v>
+        <v>753319.9883283911</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>753319.9883283913</v>
+        <v>753319.9883283912</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>753319.9883283912</v>
+        <v>753319.9883283913</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>753319.9883283913</v>
+        <v>753319.9883283911</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>753319.9883283912</v>
+        <v>753319.9883283911</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>753319.9883283912</v>
+        <v>753319.9883283911</v>
       </c>
     </row>
     <row r="16">
@@ -26311,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>677359.460138034</v>
+        <v>677359.4601380338</v>
       </c>
       <c r="C2" t="n">
-        <v>677359.4601380336</v>
+        <v>677359.4601380337</v>
       </c>
       <c r="D2" t="n">
         <v>677359.4601380336</v>
       </c>
       <c r="E2" t="n">
-        <v>665895.9447442552</v>
+        <v>665895.944744255</v>
       </c>
       <c r="F2" t="n">
-        <v>665895.9447442552</v>
+        <v>665895.9447442548</v>
       </c>
       <c r="G2" t="n">
-        <v>665895.9447442552</v>
+        <v>665895.9447442549</v>
       </c>
       <c r="H2" t="n">
-        <v>665895.9447442553</v>
+        <v>665895.9447442548</v>
       </c>
       <c r="I2" t="n">
-        <v>665895.9447442553</v>
+        <v>665895.9447442549</v>
       </c>
       <c r="J2" t="n">
+        <v>665895.9447442546</v>
+      </c>
+      <c r="K2" t="n">
         <v>665895.944744255</v>
       </c>
-      <c r="K2" t="n">
-        <v>665895.9447442552</v>
-      </c>
       <c r="L2" t="n">
-        <v>665895.9447442554</v>
+        <v>665895.9447442549</v>
       </c>
       <c r="M2" t="n">
-        <v>665895.944744255</v>
+        <v>665895.9447442548</v>
       </c>
       <c r="N2" t="n">
-        <v>665895.944744255</v>
+        <v>665895.9447442548</v>
       </c>
       <c r="O2" t="n">
+        <v>665895.9447442547</v>
+      </c>
+      <c r="P2" t="n">
         <v>665895.9447442549</v>
-      </c>
-      <c r="P2" t="n">
-        <v>665895.9447442552</v>
       </c>
     </row>
     <row r="3">
@@ -26369,10 +26371,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>192627.1404403378</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073556</v>
+        <v>507485.441624546</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>167605.1778099825</v>
+        <v>167605.1778099826</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>48293.9700081908</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551199</v>
+        <v>132607.2937289267</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,49 +26417,49 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>133113.8635467443</v>
+      </c>
+      <c r="C4" t="n">
         <v>133113.8635467444</v>
       </c>
-      <c r="C4" t="n">
-        <v>133113.8635467443</v>
-      </c>
       <c r="D4" t="n">
-        <v>86694.40323307097</v>
+        <v>133113.8635467444</v>
       </c>
       <c r="E4" t="n">
-        <v>7507.36846171964</v>
+        <v>7507.368461719667</v>
       </c>
       <c r="F4" t="n">
-        <v>7507.368461719668</v>
+        <v>7507.368461719667</v>
       </c>
       <c r="G4" t="n">
-        <v>7507.368461719668</v>
+        <v>7507.368461719667</v>
       </c>
       <c r="H4" t="n">
-        <v>7507.368461719668</v>
+        <v>7507.368461719667</v>
       </c>
       <c r="I4" t="n">
-        <v>7507.368461719668</v>
+        <v>7507.368461719729</v>
       </c>
       <c r="J4" t="n">
-        <v>7507.368461719633</v>
+        <v>7507.368461719667</v>
       </c>
       <c r="K4" t="n">
-        <v>7507.368461719635</v>
+        <v>7507.368461719667</v>
       </c>
       <c r="L4" t="n">
-        <v>7507.368461719668</v>
+        <v>7507.368461719667</v>
       </c>
       <c r="M4" t="n">
-        <v>7507.368461719655</v>
+        <v>7507.368461719667</v>
       </c>
       <c r="N4" t="n">
-        <v>7507.368461719668</v>
+        <v>7507.368461719667</v>
       </c>
       <c r="O4" t="n">
-        <v>7507.368461719668</v>
+        <v>7507.368461719667</v>
       </c>
       <c r="P4" t="n">
-        <v>7507.368461719668</v>
+        <v>7507.368461719667</v>
       </c>
     </row>
     <row r="5">
@@ -26473,7 +26475,7 @@
         <v>92937.7724398447</v>
       </c>
       <c r="D5" t="n">
-        <v>107933.9405613933</v>
+        <v>92937.7724398447</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-663443.959424475</v>
+        <v>-663443.9594244749</v>
       </c>
       <c r="C6" t="n">
+        <v>451307.8241514447</v>
+      </c>
+      <c r="D6" t="n">
         <v>451307.8241514446</v>
       </c>
-      <c r="D6" t="n">
-        <v>290103.9759032315</v>
-      </c>
       <c r="E6" t="n">
-        <v>231853.5846512727</v>
+        <v>49780.60483408232</v>
       </c>
       <c r="F6" t="n">
-        <v>557266.0464586284</v>
+        <v>557266.046458628</v>
       </c>
       <c r="G6" t="n">
-        <v>557266.0464586285</v>
+        <v>557266.0464586281</v>
       </c>
       <c r="H6" t="n">
-        <v>557266.0464586285</v>
+        <v>557266.046458628</v>
       </c>
       <c r="I6" t="n">
-        <v>557266.0464586285</v>
+        <v>557266.0464586281</v>
       </c>
       <c r="J6" t="n">
-        <v>389660.8686486458</v>
+        <v>389660.8686486452</v>
       </c>
       <c r="K6" t="n">
-        <v>557266.0464586285</v>
+        <v>557266.0464586283</v>
       </c>
       <c r="L6" t="n">
-        <v>508972.0764504378</v>
+        <v>557266.0464586281</v>
       </c>
       <c r="M6" t="n">
-        <v>472211.0185231163</v>
+        <v>424658.7527297013</v>
       </c>
       <c r="N6" t="n">
-        <v>557266.0464586283</v>
+        <v>557266.046458628</v>
       </c>
       <c r="O6" t="n">
+        <v>557266.0464586279</v>
+      </c>
+      <c r="P6" t="n">
         <v>557266.0464586281</v>
-      </c>
-      <c r="P6" t="n">
-        <v>557266.0464586284</v>
       </c>
     </row>
   </sheetData>
@@ -26735,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175393</v>
+        <v>934.0648921175392</v>
       </c>
       <c r="C3" t="n">
-        <v>934.0648921175393</v>
+        <v>934.0648921175392</v>
       </c>
       <c r="D3" t="n">
-        <v>1089.776700593298</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26787,25 +26789,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
         <v>640.5848321000387</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022926</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="I4" t="n">
         <v>1172.708288099648</v>
@@ -26820,16 +26822,16 @@
         <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="O4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="P4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
     </row>
   </sheetData>
@@ -26957,16 +26959,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175393</v>
+        <v>934.0648921175392</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>155.711808475759</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483759</v>
+        <v>433.9106082241346</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27009,16 +27011,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>190.8166233022539</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.306832697356</v>
+        <v>532.1234559996096</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000391</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>190.8166233022541</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973564</v>
+        <v>532.1234559996096</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,16 +27257,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>190.8166233022539</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.306832697356</v>
+        <v>532.1234559996096</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27385,19 +27387,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>51.49719201510965</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>343.5574136868021</v>
       </c>
       <c r="H2" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247047</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27436,13 +27438,13 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27534,7 +27536,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27543,7 +27545,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27585,25 +27587,25 @@
         <v>101.5575724195736</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U4" t="n">
-        <v>237.638672241363</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>107.278945876605</v>
       </c>
     </row>
     <row r="5">
@@ -27616,22 +27618,22 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>301.2772215964367</v>
       </c>
       <c r="G5" t="n">
-        <v>108.78600252255</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27664,22 +27666,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U5" t="n">
         <v>251.045250128462</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27771,28 +27773,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,28 +27821,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>24.55728874774282</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>115.0300077039855</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27850,28 +27852,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>220.1051982880084</v>
       </c>
       <c r="G8" t="n">
-        <v>154.1943732987685</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,13 +27903,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -27916,7 +27918,7 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28008,28 +28010,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>174.414646742008</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,10 +28058,10 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>157.1703755738307</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -28071,13 +28073,13 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -29101,7 +29103,7 @@
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -31039,7 +31041,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.75503474218106</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H2" t="n">
         <v>38.45624955336179</v>
@@ -31054,16 +31056,16 @@
         <v>477.6545005857143</v>
       </c>
       <c r="L2" t="n">
-        <v>592.5726450767381</v>
+        <v>592.572645076738</v>
       </c>
       <c r="M2" t="n">
-        <v>659.3512441730005</v>
+        <v>659.3512441730004</v>
       </c>
       <c r="N2" t="n">
         <v>670.0202366342224</v>
       </c>
       <c r="O2" t="n">
-        <v>632.6811099166596</v>
+        <v>632.6811099166595</v>
       </c>
       <c r="P2" t="n">
         <v>539.9786897190645</v>
@@ -31075,7 +31077,7 @@
         <v>235.8772011235312</v>
       </c>
       <c r="S2" t="n">
-        <v>85.56785418745099</v>
+        <v>85.56785418745098</v>
       </c>
       <c r="T2" t="n">
         <v>16.4376645838976</v>
@@ -31124,7 +31126,7 @@
         <v>19.40387634380021</v>
       </c>
       <c r="I3" t="n">
-        <v>69.17367361436496</v>
+        <v>69.17367361436494</v>
       </c>
       <c r="J3" t="n">
         <v>189.8178475575841</v>
@@ -31136,16 +31138,16 @@
         <v>436.2347404177244</v>
       </c>
       <c r="M3" t="n">
-        <v>509.0653662040589</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N3" t="n">
-        <v>522.5388116762073</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O3" t="n">
         <v>478.0209264405675</v>
       </c>
       <c r="P3" t="n">
-        <v>383.6539365378626</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q3" t="n">
         <v>256.4624964168761</v>
@@ -31203,7 +31205,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I4" t="n">
-        <v>50.65387972335772</v>
+        <v>50.65387972335771</v>
       </c>
       <c r="J4" t="n">
         <v>119.0856174753787</v>
@@ -31230,7 +31232,7 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R4" t="n">
-        <v>75.73581895759587</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S4" t="n">
         <v>29.35413767523479</v>
@@ -31239,7 +31241,7 @@
         <v>7.196893431069562</v>
       </c>
       <c r="U4" t="n">
-        <v>0.09187523529024987</v>
+        <v>0.09187523529024985</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,7 +31278,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.75503474218106</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H5" t="n">
         <v>38.45624955336179</v>
@@ -31291,16 +31293,16 @@
         <v>477.6545005857143</v>
       </c>
       <c r="L5" t="n">
-        <v>592.5726450767381</v>
+        <v>592.572645076738</v>
       </c>
       <c r="M5" t="n">
-        <v>659.3512441730005</v>
+        <v>659.3512441730004</v>
       </c>
       <c r="N5" t="n">
         <v>670.0202366342224</v>
       </c>
       <c r="O5" t="n">
-        <v>632.6811099166596</v>
+        <v>632.6811099166595</v>
       </c>
       <c r="P5" t="n">
         <v>539.9786897190645</v>
@@ -31312,7 +31314,7 @@
         <v>235.8772011235312</v>
       </c>
       <c r="S5" t="n">
-        <v>85.56785418745099</v>
+        <v>85.56785418745098</v>
       </c>
       <c r="T5" t="n">
         <v>16.4376645838976</v>
@@ -31361,7 +31363,7 @@
         <v>19.40387634380021</v>
       </c>
       <c r="I6" t="n">
-        <v>69.17367361436496</v>
+        <v>69.17367361436494</v>
       </c>
       <c r="J6" t="n">
         <v>189.8178475575841</v>
@@ -31373,16 +31375,16 @@
         <v>436.2347404177244</v>
       </c>
       <c r="M6" t="n">
-        <v>509.0653662040589</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N6" t="n">
-        <v>522.5388116762073</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O6" t="n">
         <v>478.0209264405675</v>
       </c>
       <c r="P6" t="n">
-        <v>383.6539365378626</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q6" t="n">
         <v>256.4624964168761</v>
@@ -31440,7 +31442,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I7" t="n">
-        <v>50.65387972335772</v>
+        <v>50.65387972335771</v>
       </c>
       <c r="J7" t="n">
         <v>119.0856174753787</v>
@@ -31467,7 +31469,7 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R7" t="n">
-        <v>75.73581895759587</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S7" t="n">
         <v>29.35413767523479</v>
@@ -31476,7 +31478,7 @@
         <v>7.196893431069562</v>
       </c>
       <c r="U7" t="n">
-        <v>0.09187523529024987</v>
+        <v>0.09187523529024985</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681598</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H8" t="n">
-        <v>44.86703772844668</v>
+        <v>38.45624955336178</v>
       </c>
       <c r="I8" t="n">
-        <v>168.89895979748</v>
+        <v>144.7659768979354</v>
       </c>
       <c r="J8" t="n">
-        <v>371.8329054953988</v>
+        <v>318.7038799491899</v>
       </c>
       <c r="K8" t="n">
-        <v>557.281137600381</v>
+        <v>477.6545005857142</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623194</v>
+        <v>592.5726450767379</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574995</v>
+        <v>659.3512441730003</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095023</v>
+        <v>670.0202366342223</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099059</v>
+        <v>632.6811099166594</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746414</v>
+        <v>539.9786897190644</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.099994678169</v>
+        <v>405.5015080147051</v>
       </c>
       <c r="R8" t="n">
-        <v>275.1987363563569</v>
+        <v>235.8772011235311</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806951</v>
+        <v>85.56785418745096</v>
       </c>
       <c r="T8" t="n">
-        <v>19.1778794245112</v>
+        <v>16.43766458389759</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3004027793744847</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.344047997502566</v>
+        <v>2.00912071134716</v>
       </c>
       <c r="H9" t="n">
-        <v>22.63856881798531</v>
+        <v>19.4038763438002</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752258</v>
+        <v>69.17367361436493</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026438</v>
+        <v>189.8178475575841</v>
       </c>
       <c r="K9" t="n">
-        <v>378.5123470353157</v>
+        <v>324.4289352178438</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138796</v>
+        <v>436.2347404177243</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233475</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837925</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O9" t="n">
-        <v>557.708647897025</v>
+        <v>478.0209264405674</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002927</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987487</v>
+        <v>256.462496416876</v>
       </c>
       <c r="R9" t="n">
-        <v>145.5365940905541</v>
+        <v>124.741722762414</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238316</v>
+        <v>37.31853601997901</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898497</v>
+        <v>8.098166376000171</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1542136840462215</v>
+        <v>0.1321789941675763</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.965171099430538</v>
+        <v>1.684379313654579</v>
       </c>
       <c r="H10" t="n">
-        <v>17.47215759311879</v>
+        <v>14.97566335231072</v>
       </c>
       <c r="I10" t="n">
-        <v>59.09805451742019</v>
+        <v>50.6538797233577</v>
       </c>
       <c r="J10" t="n">
-        <v>138.937596729739</v>
+        <v>119.0856174753787</v>
       </c>
       <c r="K10" t="n">
-        <v>228.3171513702024</v>
+        <v>195.6942511682319</v>
       </c>
       <c r="L10" t="n">
-        <v>292.167346909882</v>
+        <v>250.4212663227908</v>
       </c>
       <c r="M10" t="n">
-        <v>308.0495024316432</v>
+        <v>264.0341136849627</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883115</v>
+        <v>257.7559726067958</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086001</v>
+        <v>238.0793597154672</v>
       </c>
       <c r="P10" t="n">
-        <v>237.6785118802169</v>
+        <v>203.7180217169137</v>
       </c>
       <c r="Q10" t="n">
-        <v>164.556281789588</v>
+        <v>141.0437987097484</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712215</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553036</v>
+        <v>29.35413767523478</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112296</v>
+        <v>7.196893431069561</v>
       </c>
       <c r="U10" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.09187523529024984</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,10 +31831,10 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
@@ -31841,37 +31843,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>138.5543797798742</v>
+        <v>279.2419622547062</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862124</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N12" t="n">
-        <v>639.8517673857153</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437245</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>561.87657862147</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P13" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422587</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862124</v>
+        <v>469.5567819573411</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>400.5469039565758</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P16" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32236,31 +32238,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32303,10 +32305,10 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
         <v>99.52238</v>
@@ -32315,37 +32317,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862122</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071786</v>
+        <v>368.6279838366855</v>
       </c>
       <c r="O18" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
-        <v>391.925066926462</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,25 +32387,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32412,19 +32414,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32473,31 +32475,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
         <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
         <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071786</v>
+        <v>290.6810969936916</v>
       </c>
       <c r="O21" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>493.6049778318539</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32712,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,34 +32779,34 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
         <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071786</v>
+        <v>189.0011860883002</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>334.7693860946154</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
@@ -32813,13 +32815,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,7 +32937,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32947,31 +32949,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
         <v>981.2715114159428</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,34 +33016,34 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
         <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>142.5962444444444</v>
+        <v>461.1007071927452</v>
       </c>
       <c r="P27" t="n">
-        <v>391.925066926462</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
@@ -33050,13 +33052,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33098,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33125,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,7 +33174,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33184,31 +33186,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33251,10 +33253,10 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
         <v>99.52238</v>
@@ -33263,19 +33265,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>446.012731199064</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437244</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
@@ -33287,13 +33289,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,25 +33335,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33360,19 +33362,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,7 +33411,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33421,31 +33423,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,49 +33490,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
         <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071786</v>
+        <v>709.4760096096878</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437244</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q33" t="n">
-        <v>250.1723312270667</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33572,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33599,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,7 +33648,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33658,31 +33660,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33725,16 +33727,16 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
         <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
         <v>137.841438974359</v>
@@ -33743,31 +33745,31 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>436.4492970000073</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
-        <v>145.679503963964</v>
+        <v>171.4104471179106</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,25 +33809,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33834,19 +33836,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,7 +33885,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33895,31 +33897,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33962,10 +33964,10 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
         <v>99.52238</v>
@@ -33980,31 +33982,31 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M39" t="n">
-        <v>583.1096135868572</v>
+        <v>583.1096135868578</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R39" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,25 +34046,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34071,19 +34073,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,7 +34122,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34132,31 +34134,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34199,49 +34201,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>131.3417120833333</v>
+        <v>707.690770008913</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437244</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q42" t="n">
-        <v>346.7710205055862</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34281,25 +34283,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34308,19 +34310,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,7 +34359,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34369,31 +34371,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34436,49 +34438,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
         <v>99.52238</v>
       </c>
       <c r="J45" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>416.4300581532619</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214699</v>
+        <v>322.8964653704906</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,25 +34520,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34545,19 +34547,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34699,19 +34701,19 @@
         <v>137.6579754225037</v>
       </c>
       <c r="K2" t="n">
-        <v>257.5646495407338</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L2" t="n">
-        <v>356.8062301067509</v>
+        <v>356.8062301067508</v>
       </c>
       <c r="M2" t="n">
-        <v>429.0050109457278</v>
+        <v>429.0050109457277</v>
       </c>
       <c r="N2" t="n">
         <v>440.6071730376315</v>
       </c>
       <c r="O2" t="n">
-        <v>402.5828984949728</v>
+        <v>402.5828984949727</v>
       </c>
       <c r="P2" t="n">
         <v>308.745693963795</v>
@@ -34720,7 +34722,7 @@
         <v>183.1958181402557</v>
       </c>
       <c r="R2" t="n">
-        <v>20.29166330939907</v>
+        <v>20.29166330939904</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,22 +34777,22 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>189.0712562313263</v>
+        <v>62.98022089091742</v>
       </c>
       <c r="K3" t="n">
         <v>186.5874962434848</v>
       </c>
       <c r="L3" t="n">
-        <v>297.6803606378502</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="M3" t="n">
-        <v>640.5848321000387</v>
+        <v>528.9386420741744</v>
       </c>
       <c r="N3" t="n">
-        <v>391.197099592874</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O3" t="n">
-        <v>465.1758167018085</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P3" t="n">
         <v>249.6795291235323</v>
@@ -34799,7 +34801,7 @@
         <v>116.4807223308546</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>24.58388860977092</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34854,13 +34856,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>25.72643735870595</v>
+        <v>25.72643735870594</v>
       </c>
       <c r="K4" t="n">
         <v>173.4247593423491</v>
       </c>
       <c r="L4" t="n">
-        <v>278.011291583107</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M4" t="n">
         <v>303.6179906468033</v>
@@ -34869,13 +34871,13 @@
         <v>301.8881449860245</v>
       </c>
       <c r="O4" t="n">
-        <v>262.664487629507</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P4" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q4" t="n">
-        <v>54.88175545805406</v>
+        <v>54.88175545805403</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34936,19 +34938,19 @@
         <v>137.6579754225037</v>
       </c>
       <c r="K5" t="n">
-        <v>257.5646495407338</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L5" t="n">
-        <v>356.8062301067509</v>
+        <v>356.8062301067508</v>
       </c>
       <c r="M5" t="n">
-        <v>429.0050109457278</v>
+        <v>429.0050109457277</v>
       </c>
       <c r="N5" t="n">
         <v>440.6071730376315</v>
       </c>
       <c r="O5" t="n">
-        <v>402.5828984949728</v>
+        <v>402.5828984949727</v>
       </c>
       <c r="P5" t="n">
         <v>308.745693963795</v>
@@ -34957,7 +34959,7 @@
         <v>183.1958181402557</v>
       </c>
       <c r="R5" t="n">
-        <v>20.29166330939907</v>
+        <v>20.29166330939904</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,31 +35014,31 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>62.98022089091745</v>
+        <v>62.98022089091742</v>
       </c>
       <c r="K6" t="n">
         <v>186.5874962434848</v>
       </c>
       <c r="L6" t="n">
-        <v>297.6803606378502</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="M6" t="n">
-        <v>366.9313322820406</v>
+        <v>366.9313322820405</v>
       </c>
       <c r="N6" t="n">
-        <v>391.197099592874</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O6" t="n">
-        <v>336.3802954844294</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P6" t="n">
-        <v>568.1422977634695</v>
+        <v>411.6868389156661</v>
       </c>
       <c r="Q6" t="n">
-        <v>326.5580100667037</v>
+        <v>116.4807223308546</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>24.58388860977092</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35091,13 +35093,13 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>25.72643735870595</v>
+        <v>25.72643735870594</v>
       </c>
       <c r="K7" t="n">
         <v>173.4247593423491</v>
       </c>
       <c r="L7" t="n">
-        <v>278.011291583107</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M7" t="n">
         <v>303.6179906468033</v>
@@ -35106,13 +35108,13 @@
         <v>301.8881449860245</v>
       </c>
       <c r="O7" t="n">
-        <v>262.664487629507</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P7" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q7" t="n">
-        <v>54.88175545805406</v>
+        <v>54.88175545805403</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687126</v>
+        <v>137.6579754225036</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554005</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923322</v>
+        <v>356.8062301067507</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302268</v>
+        <v>429.0050109457276</v>
       </c>
       <c r="N8" t="n">
-        <v>552.3018354129115</v>
+        <v>440.6071730376314</v>
       </c>
       <c r="O8" t="n">
-        <v>508.0530008882191</v>
+        <v>402.5828984949726</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193719</v>
+        <v>308.7456939637948</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037195</v>
+        <v>183.1958181402556</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222478</v>
+        <v>20.29166330939901</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.6235045359771</v>
+        <v>189.0712562313262</v>
       </c>
       <c r="K9" t="n">
-        <v>240.6709080609567</v>
+        <v>379.9148430313198</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340054</v>
+        <v>297.6803606378501</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013292</v>
+        <v>366.9313322820404</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004592</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525806</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P9" t="n">
-        <v>313.6359509859624</v>
+        <v>249.6795291235322</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.2338966127272</v>
+        <v>326.5580100667036</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35328,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.57841661306622</v>
+        <v>25.72643735870592</v>
       </c>
       <c r="K10" t="n">
-        <v>206.0476595443196</v>
+        <v>173.424759342349</v>
       </c>
       <c r="L10" t="n">
-        <v>319.7573721701981</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M10" t="n">
-        <v>347.6333793934838</v>
+        <v>303.6179906468033</v>
       </c>
       <c r="N10" t="n">
-        <v>344.8569461675401</v>
+        <v>301.8881449860244</v>
       </c>
       <c r="O10" t="n">
-        <v>302.3531302226398</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P10" t="n">
-        <v>234.9570711451104</v>
+        <v>200.9965809818072</v>
       </c>
       <c r="Q10" t="n">
-        <v>78.39423853789366</v>
+        <v>54.881755458054</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35404,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
-        <v>285.7087110396408</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>140.6875824748321</v>
       </c>
       <c r="M12" t="n">
-        <v>603.412613764194</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>508.5100553023821</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992801</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071398</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35641,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N14" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,31 +35725,31 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754089</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678997</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674332</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>603.412613764194</v>
+        <v>327.4227480353227</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>257.9506595121313</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35878,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35966,25 +35968,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238454</v>
+        <v>237.2862717533522</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
-        <v>257.9506595121318</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36115,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
         <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238454</v>
+        <v>159.3393849103583</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>359.6305704175236</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36352,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,25 +36436,25 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238454</v>
+        <v>57.65947400496688</v>
       </c>
       <c r="O24" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>200.7949786802852</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36513,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36589,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902934</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193519</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,25 +36673,25 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>318.5044627483008</v>
       </c>
       <c r="P27" t="n">
-        <v>257.9506595121318</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36750,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36826,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.866084390239</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36914,16 +36916,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>303.8786972770457</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.48457599928</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -36987,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37063,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,31 +37147,31 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238454</v>
+        <v>578.1342975263545</v>
       </c>
       <c r="O33" t="n">
-        <v>557.48457599928</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q33" t="n">
-        <v>110.1905571410452</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37300,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902418</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,7 +37384,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -37394,19 +37396,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>302.474889585677</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>25.73094315394662</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37537,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37628,22 +37630,22 @@
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>440.9755796648388</v>
+        <v>440.9755796648395</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37774,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,34 +37855,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>576.3490579255797</v>
       </c>
       <c r="O42" t="n">
-        <v>557.48457599928</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q42" t="n">
-        <v>206.7892464195647</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38011,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902943</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,28 +38095,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>274.2960242312436</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071396</v>
+        <v>188.9220579561604</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38172,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K46" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_11_33.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_11_33.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2866986.55222755</v>
+        <v>2862849.394977399</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283186</v>
+        <v>416855.1052283184</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8766690.560499741</v>
+        <v>8766690.560499739</v>
       </c>
     </row>
     <row r="11">
@@ -658,28 +658,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>67.99028908615186</v>
+        <v>11.54770277295399</v>
       </c>
       <c r="H2" t="n">
-        <v>301.0185525624054</v>
+        <v>67.09851484951466</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -709,10 +709,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>251.045250128462</v>
@@ -724,10 +724,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -758,7 +758,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I3" t="n">
-        <v>20.22295923705013</v>
+        <v>20.22295923705015</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -834,10 +834,10 @@
         <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
-        <v>147.2515091551288</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -870,13 +870,13 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>110.6796476850514</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -885,7 +885,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>111.3057074754898</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -901,19 +901,19 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>105.5988241452748</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>411.547702772954</v>
+        <v>11.54770277295399</v>
       </c>
       <c r="H5" t="n">
-        <v>301.0185525624054</v>
+        <v>261.7243510633379</v>
       </c>
       <c r="I5" t="n">
         <v>65.70991267247049</v>
@@ -946,25 +946,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -995,7 +995,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I6" t="n">
-        <v>20.22295923705013</v>
+        <v>20.22295923705015</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1068,7 +1068,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1110,16 +1110,16 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>50.98074812542808</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>110.6796476850517</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -1132,10 +1132,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>354.5420956997348</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -1144,7 +1144,7 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>186.770847453703</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
         <v>411.547702772954</v>
@@ -1153,7 +1153,7 @@
         <v>301.0185525624054</v>
       </c>
       <c r="I8" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1186,10 +1186,10 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -1198,10 +1198,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1232,7 +1232,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I9" t="n">
-        <v>20.22295923705015</v>
+        <v>20.22295923705013</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1293,7 +1293,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -1311,7 +1311,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>90.69811547110051</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1341,19 +1341,19 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>37.49208478790683</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -1375,7 +1375,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.6830416206824</v>
+        <v>354.6830416206839</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1530,13 +1530,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -1545,7 +1545,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0.8253826161909023</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1578,7 +1578,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>62.3698142236709</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1666,10 +1666,10 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174136</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
@@ -1770,19 +1770,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428256</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1812,13 +1812,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S16" t="n">
-        <v>113.5413580759688</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
         <v>286.1844743892441</v>
@@ -1897,13 +1897,13 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U17" t="n">
         <v>250.9057009881286</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -2019,10 +2019,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,13 +2049,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0.8253826161906772</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>111.3213230702139</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
         <v>286.1844743892441</v>
@@ -2095,7 +2095,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H20" t="n">
         <v>283.1540821444137</v>
@@ -2244,22 +2244,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>104.1233804225859</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2304,10 +2304,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>161.3555494301526</v>
       </c>
     </row>
     <row r="23">
@@ -2383,7 +2383,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>369.7311006784677</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
         <v>386.2379386560536</v>
@@ -2481,16 +2481,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>23.10998325717174</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2712,7 +2712,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
@@ -2724,16 +2724,16 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>36.21070476472219</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2769,7 +2769,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>286.1844743892441</v>
+        <v>228.9553704673018</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2955,22 +2955,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>71.39698738222801</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H31" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3003,7 +3003,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
         <v>286.1844743892441</v>
@@ -3012,7 +3012,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -3028,7 +3028,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
@@ -3201,7 +3201,7 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>108.2950343703276</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
         <v>140.2947128462239</v>
@@ -3237,7 +3237,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>123.7971820797026</v>
       </c>
       <c r="T34" t="n">
         <v>217.4054503272883</v>
@@ -3271,7 +3271,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206816</v>
       </c>
       <c r="E35" t="n">
         <v>381.9303700722618</v>
@@ -3322,7 +3322,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3426,7 +3426,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -3435,16 +3435,16 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>28.75188085812011</v>
       </c>
       <c r="G37" t="n">
-        <v>108.2950343703266</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3562,7 +3562,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
         <v>349.240968717413</v>
@@ -3666,16 +3666,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>83.06560892428168</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3717,7 +3717,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>286.1844743892441</v>
+        <v>94.30373791808249</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3903,13 +3903,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
@@ -3918,7 +3918,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,13 +3945,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>45.17596778975034</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
@@ -3963,7 +3963,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4140,22 +4140,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>59.6699024648526</v>
       </c>
       <c r="H46" t="n">
-        <v>1.799772605717294</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,10 +4182,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>217.4054503272883</v>
@@ -4200,7 +4200,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -4306,37 +4306,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>901.3425442071336</v>
+        <v>864.8611267254482</v>
       </c>
       <c r="C2" t="n">
-        <v>901.3425442071336</v>
+        <v>495.8986097850365</v>
       </c>
       <c r="D2" t="n">
-        <v>901.3425442071336</v>
+        <v>137.632911178286</v>
       </c>
       <c r="E2" t="n">
-        <v>901.3425442071336</v>
+        <v>137.632911178286</v>
       </c>
       <c r="F2" t="n">
-        <v>490.3566394175261</v>
+        <v>130.6874104290825</v>
       </c>
       <c r="G2" t="n">
-        <v>421.6795797345444</v>
+        <v>119.0230641937755</v>
       </c>
       <c r="H2" t="n">
-        <v>117.6204357321147</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I2" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J2" t="n">
         <v>187.5281822362817</v>
       </c>
       <c r="K2" t="n">
-        <v>442.5171852816084</v>
+        <v>442.5171852816086</v>
       </c>
       <c r="L2" t="n">
-        <v>795.7553530872915</v>
+        <v>795.7553530872917</v>
       </c>
       <c r="M2" t="n">
         <v>1220.470313923562</v>
@@ -4357,25 +4357,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S2" t="n">
-        <v>2437.640120926626</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="T2" t="n">
-        <v>2228.894479532451</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="U2" t="n">
-        <v>1975.31341879663</v>
+        <v>2308.758267664335</v>
       </c>
       <c r="V2" t="n">
-        <v>1644.250531453059</v>
+        <v>1977.695380320764</v>
       </c>
       <c r="W2" t="n">
-        <v>1291.481876182945</v>
+        <v>1624.92672505065</v>
       </c>
       <c r="X2" t="n">
-        <v>1291.481876182945</v>
+        <v>1251.46096678957</v>
       </c>
       <c r="Y2" t="n">
-        <v>901.3425442071336</v>
+        <v>1251.46096678957</v>
       </c>
     </row>
     <row r="3">
@@ -4385,49 +4385,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>931.3041410966389</v>
+        <v>931.3041410966384</v>
       </c>
       <c r="C3" t="n">
-        <v>756.8511118155119</v>
+        <v>756.8511118155114</v>
       </c>
       <c r="D3" t="n">
-        <v>607.9167021542605</v>
+        <v>607.9167021542601</v>
       </c>
       <c r="E3" t="n">
-        <v>448.679247148805</v>
+        <v>448.6792471488045</v>
       </c>
       <c r="F3" t="n">
-        <v>302.14468917569</v>
+        <v>302.1446891756896</v>
       </c>
       <c r="G3" t="n">
-        <v>165.4432786182524</v>
+        <v>165.4432786182518</v>
       </c>
       <c r="H3" t="n">
         <v>71.67401812057901</v>
       </c>
       <c r="I3" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J3" t="n">
-        <v>113.5972052500114</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K3" t="n">
-        <v>298.3188265310613</v>
+        <v>423.148951518066</v>
       </c>
       <c r="L3" t="n">
-        <v>932.4978103100998</v>
+        <v>717.8525085495377</v>
       </c>
       <c r="M3" t="n">
-        <v>1456.147065963532</v>
+        <v>1081.114527508758</v>
       </c>
       <c r="N3" t="n">
-        <v>1843.432194560478</v>
+        <v>1715.293511287796</v>
       </c>
       <c r="O3" t="n">
-        <v>2175.502629736639</v>
+        <v>2047.363946463958</v>
       </c>
       <c r="P3" t="n">
-        <v>2422.685363568936</v>
+        <v>2294.546680296255</v>
       </c>
       <c r="Q3" t="n">
         <v>2538.001278676482</v>
@@ -4442,16 +4442,16 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U3" t="n">
-        <v>2004.520742047138</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V3" t="n">
         <v>1769.368633815395</v>
       </c>
       <c r="W3" t="n">
-        <v>1515.131277087194</v>
+        <v>1515.131277087193</v>
       </c>
       <c r="X3" t="n">
-        <v>1307.279776881661</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y3" t="n">
         <v>1099.519478116707</v>
@@ -4464,49 +4464,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1087.683159487371</v>
+        <v>833.0891146802707</v>
       </c>
       <c r="C4" t="n">
-        <v>918.7469765594642</v>
+        <v>664.1529317523638</v>
       </c>
       <c r="D4" t="n">
-        <v>768.6303371471284</v>
+        <v>514.036292340028</v>
       </c>
       <c r="E4" t="n">
-        <v>620.7172435647353</v>
+        <v>366.1231987576349</v>
       </c>
       <c r="F4" t="n">
-        <v>473.8272960668249</v>
+        <v>219.2332512597245</v>
       </c>
       <c r="G4" t="n">
-        <v>305.8408313751036</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="H4" t="n">
-        <v>157.1019332386098</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I4" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J4" t="n">
-        <v>76.71595955312199</v>
+        <v>76.71595955312196</v>
       </c>
       <c r="K4" t="n">
         <v>248.4064713020475</v>
       </c>
       <c r="L4" t="n">
-        <v>523.6376499693234</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M4" t="n">
-        <v>824.2194607096587</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N4" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O4" t="n">
-        <v>1383.126566999035</v>
+        <v>1383.126566999034</v>
       </c>
       <c r="P4" t="n">
-        <v>1582.113182171024</v>
+        <v>1582.113182171023</v>
       </c>
       <c r="Q4" t="n">
         <v>1636.446120074497</v>
@@ -4518,22 +4518,22 @@
         <v>1636.446120074497</v>
       </c>
       <c r="T4" t="n">
-        <v>1636.446120074497</v>
+        <v>1524.648496150203</v>
       </c>
       <c r="U4" t="n">
-        <v>1636.446120074497</v>
+        <v>1235.53015865404</v>
       </c>
       <c r="V4" t="n">
-        <v>1381.76163186861</v>
+        <v>1235.53015865404</v>
       </c>
       <c r="W4" t="n">
-        <v>1381.76163186861</v>
+        <v>1235.53015865404</v>
       </c>
       <c r="X4" t="n">
-        <v>1381.76163186861</v>
+        <v>1235.53015865404</v>
       </c>
       <c r="Y4" t="n">
-        <v>1269.331624317611</v>
+        <v>1014.73757951051</v>
       </c>
     </row>
     <row r="5">
@@ -4543,22 +4543,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1329.838061543121</v>
+        <v>1548.692669339133</v>
       </c>
       <c r="C5" t="n">
-        <v>1329.838061543121</v>
+        <v>1548.692669339133</v>
       </c>
       <c r="D5" t="n">
-        <v>1329.838061543121</v>
+        <v>1190.426970732383</v>
       </c>
       <c r="E5" t="n">
-        <v>944.0498089448765</v>
+        <v>804.6387181341383</v>
       </c>
       <c r="F5" t="n">
-        <v>837.3843300102556</v>
+        <v>393.6528133445308</v>
       </c>
       <c r="G5" t="n">
-        <v>421.6795797345444</v>
+        <v>381.9884671092237</v>
       </c>
       <c r="H5" t="n">
         <v>117.6204357321147</v>
@@ -4567,13 +4567,13 @@
         <v>51.2467865680031</v>
       </c>
       <c r="J5" t="n">
-        <v>187.5281822362817</v>
+        <v>187.5281822362822</v>
       </c>
       <c r="K5" t="n">
-        <v>442.5171852816081</v>
+        <v>442.5171852816088</v>
       </c>
       <c r="L5" t="n">
-        <v>795.7553530872915</v>
+        <v>795.755353087292</v>
       </c>
       <c r="M5" t="n">
         <v>1220.470313923562</v>
@@ -4594,25 +4594,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S5" t="n">
-        <v>2437.640120926625</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="T5" t="n">
-        <v>2437.640120926625</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="U5" t="n">
-        <v>2437.640120926625</v>
+        <v>2308.758267664335</v>
       </c>
       <c r="V5" t="n">
-        <v>2106.577233583054</v>
+        <v>2308.758267664335</v>
       </c>
       <c r="W5" t="n">
-        <v>2106.577233583054</v>
+        <v>2308.758267664335</v>
       </c>
       <c r="X5" t="n">
-        <v>2106.577233583054</v>
+        <v>1935.292509403255</v>
       </c>
       <c r="Y5" t="n">
-        <v>1716.437901607243</v>
+        <v>1935.292509403255</v>
       </c>
     </row>
     <row r="6">
@@ -4622,25 +4622,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>931.3041410966385</v>
+        <v>931.3041410966388</v>
       </c>
       <c r="C6" t="n">
-        <v>756.8511118155116</v>
+        <v>756.8511118155118</v>
       </c>
       <c r="D6" t="n">
-        <v>607.9167021542603</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E6" t="n">
-        <v>448.6792471488048</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F6" t="n">
-        <v>302.1446891756898</v>
+        <v>302.1446891756899</v>
       </c>
       <c r="G6" t="n">
         <v>165.443278618252</v>
       </c>
       <c r="H6" t="n">
-        <v>71.67401812057899</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I6" t="n">
         <v>51.2467865680031</v>
@@ -4649,25 +4649,25 @@
         <v>113.5972052500113</v>
       </c>
       <c r="K6" t="n">
-        <v>298.3188265310613</v>
+        <v>560.1394111735141</v>
       </c>
       <c r="L6" t="n">
-        <v>932.4978103100997</v>
+        <v>1117.223096727985</v>
       </c>
       <c r="M6" t="n">
-        <v>1295.75982926932</v>
+        <v>1480.485115687205</v>
       </c>
       <c r="N6" t="n">
-        <v>1683.044957866265</v>
+        <v>1867.77024428415</v>
       </c>
       <c r="O6" t="n">
-        <v>2015.115393042426</v>
+        <v>2199.840679460312</v>
       </c>
       <c r="P6" t="n">
-        <v>2422.685363568936</v>
+        <v>2447.023413292609</v>
       </c>
       <c r="Q6" t="n">
-        <v>2538.001278676482</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R6" t="n">
         <v>2562.339328400155</v>
@@ -4679,7 +4679,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U6" t="n">
-        <v>2004.520742047137</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V6" t="n">
         <v>1769.368633815395</v>
@@ -4688,7 +4688,7 @@
         <v>1515.131277087193</v>
       </c>
       <c r="X6" t="n">
-        <v>1307.27977688166</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y6" t="n">
         <v>1099.519478116707</v>
@@ -4701,19 +4701,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>833.0891146802707</v>
+        <v>665.1026499885492</v>
       </c>
       <c r="C7" t="n">
-        <v>664.1529317523638</v>
+        <v>496.1664670606423</v>
       </c>
       <c r="D7" t="n">
-        <v>514.036292340028</v>
+        <v>346.0498276483066</v>
       </c>
       <c r="E7" t="n">
-        <v>366.1231987576349</v>
+        <v>198.1367340659135</v>
       </c>
       <c r="F7" t="n">
-        <v>219.2332512597245</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="G7" t="n">
         <v>51.2467865680031</v>
@@ -4725,7 +4725,7 @@
         <v>51.2467865680031</v>
       </c>
       <c r="J7" t="n">
-        <v>76.71595955312198</v>
+        <v>76.71595955312196</v>
       </c>
       <c r="K7" t="n">
         <v>248.4064713020475</v>
@@ -4740,10 +4740,10 @@
         <v>1123.088724245823</v>
       </c>
       <c r="O7" t="n">
-        <v>1383.126566999035</v>
+        <v>1383.126566999034</v>
       </c>
       <c r="P7" t="n">
-        <v>1582.113182171024</v>
+        <v>1582.113182171023</v>
       </c>
       <c r="Q7" t="n">
         <v>1636.446120074497</v>
@@ -4758,19 +4758,19 @@
         <v>1636.446120074497</v>
       </c>
       <c r="U7" t="n">
-        <v>1347.327782578335</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="V7" t="n">
-        <v>1347.327782578335</v>
+        <v>1584.950414897297</v>
       </c>
       <c r="W7" t="n">
-        <v>1347.327782578335</v>
+        <v>1295.533244860336</v>
       </c>
       <c r="X7" t="n">
-        <v>1235.53015865404</v>
+        <v>1067.543693962319</v>
       </c>
       <c r="Y7" t="n">
-        <v>1014.73757951051</v>
+        <v>846.7511148187889</v>
       </c>
     </row>
     <row r="8">
@@ -4780,40 +4780,40 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1026.041751680663</v>
+        <v>1146.918698535759</v>
       </c>
       <c r="C8" t="n">
-        <v>1026.041751680663</v>
+        <v>777.9561815953474</v>
       </c>
       <c r="D8" t="n">
-        <v>1026.041751680663</v>
+        <v>777.9561815953474</v>
       </c>
       <c r="E8" t="n">
-        <v>1026.041751680663</v>
+        <v>777.9561815953474</v>
       </c>
       <c r="F8" t="n">
-        <v>837.3843300102556</v>
+        <v>771.0106808461439</v>
       </c>
       <c r="G8" t="n">
-        <v>421.6795797345444</v>
+        <v>355.3059305704328</v>
       </c>
       <c r="H8" t="n">
-        <v>117.6204357321147</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I8" t="n">
         <v>51.2467865680031</v>
       </c>
       <c r="J8" t="n">
-        <v>187.5281822362822</v>
+        <v>187.5281822362819</v>
       </c>
       <c r="K8" t="n">
-        <v>442.5171852816088</v>
+        <v>442.5171852816082</v>
       </c>
       <c r="L8" t="n">
-        <v>795.755353087292</v>
+        <v>795.7553530872913</v>
       </c>
       <c r="M8" t="n">
-        <v>1220.470313923562</v>
+        <v>1220.470313923561</v>
       </c>
       <c r="N8" t="n">
         <v>1656.671415230817</v>
@@ -4834,22 +4834,22 @@
         <v>2562.339328400155</v>
       </c>
       <c r="T8" t="n">
-        <v>2353.59368700598</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="U8" t="n">
-        <v>2100.012626270159</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="V8" t="n">
-        <v>1768.949738926588</v>
+        <v>2231.276441056584</v>
       </c>
       <c r="W8" t="n">
-        <v>1416.181083656474</v>
+        <v>1878.50778578647</v>
       </c>
       <c r="X8" t="n">
-        <v>1416.181083656474</v>
+        <v>1505.04202752539</v>
       </c>
       <c r="Y8" t="n">
-        <v>1026.041751680663</v>
+        <v>1505.04202752539</v>
       </c>
     </row>
     <row r="9">
@@ -4859,25 +4859,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>931.3041410966388</v>
+        <v>931.3041410966385</v>
       </c>
       <c r="C9" t="n">
-        <v>756.8511118155118</v>
+        <v>756.8511118155116</v>
       </c>
       <c r="D9" t="n">
-        <v>607.9167021542605</v>
+        <v>607.9167021542603</v>
       </c>
       <c r="E9" t="n">
-        <v>448.679247148805</v>
+        <v>448.6792471488048</v>
       </c>
       <c r="F9" t="n">
-        <v>302.1446891756899</v>
+        <v>302.1446891756898</v>
       </c>
       <c r="G9" t="n">
         <v>165.443278618252</v>
       </c>
       <c r="H9" t="n">
-        <v>71.67401812057901</v>
+        <v>71.67401812057899</v>
       </c>
       <c r="I9" t="n">
         <v>51.2467865680031</v>
@@ -4886,7 +4886,7 @@
         <v>238.4273302370161</v>
       </c>
       <c r="K9" t="n">
-        <v>614.5430248380227</v>
+        <v>614.5430248380226</v>
       </c>
       <c r="L9" t="n">
         <v>909.2465818694943</v>
@@ -4916,7 +4916,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U9" t="n">
-        <v>2004.520742047138</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V9" t="n">
         <v>1769.368633815395</v>
@@ -4925,7 +4925,7 @@
         <v>1515.131277087193</v>
       </c>
       <c r="X9" t="n">
-        <v>1307.279776881661</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y9" t="n">
         <v>1099.519478116707</v>
@@ -4938,31 +4938,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>201.3634259803388</v>
+        <v>461.9138669598624</v>
       </c>
       <c r="C10" t="n">
-        <v>201.3634259803388</v>
+        <v>292.9776840319555</v>
       </c>
       <c r="D10" t="n">
-        <v>51.2467865680031</v>
+        <v>142.8610446196198</v>
       </c>
       <c r="E10" t="n">
-        <v>51.2467865680031</v>
+        <v>142.8610446196198</v>
       </c>
       <c r="F10" t="n">
-        <v>51.2467865680031</v>
+        <v>142.8610446196198</v>
       </c>
       <c r="G10" t="n">
-        <v>51.2467865680031</v>
+        <v>142.8610446196198</v>
       </c>
       <c r="H10" t="n">
-        <v>51.2467865680031</v>
+        <v>142.8610446196198</v>
       </c>
       <c r="I10" t="n">
         <v>51.2467865680031</v>
       </c>
       <c r="J10" t="n">
-        <v>76.71595955312196</v>
+        <v>76.71595955312198</v>
       </c>
       <c r="K10" t="n">
         <v>248.4064713020475</v>
@@ -4977,10 +4977,10 @@
         <v>1123.088724245823</v>
       </c>
       <c r="O10" t="n">
-        <v>1383.126566999034</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P10" t="n">
-        <v>1582.113182171023</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q10" t="n">
         <v>1636.446120074497</v>
@@ -4989,25 +4989,25 @@
         <v>1636.446120074497</v>
       </c>
       <c r="S10" t="n">
-        <v>1598.57532735944</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="T10" t="n">
-        <v>1375.596846554175</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="U10" t="n">
-        <v>1086.478509058013</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="V10" t="n">
-        <v>831.794020852126</v>
+        <v>1381.76163186861</v>
       </c>
       <c r="W10" t="n">
-        <v>831.794020852126</v>
+        <v>1092.34446183165</v>
       </c>
       <c r="X10" t="n">
-        <v>603.8044699541086</v>
+        <v>864.3549109336323</v>
       </c>
       <c r="Y10" t="n">
-        <v>383.0118908105785</v>
+        <v>643.5623317901021</v>
       </c>
     </row>
     <row r="11">
@@ -5020,7 +5020,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D11" t="n">
         <v>1590.547811004713</v>
@@ -5035,22 +5035,22 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
         <v>2950.898526355937</v>
@@ -5062,28 +5062,28 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5105,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5114,31 +5114,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L12" t="n">
-        <v>716.6687843969308</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>716.6687843969308</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N12" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.061288060775</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>580.8993044876688</v>
+        <v>700.7543264856228</v>
       </c>
       <c r="C13" t="n">
-        <v>411.9631215597619</v>
+        <v>700.7543264856228</v>
       </c>
       <c r="D13" t="n">
-        <v>261.8464821474262</v>
+        <v>550.637687073287</v>
       </c>
       <c r="E13" t="n">
-        <v>261.8464821474262</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F13" t="n">
-        <v>261.8464821474262</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G13" t="n">
-        <v>94.65038286230612</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S13" t="n">
-        <v>2264.108249235165</v>
+        <v>2383.963271233119</v>
       </c>
       <c r="T13" t="n">
-        <v>2044.506784258106</v>
+        <v>2164.361806256059</v>
       </c>
       <c r="U13" t="n">
-        <v>1755.431557602304</v>
+        <v>1875.286579600257</v>
       </c>
       <c r="V13" t="n">
-        <v>1500.747069396417</v>
+        <v>1620.602091394371</v>
       </c>
       <c r="W13" t="n">
-        <v>1211.329899359456</v>
+        <v>1331.18492135741</v>
       </c>
       <c r="X13" t="n">
-        <v>983.3403484614387</v>
+        <v>1103.195370459393</v>
       </c>
       <c r="Y13" t="n">
-        <v>762.5477693179085</v>
+        <v>882.4027913158625</v>
       </c>
     </row>
     <row r="14">
@@ -5272,46 +5272,46 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192611</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.852361107581</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M14" t="n">
         <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V14" t="n">
         <v>3820.749612123003</v>
@@ -5342,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5351,34 +5351,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273908</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K15" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516145</v>
       </c>
       <c r="L15" t="n">
-        <v>589.1422692637306</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>913.2907898187001</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N15" t="n">
-        <v>1540.888753373307</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O15" t="n">
-        <v>2092.798483612594</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>868.6673633290469</v>
+        <v>513.8536007400721</v>
       </c>
       <c r="C16" t="n">
-        <v>699.73118040114</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="D16" t="n">
-        <v>549.6145409888043</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="E16" t="n">
-        <v>549.6145409888043</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="F16" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="G16" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270452</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S16" t="n">
-        <v>2332.274843099484</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T16" t="n">
-        <v>2332.274843099484</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U16" t="n">
-        <v>2043.199616443682</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V16" t="n">
-        <v>1788.515128237795</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W16" t="n">
-        <v>1499.097958200834</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X16" t="n">
-        <v>1271.108407302817</v>
+        <v>916.294644713842</v>
       </c>
       <c r="Y16" t="n">
-        <v>1050.315828159287</v>
+        <v>695.5020655703119</v>
       </c>
     </row>
     <row r="17">
@@ -5512,13 +5512,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5530,7 +5530,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694707</v>
@@ -5591,31 +5591,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>1072.713683962606</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N18" t="n">
-        <v>1307.627092998424</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O18" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>3047.734188001555</v>
+        <v>580.0655846733346</v>
       </c>
       <c r="C19" t="n">
-        <v>2878.798005073648</v>
+        <v>411.1294017454277</v>
       </c>
       <c r="D19" t="n">
-        <v>2728.681365661313</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E19" t="n">
-        <v>2728.681365661313</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F19" t="n">
-        <v>2728.681365661313</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G19" t="n">
-        <v>2561.485266376193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H19" t="n">
-        <v>2419.773435218391</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>4623.787448650995</v>
+        <v>2446.129363765926</v>
       </c>
       <c r="S19" t="n">
-        <v>4623.787448650995</v>
+        <v>2263.274529420831</v>
       </c>
       <c r="T19" t="n">
-        <v>4511.341667771992</v>
+        <v>2043.673064443772</v>
       </c>
       <c r="U19" t="n">
-        <v>4222.26644111619</v>
+        <v>1754.597837787969</v>
       </c>
       <c r="V19" t="n">
-        <v>3967.581952910303</v>
+        <v>1499.913349582082</v>
       </c>
       <c r="W19" t="n">
-        <v>3678.164782873342</v>
+        <v>1210.496179545122</v>
       </c>
       <c r="X19" t="n">
-        <v>3450.175231975325</v>
+        <v>982.5066286471044</v>
       </c>
       <c r="Y19" t="n">
-        <v>3229.382652831795</v>
+        <v>761.7140495035743</v>
       </c>
     </row>
     <row r="20">
@@ -5734,37 +5734,37 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O20" t="n">
         <v>3640.42229106801</v>
@@ -5807,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C21" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D21" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F21" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G21" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>2231.588527385791</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>2231.588527385791</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>2231.588527385791</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>2726.91413360155</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>3324.292621228102</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>3482.038612289356</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O21" t="n">
-        <v>4033.948342528643</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>4457.571492023711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S21" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T21" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U21" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V21" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W21" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X21" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y21" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="22">
@@ -5886,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>741.8431516380886</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C22" t="n">
-        <v>572.9069687101817</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D22" t="n">
-        <v>422.7903292978459</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E22" t="n">
-        <v>422.7903292978459</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F22" t="n">
-        <v>317.6151975578602</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
@@ -5952,10 +5952,10 @@
         <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>1144.284195611858</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>923.4916164683283</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="23">
@@ -5983,52 +5983,52 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
         <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
         <v>3094.515198591809</v>
@@ -6062,28 +6062,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797186</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>923.0670414349511</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1520.445529061503</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>1577.52840832642</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
         <v>2553.061288060775</v>
@@ -6123,28 +6123,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400712</v>
+        <v>557.5558870561822</v>
       </c>
       <c r="C25" t="n">
-        <v>344.9174178121643</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="D25" t="n">
-        <v>261.0127623330919</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E25" t="n">
-        <v>261.0127623330919</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F25" t="n">
-        <v>261.0127623330919</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G25" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
         <v>174.0526814782957</v>
@@ -6171,28 +6171,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832663</v>
+        <v>2423.619666148774</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487567</v>
+        <v>2240.764831803678</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510508</v>
+        <v>2021.163366826619</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854706</v>
+        <v>1732.088140170817</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.701365648819</v>
+        <v>1477.40365196493</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611858</v>
+        <v>1187.986481927969</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138411</v>
+        <v>959.9969310299521</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703109</v>
+        <v>739.2043518864219</v>
       </c>
     </row>
     <row r="26">
@@ -6202,22 +6202,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797187</v>
@@ -6259,19 +6259,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="27">
@@ -6302,25 +6302,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>589.1422692637306</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1186.520756890282</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>1814.118720444889</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
         <v>2553.061288060775</v>
@@ -6360,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>695.5020655703109</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C28" t="n">
-        <v>526.5658826424041</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D28" t="n">
-        <v>526.5658826424041</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E28" t="n">
-        <v>526.5658826424041</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F28" t="n">
-        <v>379.6759351444937</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G28" t="n">
-        <v>212.4798358593736</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
@@ -6417,19 +6417,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X28" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y28" t="n">
-        <v>695.5020655703109</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="29">
@@ -6439,34 +6439,34 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192595</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6496,19 +6496,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="30">
@@ -6539,22 +6539,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
         <v>2553.061288060775</v>
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1022.872235754091</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>853.936052826184</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D31" t="n">
-        <v>703.8194134138482</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E31" t="n">
-        <v>631.7012443408906</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F31" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
@@ -6651,22 +6651,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2197.062545487567</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1907.987318831765</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1653.302830625878</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1653.302830625878</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>1425.313279727861</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>1204.520700584331</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6691,28 +6691,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
         <v>3640.42229106801</v>
@@ -6779,28 +6779,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L33" t="n">
-        <v>923.0670414349511</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M33" t="n">
-        <v>1520.445529061503</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N33" t="n">
-        <v>2092.798483612594</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O33" t="n">
-        <v>2092.798483612594</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>2757.723669558405</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C34" t="n">
-        <v>2588.787486630498</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D34" t="n">
-        <v>2588.787486630498</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E34" t="n">
-        <v>2588.787486630498</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F34" t="n">
-        <v>2588.787486630498</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G34" t="n">
-        <v>2479.398563024106</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>4440.9326143059</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T34" t="n">
-        <v>4221.331149328841</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U34" t="n">
-        <v>3932.255922673039</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V34" t="n">
-        <v>3677.571434467152</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W34" t="n">
-        <v>3388.154264430192</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X34" t="n">
-        <v>3160.164713532175</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y34" t="n">
-        <v>2939.372134388645</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="35">
@@ -6913,10 +6913,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D35" t="n">
         <v>1590.547811004713</v>
@@ -6931,19 +6931,19 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M35" t="n">
         <v>2206.558663014779</v>
@@ -6958,31 +6958,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="36">
@@ -7010,34 +7010,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>691.1951506745238</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>1318.79311422913</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>1870.702844468417</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2294.325993963485</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2527.587654338368</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7074,25 +7074,25 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>344.9174178121643</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D37" t="n">
-        <v>344.9174178121643</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="E37" t="n">
-        <v>344.9174178121643</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="F37" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G37" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J37" t="n">
         <v>174.0526814782957</v>
@@ -7162,7 +7162,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
@@ -7171,25 +7171,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7210,13 +7210,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7250,19 +7250,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J39" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K39" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="L39" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="M39" t="n">
-        <v>680.0291294438176</v>
+        <v>842.6091804069456</v>
       </c>
       <c r="N39" t="n">
         <v>1307.627092998424</v>
@@ -7308,19 +7308,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>513.8536007400712</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C40" t="n">
-        <v>344.9174178121643</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D40" t="n">
-        <v>344.9174178121643</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E40" t="n">
-        <v>344.9174178121643</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F40" t="n">
-        <v>261.0127623330919</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G40" t="n">
         <v>93.81666304797187</v>
@@ -7332,52 +7332,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R40" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854706</v>
+        <v>1882.204779583153</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.701365648819</v>
+        <v>1627.520291377266</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611858</v>
+        <v>1338.103121340305</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138411</v>
+        <v>1110.113570442288</v>
       </c>
       <c r="Y40" t="n">
-        <v>695.5020655703109</v>
+        <v>889.3209912987577</v>
       </c>
     </row>
     <row r="41">
@@ -7399,40 +7399,40 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
@@ -7487,31 +7487,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J42" t="n">
-        <v>95.58405025273903</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K42" t="n">
-        <v>429.5088224239596</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L42" t="n">
-        <v>924.8344286397182</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1522.21291626627</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>2092.798483612594</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>2092.798483612594</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>571.6607764188008</v>
+        <v>1098.667160263526</v>
       </c>
       <c r="C43" t="n">
-        <v>402.7245934908939</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="D43" t="n">
-        <v>402.7245934908939</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E43" t="n">
-        <v>402.7245934908939</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F43" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R43" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2254.869721166297</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T43" t="n">
-        <v>2035.268256189238</v>
+        <v>2334.285089135946</v>
       </c>
       <c r="U43" t="n">
-        <v>1746.193029533436</v>
+        <v>2045.209862480144</v>
       </c>
       <c r="V43" t="n">
-        <v>1491.508541327549</v>
+        <v>1790.525374274257</v>
       </c>
       <c r="W43" t="n">
-        <v>1202.091371290588</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="X43" t="n">
-        <v>974.1018203925706</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y43" t="n">
-        <v>753.3092412490405</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="44">
@@ -7636,25 +7636,25 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M44" t="n">
         <v>2206.558663014778</v>
@@ -7724,25 +7724,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L45" t="n">
-        <v>589.1422692637306</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1186.520756890282</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1814.118720444889</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>2366.028450684176</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
         <v>2553.061288060775</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>2757.723669558405</v>
+        <v>991.7436897307826</v>
       </c>
       <c r="C46" t="n">
-        <v>2588.787486630498</v>
+        <v>822.8075068028758</v>
       </c>
       <c r="D46" t="n">
-        <v>2588.787486630498</v>
+        <v>672.69086739054</v>
       </c>
       <c r="E46" t="n">
-        <v>2588.787486630498</v>
+        <v>524.7777738081469</v>
       </c>
       <c r="F46" t="n">
-        <v>2588.787486630498</v>
+        <v>377.8878263102365</v>
       </c>
       <c r="G46" t="n">
-        <v>2421.591387345378</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H46" t="n">
-        <v>2419.773435218391</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I46" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K46" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L46" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M46" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O46" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P46" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R46" t="n">
-        <v>4623.787448650995</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S46" t="n">
-        <v>4440.9326143059</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T46" t="n">
-        <v>4221.331149328841</v>
+        <v>2227.361618603202</v>
       </c>
       <c r="U46" t="n">
-        <v>3932.255922673039</v>
+        <v>1938.2863919474</v>
       </c>
       <c r="V46" t="n">
-        <v>3677.571434467152</v>
+        <v>1683.601903741513</v>
       </c>
       <c r="W46" t="n">
-        <v>3388.154264430192</v>
+        <v>1394.184733704552</v>
       </c>
       <c r="X46" t="n">
-        <v>3160.164713532175</v>
+        <v>1394.184733704552</v>
       </c>
       <c r="Y46" t="n">
-        <v>2939.372134388645</v>
+        <v>1173.392154561022</v>
       </c>
     </row>
   </sheetData>
@@ -8057,19 +8057,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>342.9044714621887</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>162.0073097921339</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>249.3877325071649</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -8078,7 +8078,7 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>129.4330134067488</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8297,10 +8297,10 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>342.9044714621886</v>
+        <v>265.0304328515144</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -8312,13 +8312,13 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>162.0073097921338</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>45.52166981132082</v>
+        <v>20.93778120154991</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8534,7 +8534,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>193.327346787835</v>
+        <v>193.3273467878349</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8555,7 +8555,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
-        <v>20.93778120154991</v>
+        <v>20.9377812015499</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -23418,13 +23418,13 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -23433,10 +23433,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>139.469330230033</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,10 +23463,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>118.6564717779737</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23658,22 +23658,22 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>57.2291039219413</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,13 +23700,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>67.48492792567578</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23907,10 +23907,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,13 +23937,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>65.54986409393101</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>106.0841272570744</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -24132,22 +24132,22 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>41.29766760034539</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24192,10 +24192,10 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>57.22910392194223</v>
       </c>
     </row>
     <row r="23">
@@ -24369,16 +24369,16 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>65.54986409393068</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
@@ -24411,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>43.26526345294994</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24600,7 +24600,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -24612,16 +24612,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>104.0840080815017</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24657,7 +24657,7 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>57.22910392194231</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24843,22 +24843,22 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>75.03697526434117</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24891,7 +24891,7 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -24900,7 +24900,7 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -25089,7 +25089,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>57.22910392194129</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -25125,7 +25125,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>57.229103921942</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25314,7 +25314,7 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
@@ -25323,16 +25323,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>116.6691671648111</v>
       </c>
       <c r="G37" t="n">
-        <v>57.22910392194223</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25554,22 +25554,22 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>62.35543909864957</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25605,7 +25605,7 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>191.8807364711616</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25791,13 +25791,13 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -25806,7 +25806,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,13 +25833,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>172.2294825375379</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -25851,7 +25851,7 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -26028,19 +26028,19 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>105.8542358274162</v>
       </c>
       <c r="H46" t="n">
-        <v>138.4949402405066</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -26070,10 +26070,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26088,7 +26088,7 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>753319.9883283913</v>
+        <v>753319.9883283911</v>
       </c>
     </row>
     <row r="8">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>753319.9883283911</v>
+        <v>753319.988328391</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>753319.9883283912</v>
+        <v>753319.9883283911</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>753319.9883283913</v>
+        <v>753319.9883283911</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>753319.9883283912</v>
+        <v>753319.9883283911</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>753319.9883283911</v>
+        <v>753319.9883283912</v>
       </c>
     </row>
     <row r="14">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>753319.9883283911</v>
+        <v>753319.9883283912</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>753319.9883283912</v>
+        <v>753319.9883283913</v>
       </c>
     </row>
   </sheetData>
@@ -26313,7 +26313,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>677359.4601380338</v>
+        <v>677359.460138034</v>
       </c>
       <c r="C2" t="n">
         <v>677359.4601380337</v>
@@ -26325,37 +26325,37 @@
         <v>665895.944744255</v>
       </c>
       <c r="F2" t="n">
+        <v>665895.944744255</v>
+      </c>
+      <c r="G2" t="n">
+        <v>665895.944744255</v>
+      </c>
+      <c r="H2" t="n">
+        <v>665895.9447442547</v>
+      </c>
+      <c r="I2" t="n">
+        <v>665895.9447442552</v>
+      </c>
+      <c r="J2" t="n">
+        <v>665895.944744255</v>
+      </c>
+      <c r="K2" t="n">
         <v>665895.9447442548</v>
       </c>
-      <c r="G2" t="n">
-        <v>665895.9447442549</v>
-      </c>
-      <c r="H2" t="n">
+      <c r="L2" t="n">
         <v>665895.9447442548</v>
-      </c>
-      <c r="I2" t="n">
-        <v>665895.9447442549</v>
-      </c>
-      <c r="J2" t="n">
-        <v>665895.9447442546</v>
-      </c>
-      <c r="K2" t="n">
-        <v>665895.944744255</v>
-      </c>
-      <c r="L2" t="n">
-        <v>665895.9447442549</v>
       </c>
       <c r="M2" t="n">
         <v>665895.9447442548</v>
       </c>
       <c r="N2" t="n">
-        <v>665895.9447442548</v>
+        <v>665895.9447442549</v>
       </c>
       <c r="O2" t="n">
-        <v>665895.9447442547</v>
+        <v>665895.9447442554</v>
       </c>
       <c r="P2" t="n">
-        <v>665895.9447442549</v>
+        <v>665895.944744255</v>
       </c>
     </row>
     <row r="3">
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1114751.78357592</v>
+        <v>1114751.783575919</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26374,10 +26374,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>507485.441624546</v>
+        <v>507485.4416245461</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>1.797263848857256e-10</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>167605.1778099826</v>
+        <v>167605.1778099825</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26417,16 +26417,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>133113.8635467443</v>
+        <v>133113.8635467444</v>
       </c>
       <c r="C4" t="n">
         <v>133113.8635467444</v>
       </c>
       <c r="D4" t="n">
-        <v>133113.8635467444</v>
+        <v>133113.8635467443</v>
       </c>
       <c r="E4" t="n">
-        <v>7507.368461719667</v>
+        <v>7507.368461719627</v>
       </c>
       <c r="F4" t="n">
         <v>7507.368461719667</v>
@@ -26438,7 +26438,7 @@
         <v>7507.368461719667</v>
       </c>
       <c r="I4" t="n">
-        <v>7507.368461719729</v>
+        <v>7507.368461719667</v>
       </c>
       <c r="J4" t="n">
         <v>7507.368461719667</v>
@@ -26450,10 +26450,10 @@
         <v>7507.368461719667</v>
       </c>
       <c r="M4" t="n">
-        <v>7507.368461719667</v>
+        <v>7507.368461719729</v>
       </c>
       <c r="N4" t="n">
-        <v>7507.368461719667</v>
+        <v>7507.368461719668</v>
       </c>
       <c r="O4" t="n">
         <v>7507.368461719667</v>
@@ -26521,7 +26521,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-663443.9594244749</v>
+        <v>-663443.9594244745</v>
       </c>
       <c r="C6" t="n">
         <v>451307.8241514447</v>
@@ -26530,40 +26530,40 @@
         <v>451307.8241514446</v>
       </c>
       <c r="E6" t="n">
-        <v>49780.60483408232</v>
+        <v>49433.22557972529</v>
       </c>
       <c r="F6" t="n">
-        <v>557266.046458628</v>
+        <v>556918.667204271</v>
       </c>
       <c r="G6" t="n">
-        <v>557266.0464586281</v>
+        <v>556918.6672042717</v>
       </c>
       <c r="H6" t="n">
-        <v>557266.046458628</v>
+        <v>556918.667204271</v>
       </c>
       <c r="I6" t="n">
-        <v>557266.0464586281</v>
+        <v>556918.6672042714</v>
       </c>
       <c r="J6" t="n">
-        <v>389660.8686486452</v>
+        <v>389313.4893942887</v>
       </c>
       <c r="K6" t="n">
-        <v>557266.0464586283</v>
+        <v>556918.6672042711</v>
       </c>
       <c r="L6" t="n">
-        <v>557266.0464586281</v>
+        <v>556918.6672042711</v>
       </c>
       <c r="M6" t="n">
-        <v>424658.7527297013</v>
+        <v>424311.3734753444</v>
       </c>
       <c r="N6" t="n">
-        <v>557266.046458628</v>
+        <v>556918.6672042712</v>
       </c>
       <c r="O6" t="n">
-        <v>557266.0464586279</v>
+        <v>556918.6672042717</v>
       </c>
       <c r="P6" t="n">
-        <v>557266.0464586281</v>
+        <v>556918.6672042713</v>
       </c>
     </row>
   </sheetData>
@@ -26737,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
+        <v>934.0648921175391</v>
+      </c>
+      <c r="C3" t="n">
+        <v>934.0648921175391</v>
+      </c>
+      <c r="D3" t="n">
         <v>934.0648921175392</v>
-      </c>
-      <c r="C3" t="n">
-        <v>934.0648921175392</v>
-      </c>
-      <c r="D3" t="n">
-        <v>934.0648921175391</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26789,7 +26789,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="C4" t="n">
         <v>640.5848321000387</v>
@@ -26798,10 +26798,10 @@
         <v>640.5848321000387</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="G4" t="n">
         <v>1172.708288099648</v>
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175392</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26968,10 +26968,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>433.9106082241346</v>
+        <v>433.9106082241348</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>532.1234559996096</v>
+        <v>532.1234559996099</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000391</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996096</v>
+        <v>532.1234559996099</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,28 +27378,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>343.5574136868021</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>233.9200377128907</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27429,10 +27429,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -27444,10 +27444,10 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27554,10 +27554,10 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27590,13 +27590,13 @@
         <v>194.6624603617375</v>
       </c>
       <c r="T4" t="n">
-        <v>220.7486959972119</v>
+        <v>110.0690483121605</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -27605,7 +27605,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>107.278945876605</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27621,19 +27621,19 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>301.2772215964367</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>39.29420149906747</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27666,25 +27666,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T5" t="n">
         <v>206.6581849802338</v>
       </c>
       <c r="U5" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27788,10 +27788,10 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H7" t="n">
-        <v>147.2515091551288</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I7" t="n">
         <v>104.7965952039006</v>
@@ -27830,16 +27830,16 @@
         <v>220.7486959972119</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>201.1568951983999</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>115.0300077039855</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -27852,10 +27852,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>28.1917459637458</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -27864,7 +27864,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>220.1051982880084</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -27873,7 +27873,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27906,10 +27906,10 @@
         <v>123.4522153987944</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -27918,10 +27918,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28013,7 +28013,7 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -28028,10 +28028,10 @@
         <v>166.3066000448042</v>
       </c>
       <c r="H10" t="n">
-        <v>147.2515091551289</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I10" t="n">
-        <v>104.7965952039006</v>
+        <v>14.09847973280007</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28061,19 +28061,19 @@
         <v>101.5575724195736</v>
       </c>
       <c r="S10" t="n">
-        <v>157.1703755738307</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -29103,7 +29103,7 @@
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -29991,7 +29991,7 @@
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
@@ -31044,43 +31044,43 @@
         <v>3.755034742181059</v>
       </c>
       <c r="H2" t="n">
-        <v>38.45624955336179</v>
+        <v>38.45624955336178</v>
       </c>
       <c r="I2" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J2" t="n">
-        <v>318.70387994919</v>
+        <v>318.7038799491899</v>
       </c>
       <c r="K2" t="n">
-        <v>477.6545005857143</v>
+        <v>477.6545005857142</v>
       </c>
       <c r="L2" t="n">
-        <v>592.572645076738</v>
+        <v>592.5726450767379</v>
       </c>
       <c r="M2" t="n">
-        <v>659.3512441730004</v>
+        <v>659.3512441730003</v>
       </c>
       <c r="N2" t="n">
-        <v>670.0202366342224</v>
+        <v>670.0202366342223</v>
       </c>
       <c r="O2" t="n">
-        <v>632.6811099166595</v>
+        <v>632.6811099166594</v>
       </c>
       <c r="P2" t="n">
-        <v>539.9786897190645</v>
+        <v>539.9786897190644</v>
       </c>
       <c r="Q2" t="n">
-        <v>405.5015080147052</v>
+        <v>405.5015080147051</v>
       </c>
       <c r="R2" t="n">
-        <v>235.8772011235312</v>
+        <v>235.8772011235311</v>
       </c>
       <c r="S2" t="n">
-        <v>85.56785418745098</v>
+        <v>85.56785418745096</v>
       </c>
       <c r="T2" t="n">
-        <v>16.4376645838976</v>
+        <v>16.43766458389759</v>
       </c>
       <c r="U2" t="n">
         <v>0.3004027793744847</v>
@@ -31123,10 +31123,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H3" t="n">
-        <v>19.40387634380021</v>
+        <v>19.4038763438002</v>
       </c>
       <c r="I3" t="n">
-        <v>69.17367361436494</v>
+        <v>69.17367361436493</v>
       </c>
       <c r="J3" t="n">
         <v>189.8178475575841</v>
@@ -31135,7 +31135,7 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L3" t="n">
-        <v>436.2347404177244</v>
+        <v>436.2347404177243</v>
       </c>
       <c r="M3" t="n">
         <v>509.0653662040588</v>
@@ -31144,25 +31144,25 @@
         <v>522.5388116762072</v>
       </c>
       <c r="O3" t="n">
-        <v>478.0209264405675</v>
+        <v>478.0209264405674</v>
       </c>
       <c r="P3" t="n">
         <v>383.6539365378625</v>
       </c>
       <c r="Q3" t="n">
-        <v>256.4624964168761</v>
+        <v>256.462496416876</v>
       </c>
       <c r="R3" t="n">
-        <v>124.7417227624141</v>
+        <v>124.741722762414</v>
       </c>
       <c r="S3" t="n">
-        <v>37.31853601997902</v>
+        <v>37.31853601997901</v>
       </c>
       <c r="T3" t="n">
-        <v>8.098166376000172</v>
+        <v>8.098166376000171</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1321789941675764</v>
+        <v>0.1321789941675763</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31205,7 +31205,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I4" t="n">
-        <v>50.65387972335771</v>
+        <v>50.6538797233577</v>
       </c>
       <c r="J4" t="n">
         <v>119.0856174753787</v>
@@ -31220,10 +31220,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N4" t="n">
-        <v>257.7559726067959</v>
+        <v>257.7559726067958</v>
       </c>
       <c r="O4" t="n">
-        <v>238.0793597154673</v>
+        <v>238.0793597154672</v>
       </c>
       <c r="P4" t="n">
         <v>203.7180217169137</v>
@@ -31235,13 +31235,13 @@
         <v>75.73581895759585</v>
       </c>
       <c r="S4" t="n">
-        <v>29.35413767523479</v>
+        <v>29.35413767523478</v>
       </c>
       <c r="T4" t="n">
-        <v>7.196893431069562</v>
+        <v>7.196893431069561</v>
       </c>
       <c r="U4" t="n">
-        <v>0.09187523529024985</v>
+        <v>0.09187523529024984</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31281,43 +31281,43 @@
         <v>3.755034742181059</v>
       </c>
       <c r="H5" t="n">
-        <v>38.45624955336179</v>
+        <v>38.45624955336178</v>
       </c>
       <c r="I5" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J5" t="n">
-        <v>318.70387994919</v>
+        <v>318.7038799491899</v>
       </c>
       <c r="K5" t="n">
-        <v>477.6545005857143</v>
+        <v>477.6545005857142</v>
       </c>
       <c r="L5" t="n">
-        <v>592.572645076738</v>
+        <v>592.5726450767379</v>
       </c>
       <c r="M5" t="n">
-        <v>659.3512441730004</v>
+        <v>659.3512441730003</v>
       </c>
       <c r="N5" t="n">
-        <v>670.0202366342224</v>
+        <v>670.0202366342223</v>
       </c>
       <c r="O5" t="n">
-        <v>632.6811099166595</v>
+        <v>632.6811099166594</v>
       </c>
       <c r="P5" t="n">
-        <v>539.9786897190645</v>
+        <v>539.9786897190644</v>
       </c>
       <c r="Q5" t="n">
-        <v>405.5015080147052</v>
+        <v>405.5015080147051</v>
       </c>
       <c r="R5" t="n">
-        <v>235.8772011235312</v>
+        <v>235.8772011235311</v>
       </c>
       <c r="S5" t="n">
-        <v>85.56785418745098</v>
+        <v>85.56785418745096</v>
       </c>
       <c r="T5" t="n">
-        <v>16.4376645838976</v>
+        <v>16.43766458389759</v>
       </c>
       <c r="U5" t="n">
         <v>0.3004027793744847</v>
@@ -31360,10 +31360,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H6" t="n">
-        <v>19.40387634380021</v>
+        <v>19.4038763438002</v>
       </c>
       <c r="I6" t="n">
-        <v>69.17367361436494</v>
+        <v>69.17367361436493</v>
       </c>
       <c r="J6" t="n">
         <v>189.8178475575841</v>
@@ -31372,7 +31372,7 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L6" t="n">
-        <v>436.2347404177244</v>
+        <v>436.2347404177243</v>
       </c>
       <c r="M6" t="n">
         <v>509.0653662040588</v>
@@ -31381,25 +31381,25 @@
         <v>522.5388116762072</v>
       </c>
       <c r="O6" t="n">
-        <v>478.0209264405675</v>
+        <v>478.0209264405674</v>
       </c>
       <c r="P6" t="n">
         <v>383.6539365378625</v>
       </c>
       <c r="Q6" t="n">
-        <v>256.4624964168761</v>
+        <v>256.462496416876</v>
       </c>
       <c r="R6" t="n">
-        <v>124.7417227624141</v>
+        <v>124.741722762414</v>
       </c>
       <c r="S6" t="n">
-        <v>37.31853601997902</v>
+        <v>37.31853601997901</v>
       </c>
       <c r="T6" t="n">
-        <v>8.098166376000172</v>
+        <v>8.098166376000171</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1321789941675764</v>
+        <v>0.1321789941675763</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31442,7 +31442,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I7" t="n">
-        <v>50.65387972335771</v>
+        <v>50.6538797233577</v>
       </c>
       <c r="J7" t="n">
         <v>119.0856174753787</v>
@@ -31457,10 +31457,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N7" t="n">
-        <v>257.7559726067959</v>
+        <v>257.7559726067958</v>
       </c>
       <c r="O7" t="n">
-        <v>238.0793597154673</v>
+        <v>238.0793597154672</v>
       </c>
       <c r="P7" t="n">
         <v>203.7180217169137</v>
@@ -31472,13 +31472,13 @@
         <v>75.73581895759585</v>
       </c>
       <c r="S7" t="n">
-        <v>29.35413767523479</v>
+        <v>29.35413767523478</v>
       </c>
       <c r="T7" t="n">
-        <v>7.196893431069562</v>
+        <v>7.196893431069561</v>
       </c>
       <c r="U7" t="n">
-        <v>0.09187523529024985</v>
+        <v>0.09187523529024984</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31518,43 +31518,43 @@
         <v>3.755034742181059</v>
       </c>
       <c r="H8" t="n">
-        <v>38.45624955336178</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I8" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J8" t="n">
-        <v>318.7038799491899</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K8" t="n">
-        <v>477.6545005857142</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L8" t="n">
-        <v>592.5726450767379</v>
+        <v>592.572645076738</v>
       </c>
       <c r="M8" t="n">
-        <v>659.3512441730003</v>
+        <v>659.3512441730004</v>
       </c>
       <c r="N8" t="n">
-        <v>670.0202366342223</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O8" t="n">
-        <v>632.6811099166594</v>
+        <v>632.6811099166595</v>
       </c>
       <c r="P8" t="n">
-        <v>539.9786897190644</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q8" t="n">
-        <v>405.5015080147051</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R8" t="n">
-        <v>235.8772011235311</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S8" t="n">
-        <v>85.56785418745096</v>
+        <v>85.56785418745098</v>
       </c>
       <c r="T8" t="n">
-        <v>16.43766458389759</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U8" t="n">
         <v>0.3004027793744847</v>
@@ -31597,10 +31597,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H9" t="n">
-        <v>19.4038763438002</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I9" t="n">
-        <v>69.17367361436493</v>
+        <v>69.17367361436494</v>
       </c>
       <c r="J9" t="n">
         <v>189.8178475575841</v>
@@ -31609,7 +31609,7 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L9" t="n">
-        <v>436.2347404177243</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M9" t="n">
         <v>509.0653662040588</v>
@@ -31618,25 +31618,25 @@
         <v>522.5388116762072</v>
       </c>
       <c r="O9" t="n">
-        <v>478.0209264405674</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P9" t="n">
         <v>383.6539365378625</v>
       </c>
       <c r="Q9" t="n">
-        <v>256.462496416876</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R9" t="n">
-        <v>124.741722762414</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S9" t="n">
-        <v>37.31853601997901</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T9" t="n">
-        <v>8.098166376000171</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1321789941675763</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31679,7 +31679,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I10" t="n">
-        <v>50.6538797233577</v>
+        <v>50.65387972335771</v>
       </c>
       <c r="J10" t="n">
         <v>119.0856174753787</v>
@@ -31694,10 +31694,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N10" t="n">
-        <v>257.7559726067958</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O10" t="n">
-        <v>238.0793597154672</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P10" t="n">
         <v>203.7180217169137</v>
@@ -31709,13 +31709,13 @@
         <v>75.73581895759585</v>
       </c>
       <c r="S10" t="n">
-        <v>29.35413767523478</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T10" t="n">
-        <v>7.196893431069561</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09187523529024984</v>
+        <v>0.09187523529024985</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,7 +31752,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31764,31 +31764,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L12" t="n">
-        <v>279.2419622547062</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M12" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31913,25 +31913,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31940,19 +31940,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M15" t="n">
-        <v>469.5567819573411</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558009</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P16" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32311,7 +32311,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
@@ -32323,22 +32323,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>142.1340339220183</v>
+        <v>444.2274915982894</v>
       </c>
       <c r="N18" t="n">
-        <v>368.6279838366855</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742438</v>
@@ -32487,7 +32487,7 @@
         <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
         <v>790.8204499236507</v>
@@ -32548,13 +32548,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
         <v>638.8832749473072</v>
@@ -32563,16 +32563,16 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>290.6810969936916</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>145.679503963964</v>
@@ -32785,10 +32785,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
         <v>475.1391886422585</v>
@@ -32800,13 +32800,13 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>189.0011860883002</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
@@ -32958,7 +32958,7 @@
         <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
         <v>926.5868626460027</v>
@@ -33022,13 +33022,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
         <v>638.8832749473072</v>
@@ -33040,10 +33040,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>461.1007071927452</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
@@ -33180,7 +33180,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I29" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J29" t="n">
         <v>466.7546155663283</v>
@@ -33259,7 +33259,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
@@ -33277,7 +33277,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
@@ -33499,7 +33499,7 @@
         <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
         <v>475.1391886422585</v>
@@ -33511,19 +33511,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>709.4760096096878</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>142.5962444444444</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33733,16 +33733,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
         <v>745.5466476862121</v>
@@ -33751,16 +33751,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>171.4104471179106</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33885,43 +33885,43 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S38" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33964,13 +33964,13 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H39" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
@@ -33982,31 +33982,31 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M39" t="n">
-        <v>583.1096135868578</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>601.0567753070487</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R39" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34046,25 +34046,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34073,19 +34073,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,7 +34122,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34134,31 +34134,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S41" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34201,49 +34201,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H42" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N42" t="n">
-        <v>707.690770008913</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O42" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34283,25 +34283,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34310,19 +34310,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,43 +34359,43 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S44" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34438,34 +34438,34 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H45" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
-        <v>322.8964653704906</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
         <v>139.9817740860215</v>
@@ -34474,13 +34474,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34520,25 +34520,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34547,19 +34547,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>137.6579754225037</v>
+        <v>137.6579754225036</v>
       </c>
       <c r="K2" t="n">
         <v>257.5646495407337</v>
       </c>
       <c r="L2" t="n">
-        <v>356.8062301067508</v>
+        <v>356.8062301067507</v>
       </c>
       <c r="M2" t="n">
-        <v>429.0050109457277</v>
+        <v>429.0050109457276</v>
       </c>
       <c r="N2" t="n">
-        <v>440.6071730376315</v>
+        <v>440.6071730376314</v>
       </c>
       <c r="O2" t="n">
-        <v>402.5828984949727</v>
+        <v>402.5828984949726</v>
       </c>
       <c r="P2" t="n">
-        <v>308.745693963795</v>
+        <v>308.7456939637948</v>
       </c>
       <c r="Q2" t="n">
-        <v>183.1958181402557</v>
+        <v>183.1958181402556</v>
       </c>
       <c r="R2" t="n">
-        <v>20.29166330939904</v>
+        <v>20.29166330939901</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,31 +34777,31 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>62.98022089091742</v>
+        <v>189.0712562313262</v>
       </c>
       <c r="K3" t="n">
         <v>186.5874962434848</v>
       </c>
       <c r="L3" t="n">
-        <v>640.5848321000389</v>
+        <v>297.6803606378501</v>
       </c>
       <c r="M3" t="n">
-        <v>528.9386420741744</v>
+        <v>366.9313322820404</v>
       </c>
       <c r="N3" t="n">
-        <v>391.1970995928739</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="O3" t="n">
         <v>335.424681996123</v>
       </c>
       <c r="P3" t="n">
-        <v>249.6795291235323</v>
+        <v>249.6795291235322</v>
       </c>
       <c r="Q3" t="n">
-        <v>116.4807223308546</v>
+        <v>245.9137357376033</v>
       </c>
       <c r="R3" t="n">
-        <v>24.58388860977092</v>
+        <v>24.58388860977091</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34856,10 +34856,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>25.72643735870594</v>
+        <v>25.72643735870592</v>
       </c>
       <c r="K4" t="n">
-        <v>173.4247593423491</v>
+        <v>173.424759342349</v>
       </c>
       <c r="L4" t="n">
         <v>278.0112915831069</v>
@@ -34868,7 +34868,7 @@
         <v>303.6179906468033</v>
       </c>
       <c r="N4" t="n">
-        <v>301.8881449860245</v>
+        <v>301.8881449860244</v>
       </c>
       <c r="O4" t="n">
         <v>262.6644876295069</v>
@@ -34877,7 +34877,7 @@
         <v>200.9965809818072</v>
       </c>
       <c r="Q4" t="n">
-        <v>54.88175545805403</v>
+        <v>54.881755458054</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34935,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>137.6579754225037</v>
+        <v>137.6579754225036</v>
       </c>
       <c r="K5" t="n">
         <v>257.5646495407337</v>
       </c>
       <c r="L5" t="n">
-        <v>356.8062301067508</v>
+        <v>356.8062301067507</v>
       </c>
       <c r="M5" t="n">
-        <v>429.0050109457277</v>
+        <v>429.0050109457276</v>
       </c>
       <c r="N5" t="n">
-        <v>440.6071730376315</v>
+        <v>440.6071730376314</v>
       </c>
       <c r="O5" t="n">
-        <v>402.5828984949727</v>
+        <v>402.5828984949726</v>
       </c>
       <c r="P5" t="n">
-        <v>308.745693963795</v>
+        <v>308.7456939637948</v>
       </c>
       <c r="Q5" t="n">
-        <v>183.1958181402557</v>
+        <v>183.1958181402556</v>
       </c>
       <c r="R5" t="n">
-        <v>20.29166330939904</v>
+        <v>20.29166330939901</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,16 +35014,16 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>62.98022089091742</v>
+        <v>62.98022089091739</v>
       </c>
       <c r="K6" t="n">
-        <v>186.5874962434848</v>
+        <v>451.0527332560634</v>
       </c>
       <c r="L6" t="n">
-        <v>640.5848321000387</v>
+        <v>562.7107934893645</v>
       </c>
       <c r="M6" t="n">
-        <v>366.9313322820405</v>
+        <v>366.9313322820404</v>
       </c>
       <c r="N6" t="n">
         <v>391.1970995928739</v>
@@ -35032,13 +35032,13 @@
         <v>335.424681996123</v>
       </c>
       <c r="P6" t="n">
-        <v>411.6868389156661</v>
+        <v>249.6795291235322</v>
       </c>
       <c r="Q6" t="n">
-        <v>116.4807223308546</v>
+        <v>116.4807223308545</v>
       </c>
       <c r="R6" t="n">
-        <v>24.58388860977092</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35093,10 +35093,10 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>25.72643735870594</v>
+        <v>25.72643735870592</v>
       </c>
       <c r="K7" t="n">
-        <v>173.4247593423491</v>
+        <v>173.424759342349</v>
       </c>
       <c r="L7" t="n">
         <v>278.0112915831069</v>
@@ -35105,7 +35105,7 @@
         <v>303.6179906468033</v>
       </c>
       <c r="N7" t="n">
-        <v>301.8881449860245</v>
+        <v>301.8881449860244</v>
       </c>
       <c r="O7" t="n">
         <v>262.6644876295069</v>
@@ -35114,7 +35114,7 @@
         <v>200.9965809818072</v>
       </c>
       <c r="Q7" t="n">
-        <v>54.88175545805403</v>
+        <v>54.881755458054</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>137.6579754225036</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K8" t="n">
         <v>257.5646495407337</v>
       </c>
       <c r="L8" t="n">
-        <v>356.8062301067507</v>
+        <v>356.8062301067508</v>
       </c>
       <c r="M8" t="n">
-        <v>429.0050109457276</v>
+        <v>429.0050109457277</v>
       </c>
       <c r="N8" t="n">
-        <v>440.6071730376314</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O8" t="n">
-        <v>402.5828984949726</v>
+        <v>402.5828984949727</v>
       </c>
       <c r="P8" t="n">
-        <v>308.7456939637948</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q8" t="n">
-        <v>183.1958181402556</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R8" t="n">
-        <v>20.29166330939901</v>
+        <v>20.29166330939904</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,16 +35251,16 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>189.0712562313262</v>
+        <v>189.0712562313263</v>
       </c>
       <c r="K9" t="n">
-        <v>379.9148430313198</v>
+        <v>379.9148430313197</v>
       </c>
       <c r="L9" t="n">
-        <v>297.6803606378501</v>
+        <v>297.6803606378502</v>
       </c>
       <c r="M9" t="n">
-        <v>366.9313322820404</v>
+        <v>366.9313322820405</v>
       </c>
       <c r="N9" t="n">
         <v>391.1970995928739</v>
@@ -35269,10 +35269,10 @@
         <v>335.424681996123</v>
       </c>
       <c r="P9" t="n">
-        <v>249.6795291235322</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q9" t="n">
-        <v>326.5580100667036</v>
+        <v>326.5580100667037</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35330,10 +35330,10 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.72643735870592</v>
+        <v>25.72643735870594</v>
       </c>
       <c r="K10" t="n">
-        <v>173.424759342349</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L10" t="n">
         <v>278.0112915831069</v>
@@ -35342,7 +35342,7 @@
         <v>303.6179906468033</v>
       </c>
       <c r="N10" t="n">
-        <v>301.8881449860244</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O10" t="n">
         <v>262.6644876295069</v>
@@ -35351,7 +35351,7 @@
         <v>200.9965809818072</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.881755458054</v>
+        <v>54.88175545805403</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,7 +35485,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J12" t="n">
         <v>151.1582247754088</v>
@@ -35494,22 +35494,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>140.6875824748321</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J14" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902952</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,34 +35722,34 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774943</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M15" t="n">
-        <v>327.4227480353227</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113564</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35804,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35904,7 +35904,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
         <v>129.8660843902404</v>
@@ -35959,7 +35959,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
@@ -35971,22 +35971,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>302.093457676271</v>
       </c>
       <c r="N18" t="n">
-        <v>237.2862717533522</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36135,7 +36135,7 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
         <v>559.5874541683811</v>
@@ -36196,13 +36196,13 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
         <v>500.328895167433</v>
@@ -36211,16 +36211,16 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>159.3393849103583</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36381,7 +36381,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,10 +36433,10 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
         <v>337.2977496678996</v>
@@ -36448,13 +36448,13 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>57.65947400496688</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36603,10 +36603,10 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193519</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
         <v>696.488651224316</v>
@@ -36670,13 +36670,13 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
         <v>500.328895167433</v>
@@ -36688,10 +36688,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>318.5044627483008</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36828,7 +36828,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
@@ -36840,7 +36840,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902952</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
         <v>751.8584478193516</v>
@@ -36907,7 +36907,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36925,7 +36925,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -37147,7 +37147,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
         <v>337.2977496678996</v>
@@ -37159,19 +37159,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>578.1342975263545</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37381,16 +37381,16 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
@@ -37399,16 +37399,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>25.73094315394662</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37539,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,7 +37618,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37630,22 +37630,22 @@
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>440.9755796648395</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>469.7150632237154</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37700,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K40" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37776,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,34 +37855,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>576.3490579255797</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37937,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K43" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38013,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O44" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,28 +38092,28 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
-        <v>188.9220579561604</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
@@ -38174,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K46" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_11_33.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_11_33.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2862849.394977399</v>
+        <v>2864609.925280184</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283184</v>
+        <v>416855.1052283187</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8766690.560499739</v>
+        <v>8766690.560499741</v>
       </c>
     </row>
     <row r="11">
@@ -673,10 +673,10 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>11.54770277295399</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H2" t="n">
-        <v>67.09851484951466</v>
+        <v>208.8990535094717</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -715,19 +715,19 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -834,7 +834,7 @@
         <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -864,16 +864,16 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>47.86783025244318</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T4" t="n">
-        <v>110.6796476850514</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -882,10 +882,10 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -910,10 +910,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>11.54770277295399</v>
+        <v>223.2987514023491</v>
       </c>
       <c r="H5" t="n">
-        <v>261.7243510633379</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I5" t="n">
         <v>65.70991267247049</v>
@@ -952,7 +952,7 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -995,7 +995,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I6" t="n">
-        <v>20.22295923705015</v>
+        <v>20.22295923705013</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1068,7 +1068,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1101,10 +1101,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>69.63957399764172</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1113,10 +1113,10 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>50.98074812542808</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -1132,25 +1132,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>354.5420956997348</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>39.24745236223276</v>
       </c>
       <c r="G8" t="n">
         <v>411.547702772954</v>
       </c>
       <c r="H8" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1189,7 +1189,7 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -1232,7 +1232,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I9" t="n">
-        <v>20.22295923705013</v>
+        <v>20.22295923705015</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1299,10 +1299,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1311,7 +1311,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>90.69811547110051</v>
+        <v>50.98074812542793</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1350,7 +1350,7 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -1375,7 +1375,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.6830416206839</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1527,25 +1527,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>117.4765410832877</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1575,10 +1575,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>62.3698142236709</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695526</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1669,7 +1669,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>349.2409687174136</v>
+        <v>349.2409687174127</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
@@ -1776,13 +1776,13 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>83.06560892428256</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012164</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1833,7 +1833,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>181.4586396994902</v>
       </c>
     </row>
     <row r="17">
@@ -1894,13 +1894,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T17" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -1940,7 +1940,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H18" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -2007,7 +2007,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -2019,10 +2019,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,10 +2049,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0.8253826161906772</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>108.9065924712588</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
@@ -2080,7 +2080,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
@@ -2095,7 +2095,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
         <v>283.1540821444137</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2177,7 +2177,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H21" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2244,7 +2244,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -2253,7 +2253,7 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>26.05480806223585</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2307,7 +2307,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>161.3555494301526</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2414,7 +2414,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H24" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2481,7 +2481,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -2493,7 +2493,7 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>55.52079624060383</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2523,10 +2523,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>23.10998325717174</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2651,7 +2651,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H27" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -2730,7 +2730,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428169</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2769,7 +2769,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>228.9553704673018</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2842,13 +2842,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U29" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881275</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -2888,7 +2888,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H30" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -2964,10 +2964,10 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>108.2950343703266</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428169</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3028,7 +3028,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3125,7 +3125,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H33" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -3234,10 +3234,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S34" t="n">
-        <v>123.7971820797026</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
         <v>217.4054503272883</v>
@@ -3252,7 +3252,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>168.4805514670949</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -3271,7 +3271,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>354.6830416206816</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
         <v>381.9303700722618</v>
@@ -3283,7 +3283,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444106</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3362,7 +3362,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H36" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3426,7 +3426,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -3435,16 +3435,16 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>28.75188085812011</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428173</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3553,13 +3553,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U38" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881257</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3599,7 +3599,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H39" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3666,19 +3666,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012166</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3717,7 +3717,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>94.30373791808249</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3836,7 +3836,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H42" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3900,16 +3900,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>28.75188085811999</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
@@ -3918,7 +3918,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,13 +3945,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012166</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>45.17596778975034</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
@@ -3963,7 +3963,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4073,7 +4073,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H45" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -4140,22 +4140,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>147.6895341487364</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>59.6699024648526</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,16 +4182,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4200,7 +4200,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -4306,37 +4306,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>864.8611267254482</v>
+        <v>1412.134398099142</v>
       </c>
       <c r="C2" t="n">
-        <v>495.8986097850365</v>
+        <v>1043.17188115873</v>
       </c>
       <c r="D2" t="n">
-        <v>137.632911178286</v>
+        <v>684.90618255198</v>
       </c>
       <c r="E2" t="n">
-        <v>137.632911178286</v>
+        <v>684.90618255198</v>
       </c>
       <c r="F2" t="n">
-        <v>130.6874104290825</v>
+        <v>677.9606818027765</v>
       </c>
       <c r="G2" t="n">
-        <v>119.0230641937755</v>
+        <v>262.2559315270654</v>
       </c>
       <c r="H2" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I2" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J2" t="n">
-        <v>187.5281822362817</v>
+        <v>187.5281822362822</v>
       </c>
       <c r="K2" t="n">
-        <v>442.5171852816086</v>
+        <v>442.5171852816088</v>
       </c>
       <c r="L2" t="n">
-        <v>795.7553530872917</v>
+        <v>795.755353087292</v>
       </c>
       <c r="M2" t="n">
         <v>1220.470313923562</v>
@@ -4363,19 +4363,19 @@
         <v>2562.339328400155</v>
       </c>
       <c r="U2" t="n">
-        <v>2308.758267664335</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="V2" t="n">
-        <v>1977.695380320764</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="W2" t="n">
-        <v>1624.92672505065</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="X2" t="n">
-        <v>1251.46096678957</v>
+        <v>2188.873570139076</v>
       </c>
       <c r="Y2" t="n">
-        <v>1251.46096678957</v>
+        <v>1798.734238163264</v>
       </c>
     </row>
     <row r="3">
@@ -4400,37 +4400,37 @@
         <v>302.1446891756896</v>
       </c>
       <c r="G3" t="n">
-        <v>165.4432786182518</v>
+        <v>165.443278618252</v>
       </c>
       <c r="H3" t="n">
         <v>71.67401812057901</v>
       </c>
       <c r="I3" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J3" t="n">
         <v>238.4273302370161</v>
       </c>
       <c r="K3" t="n">
-        <v>423.148951518066</v>
+        <v>614.5430248380231</v>
       </c>
       <c r="L3" t="n">
-        <v>717.8525085495377</v>
+        <v>909.2465818694948</v>
       </c>
       <c r="M3" t="n">
-        <v>1081.114527508758</v>
+        <v>1272.508600828715</v>
       </c>
       <c r="N3" t="n">
-        <v>1715.293511287796</v>
+        <v>1659.79372942566</v>
       </c>
       <c r="O3" t="n">
-        <v>2047.363946463958</v>
+        <v>1991.864164601822</v>
       </c>
       <c r="P3" t="n">
-        <v>2294.546680296255</v>
+        <v>2239.046898434119</v>
       </c>
       <c r="Q3" t="n">
-        <v>2538.001278676482</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R3" t="n">
         <v>2562.339328400155</v>
@@ -4464,31 +4464,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>833.0891146802707</v>
+        <v>981.8280128167645</v>
       </c>
       <c r="C4" t="n">
-        <v>664.1529317523638</v>
+        <v>812.8918298888576</v>
       </c>
       <c r="D4" t="n">
-        <v>514.036292340028</v>
+        <v>662.7751904765219</v>
       </c>
       <c r="E4" t="n">
-        <v>366.1231987576349</v>
+        <v>514.8620968941287</v>
       </c>
       <c r="F4" t="n">
-        <v>219.2332512597245</v>
+        <v>367.9721493962184</v>
       </c>
       <c r="G4" t="n">
-        <v>51.2467865680031</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="H4" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I4" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J4" t="n">
-        <v>76.71595955312196</v>
+        <v>76.71595955312198</v>
       </c>
       <c r="K4" t="n">
         <v>248.4064713020475</v>
@@ -4512,28 +4512,28 @@
         <v>1636.446120074497</v>
       </c>
       <c r="R4" t="n">
-        <v>1636.446120074497</v>
+        <v>1588.09477638516</v>
       </c>
       <c r="S4" t="n">
-        <v>1636.446120074497</v>
+        <v>1391.466028545022</v>
       </c>
       <c r="T4" t="n">
-        <v>1524.648496150203</v>
+        <v>1391.466028545022</v>
       </c>
       <c r="U4" t="n">
-        <v>1235.53015865404</v>
+        <v>1391.466028545022</v>
       </c>
       <c r="V4" t="n">
-        <v>1235.53015865404</v>
+        <v>1391.466028545022</v>
       </c>
       <c r="W4" t="n">
-        <v>1235.53015865404</v>
+        <v>1391.466028545022</v>
       </c>
       <c r="X4" t="n">
-        <v>1235.53015865404</v>
+        <v>1163.476477647004</v>
       </c>
       <c r="Y4" t="n">
-        <v>1014.73757951051</v>
+        <v>1163.476477647004</v>
       </c>
     </row>
     <row r="5">
@@ -4543,37 +4543,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1548.692669339133</v>
+        <v>1802.273730074954</v>
       </c>
       <c r="C5" t="n">
-        <v>1548.692669339133</v>
+        <v>1802.273730074954</v>
       </c>
       <c r="D5" t="n">
-        <v>1190.426970732383</v>
+        <v>1444.008031468203</v>
       </c>
       <c r="E5" t="n">
-        <v>804.6387181341383</v>
+        <v>1058.219778869959</v>
       </c>
       <c r="F5" t="n">
-        <v>393.6528133445308</v>
+        <v>647.2338740803516</v>
       </c>
       <c r="G5" t="n">
-        <v>381.9884671092237</v>
+        <v>421.6795797345444</v>
       </c>
       <c r="H5" t="n">
         <v>117.6204357321147</v>
       </c>
       <c r="I5" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J5" t="n">
-        <v>187.5281822362822</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K5" t="n">
-        <v>442.5171852816088</v>
+        <v>442.5171852816082</v>
       </c>
       <c r="L5" t="n">
-        <v>795.755353087292</v>
+        <v>795.7553530872915</v>
       </c>
       <c r="M5" t="n">
         <v>1220.470313923562</v>
@@ -4600,19 +4600,19 @@
         <v>2562.339328400155</v>
       </c>
       <c r="U5" t="n">
-        <v>2308.758267664335</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="V5" t="n">
-        <v>2308.758267664335</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="W5" t="n">
-        <v>2308.758267664335</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="X5" t="n">
-        <v>1935.292509403255</v>
+        <v>2188.873570139076</v>
       </c>
       <c r="Y5" t="n">
-        <v>1935.292509403255</v>
+        <v>2188.873570139076</v>
       </c>
     </row>
     <row r="6">
@@ -4643,28 +4643,28 @@
         <v>71.67401812057901</v>
       </c>
       <c r="I6" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J6" t="n">
-        <v>113.5972052500113</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K6" t="n">
-        <v>560.1394111735141</v>
+        <v>614.5430248380226</v>
       </c>
       <c r="L6" t="n">
-        <v>1117.223096727985</v>
+        <v>909.2465818694943</v>
       </c>
       <c r="M6" t="n">
-        <v>1480.485115687205</v>
+        <v>1272.508600828714</v>
       </c>
       <c r="N6" t="n">
-        <v>1867.77024428415</v>
+        <v>1659.79372942566</v>
       </c>
       <c r="O6" t="n">
-        <v>2199.840679460312</v>
+        <v>1991.864164601821</v>
       </c>
       <c r="P6" t="n">
-        <v>2447.023413292609</v>
+        <v>2239.046898434118</v>
       </c>
       <c r="Q6" t="n">
         <v>2562.339328400155</v>
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>665.1026499885492</v>
+        <v>833.0891146802707</v>
       </c>
       <c r="C7" t="n">
-        <v>496.1664670606423</v>
+        <v>664.1529317523638</v>
       </c>
       <c r="D7" t="n">
-        <v>346.0498276483066</v>
+        <v>514.036292340028</v>
       </c>
       <c r="E7" t="n">
-        <v>198.1367340659135</v>
+        <v>366.1231987576349</v>
       </c>
       <c r="F7" t="n">
-        <v>51.2467865680031</v>
+        <v>219.2332512597245</v>
       </c>
       <c r="G7" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H7" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I7" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J7" t="n">
-        <v>76.71595955312196</v>
+        <v>76.71595955312199</v>
       </c>
       <c r="K7" t="n">
         <v>248.4064713020475</v>
       </c>
       <c r="L7" t="n">
-        <v>523.6376499693233</v>
+        <v>523.6376499693234</v>
       </c>
       <c r="M7" t="n">
-        <v>824.2194607096585</v>
+        <v>824.2194607096587</v>
       </c>
       <c r="N7" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O7" t="n">
-        <v>1383.126566999034</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P7" t="n">
-        <v>1582.113182171023</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q7" t="n">
         <v>1636.446120074497</v>
       </c>
       <c r="R7" t="n">
-        <v>1636.446120074497</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="S7" t="n">
-        <v>1636.446120074497</v>
+        <v>1463.519709552058</v>
       </c>
       <c r="T7" t="n">
-        <v>1636.446120074497</v>
+        <v>1463.519709552058</v>
       </c>
       <c r="U7" t="n">
-        <v>1636.446120074497</v>
+        <v>1463.519709552058</v>
       </c>
       <c r="V7" t="n">
-        <v>1584.950414897297</v>
+        <v>1463.519709552058</v>
       </c>
       <c r="W7" t="n">
-        <v>1295.533244860336</v>
+        <v>1463.519709552058</v>
       </c>
       <c r="X7" t="n">
-        <v>1067.543693962319</v>
+        <v>1235.53015865404</v>
       </c>
       <c r="Y7" t="n">
-        <v>846.7511148187889</v>
+        <v>1014.73757951051</v>
       </c>
     </row>
     <row r="8">
@@ -4780,34 +4780,34 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1146.918698535759</v>
+        <v>864.8611267254473</v>
       </c>
       <c r="C8" t="n">
-        <v>777.9561815953474</v>
+        <v>864.8611267254473</v>
       </c>
       <c r="D8" t="n">
-        <v>777.9561815953474</v>
+        <v>506.5954281186968</v>
       </c>
       <c r="E8" t="n">
-        <v>777.9561815953474</v>
+        <v>506.5954281186968</v>
       </c>
       <c r="F8" t="n">
-        <v>771.0106808461439</v>
+        <v>466.9515368437142</v>
       </c>
       <c r="G8" t="n">
-        <v>355.3059305704328</v>
+        <v>51.24678656800308</v>
       </c>
       <c r="H8" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800308</v>
       </c>
       <c r="I8" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800308</v>
       </c>
       <c r="J8" t="n">
-        <v>187.5281822362819</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K8" t="n">
-        <v>442.5171852816082</v>
+        <v>442.5171852816081</v>
       </c>
       <c r="L8" t="n">
         <v>795.7553530872913</v>
@@ -4816,40 +4816,40 @@
         <v>1220.470313923561</v>
       </c>
       <c r="N8" t="n">
-        <v>1656.671415230817</v>
+        <v>1656.671415230816</v>
       </c>
       <c r="O8" t="n">
         <v>2055.22848474084</v>
       </c>
       <c r="P8" t="n">
-        <v>2360.886721764997</v>
+        <v>2360.886721764996</v>
       </c>
       <c r="Q8" t="n">
-        <v>2542.25058172385</v>
+        <v>2542.250581723849</v>
       </c>
       <c r="R8" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400154</v>
       </c>
       <c r="S8" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400154</v>
       </c>
       <c r="T8" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400154</v>
       </c>
       <c r="U8" t="n">
-        <v>2562.339328400155</v>
+        <v>2308.758267664334</v>
       </c>
       <c r="V8" t="n">
-        <v>2231.276441056584</v>
+        <v>1977.695380320763</v>
       </c>
       <c r="W8" t="n">
-        <v>1878.50778578647</v>
+        <v>1624.926725050649</v>
       </c>
       <c r="X8" t="n">
-        <v>1505.04202752539</v>
+        <v>1251.460966789569</v>
       </c>
       <c r="Y8" t="n">
-        <v>1505.04202752539</v>
+        <v>1251.460966789569</v>
       </c>
     </row>
     <row r="9">
@@ -4880,19 +4880,19 @@
         <v>71.67401812057899</v>
       </c>
       <c r="I9" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800308</v>
       </c>
       <c r="J9" t="n">
-        <v>238.4273302370161</v>
+        <v>238.427330237016</v>
       </c>
       <c r="K9" t="n">
-        <v>614.5430248380226</v>
+        <v>614.543024838023</v>
       </c>
       <c r="L9" t="n">
-        <v>909.2465818694943</v>
+        <v>909.2465818694947</v>
       </c>
       <c r="M9" t="n">
-        <v>1272.508600828714</v>
+        <v>1272.508600828715</v>
       </c>
       <c r="N9" t="n">
         <v>1659.79372942566</v>
@@ -4938,31 +4938,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>461.9138669598624</v>
+        <v>716.5983551657491</v>
       </c>
       <c r="C10" t="n">
-        <v>292.9776840319555</v>
+        <v>547.6621722378422</v>
       </c>
       <c r="D10" t="n">
-        <v>142.8610446196198</v>
+        <v>397.5455328255065</v>
       </c>
       <c r="E10" t="n">
-        <v>142.8610446196198</v>
+        <v>249.6324392431134</v>
       </c>
       <c r="F10" t="n">
-        <v>142.8610446196198</v>
+        <v>102.742491745203</v>
       </c>
       <c r="G10" t="n">
-        <v>142.8610446196198</v>
+        <v>102.742491745203</v>
       </c>
       <c r="H10" t="n">
-        <v>142.8610446196198</v>
+        <v>102.742491745203</v>
       </c>
       <c r="I10" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800308</v>
       </c>
       <c r="J10" t="n">
-        <v>76.71595955312198</v>
+        <v>76.71595955312193</v>
       </c>
       <c r="K10" t="n">
         <v>248.4064713020475</v>
@@ -4977,10 +4977,10 @@
         <v>1123.088724245823</v>
       </c>
       <c r="O10" t="n">
-        <v>1383.126566999035</v>
+        <v>1383.126566999034</v>
       </c>
       <c r="P10" t="n">
-        <v>1582.113182171024</v>
+        <v>1582.113182171023</v>
       </c>
       <c r="Q10" t="n">
         <v>1636.446120074497</v>
@@ -4998,16 +4998,16 @@
         <v>1636.446120074497</v>
       </c>
       <c r="V10" t="n">
-        <v>1381.76163186861</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="W10" t="n">
-        <v>1092.34446183165</v>
+        <v>1347.028950037536</v>
       </c>
       <c r="X10" t="n">
-        <v>864.3549109336323</v>
+        <v>1119.039399139519</v>
       </c>
       <c r="Y10" t="n">
-        <v>643.5623317901021</v>
+        <v>898.2468199959889</v>
       </c>
     </row>
     <row r="11">
@@ -5020,7 +5020,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
         <v>1590.547811004713</v>
@@ -5029,28 +5029,28 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168615</v>
       </c>
       <c r="G11" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
         <v>2950.898526355937</v>
@@ -5062,28 +5062,28 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5105,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5114,16 +5114,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J12" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K12" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L12" t="n">
         <v>1074.481071167373</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>700.7543264856228</v>
+        <v>576.8388927589092</v>
       </c>
       <c r="C13" t="n">
-        <v>700.7543264856228</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="D13" t="n">
-        <v>550.637687073287</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="E13" t="n">
-        <v>402.7245934908938</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F13" t="n">
-        <v>402.7245934908938</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G13" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2383.963271233119</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>2164.361806256059</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>1875.286579600257</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>1620.602091394371</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
-        <v>1331.18492135741</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>1103.195370459393</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y13" t="n">
-        <v>882.4027913158625</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="14">
@@ -5272,49 +5272,49 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192611</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K14" t="n">
-        <v>852.852361107581</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
         <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
         <v>3467.980956852889</v>
@@ -5342,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5351,16 +5351,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273908</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>579.1554649516145</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L15" t="n">
         <v>1074.481071167373</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>513.8536007400721</v>
+        <v>551.354624631591</v>
       </c>
       <c r="C16" t="n">
-        <v>344.9174178121652</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="D16" t="n">
-        <v>344.9174178121652</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="E16" t="n">
-        <v>344.9174178121652</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="F16" t="n">
-        <v>344.9174178121652</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G16" t="n">
-        <v>177.7213185270452</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832664</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>916.294644713842</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703119</v>
+        <v>733.0030894618308</v>
       </c>
     </row>
     <row r="17">
@@ -5512,31 +5512,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398593</v>
@@ -5579,7 +5579,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5591,25 +5591,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J18" t="n">
         <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>579.1554649516142</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L18" t="n">
-        <v>1074.481071167373</v>
+        <v>352.5519571452619</v>
       </c>
       <c r="M18" t="n">
-        <v>1373.553594266881</v>
+        <v>949.9304447718135</v>
       </c>
       <c r="N18" t="n">
-        <v>2001.151557821488</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O18" t="n">
-        <v>2553.061288060775</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P18" t="n">
         <v>2553.061288060775</v>
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>580.0655846733346</v>
+        <v>653.7474797708873</v>
       </c>
       <c r="C19" t="n">
-        <v>411.1294017454277</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D19" t="n">
-        <v>261.0127623330919</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E19" t="n">
-        <v>261.0127623330919</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F19" t="n">
-        <v>261.0127623330919</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G19" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578603</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
@@ -5676,10 +5676,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
@@ -5697,28 +5697,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.129363765926</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S19" t="n">
-        <v>2263.274529420831</v>
+        <v>2336.956424518383</v>
       </c>
       <c r="T19" t="n">
-        <v>2043.673064443772</v>
+        <v>2117.354959541324</v>
       </c>
       <c r="U19" t="n">
-        <v>1754.597837787969</v>
+        <v>1828.279732885522</v>
       </c>
       <c r="V19" t="n">
-        <v>1499.913349582082</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W19" t="n">
-        <v>1210.496179545122</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X19" t="n">
-        <v>982.5066286471044</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y19" t="n">
-        <v>761.7140495035743</v>
+        <v>835.395944601127</v>
       </c>
     </row>
     <row r="20">
@@ -5734,13 +5734,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
         <v>379.8308874362686</v>
@@ -5749,31 +5749,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332386</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
@@ -5816,7 +5816,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5828,7 +5828,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J21" t="n">
         <v>245.2306927803937</v>
@@ -5840,10 +5840,10 @@
         <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1671.859558793925</v>
+        <v>1671.859558793924</v>
       </c>
       <c r="N21" t="n">
-        <v>2299.457522348532</v>
+        <v>2299.457522348531</v>
       </c>
       <c r="O21" t="n">
         <v>2553.061288060775</v>
@@ -5886,19 +5886,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>571.6607764188008</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C22" t="n">
-        <v>402.7245934908939</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D22" t="n">
-        <v>402.7245934908939</v>
+        <v>261.8464821474262</v>
       </c>
       <c r="E22" t="n">
-        <v>402.7245934908939</v>
+        <v>261.8464821474262</v>
       </c>
       <c r="F22" t="n">
-        <v>402.7245934908939</v>
+        <v>261.8464821474262</v>
       </c>
       <c r="G22" t="n">
         <v>235.5284942057738</v>
@@ -5913,10 +5913,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
@@ -5934,28 +5934,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611858</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138411</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y22" t="n">
-        <v>753.3092412490405</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="23">
@@ -5986,31 +5986,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
         <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
@@ -6025,13 +6025,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6053,7 +6053,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6065,7 +6065,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J24" t="n">
         <v>245.2306927803937</v>
@@ -6077,10 +6077,10 @@
         <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1671.859558793925</v>
+        <v>1671.859558793924</v>
       </c>
       <c r="N24" t="n">
-        <v>2299.457522348532</v>
+        <v>2299.457522348531</v>
       </c>
       <c r="O24" t="n">
         <v>2553.061288060775</v>
@@ -6123,22 +6123,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>557.5558870561822</v>
+        <v>763.7541388327643</v>
       </c>
       <c r="C25" t="n">
-        <v>388.6197041282753</v>
+        <v>594.8179559048574</v>
       </c>
       <c r="D25" t="n">
-        <v>388.6197041282753</v>
+        <v>444.7013164925216</v>
       </c>
       <c r="E25" t="n">
-        <v>240.7066105458822</v>
+        <v>296.7882229101285</v>
       </c>
       <c r="F25" t="n">
-        <v>93.81666304797187</v>
+        <v>149.8982754122182</v>
       </c>
       <c r="G25" t="n">
-        <v>93.81666304797187</v>
+        <v>149.8982754122182</v>
       </c>
       <c r="H25" t="n">
         <v>93.81666304797187</v>
@@ -6150,10 +6150,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
@@ -6171,28 +6171,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2423.619666148774</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S25" t="n">
-        <v>2240.764831803678</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T25" t="n">
-        <v>2021.163366826619</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U25" t="n">
-        <v>1732.088140170817</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V25" t="n">
-        <v>1477.40365196493</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W25" t="n">
-        <v>1187.986481927969</v>
+        <v>1394.184733704551</v>
       </c>
       <c r="X25" t="n">
-        <v>959.9969310299521</v>
+        <v>1166.195182806534</v>
       </c>
       <c r="Y25" t="n">
-        <v>739.2043518864219</v>
+        <v>945.402603663004</v>
       </c>
     </row>
     <row r="26">
@@ -6202,19 +6202,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168602</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362686</v>
@@ -6223,55 +6223,55 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075808</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="27">
@@ -6299,10 +6299,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273903</v>
+        <v>95.584050252739</v>
       </c>
       <c r="J27" t="n">
         <v>245.2306927803937</v>
@@ -6314,10 +6314,10 @@
         <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1671.859558793925</v>
+        <v>1671.859558793924</v>
       </c>
       <c r="N27" t="n">
-        <v>2299.457522348532</v>
+        <v>2299.457522348531</v>
       </c>
       <c r="O27" t="n">
         <v>2553.061288060775</v>
@@ -6360,37 +6360,37 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D28" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E28" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
@@ -6417,19 +6417,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6451,61 +6451,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I29" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192591</v>
       </c>
       <c r="J29" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U29" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6536,10 +6536,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273903</v>
+        <v>95.584050252739</v>
       </c>
       <c r="J30" t="n">
         <v>245.2306927803937</v>
@@ -6551,10 +6551,10 @@
         <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1671.859558793925</v>
+        <v>1671.859558793924</v>
       </c>
       <c r="N30" t="n">
-        <v>2299.457522348532</v>
+        <v>2299.457522348531</v>
       </c>
       <c r="O30" t="n">
         <v>2553.061288060775</v>
@@ -6612,22 +6612,22 @@
         <v>344.9174178121643</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J31" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
@@ -6676,52 +6676,52 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075822</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
@@ -6733,19 +6733,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="33">
@@ -6764,7 +6764,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6776,22 +6776,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793924</v>
       </c>
       <c r="N33" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348531</v>
       </c>
       <c r="O33" t="n">
         <v>2553.061288060775</v>
@@ -6861,10 +6861,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
@@ -6885,19 +6885,19 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
         <v>974.1018203925706</v>
@@ -6913,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551872</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.81350961146</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.54781100471</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406465</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168579</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362654</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797182</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192491</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111703</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332385</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014777</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355935</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068008</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694705</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852253</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398591</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492575</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474781</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.81249946657</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852885</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591806</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615994</v>
       </c>
     </row>
     <row r="36">
@@ -7004,34 +7004,34 @@
         <v>460.7742193300128</v>
       </c>
       <c r="F36" t="n">
-        <v>314.2396613568978</v>
+        <v>314.2396613568977</v>
       </c>
       <c r="G36" t="n">
-        <v>178.4809954028057</v>
+        <v>178.4809954028056</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797182</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273896</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803936</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516142</v>
+        <v>454.604838556055</v>
       </c>
       <c r="L36" t="n">
-        <v>1074.481071167373</v>
+        <v>949.9304447718135</v>
       </c>
       <c r="M36" t="n">
-        <v>1671.859558793925</v>
+        <v>949.9304447718135</v>
       </c>
       <c r="N36" t="n">
-        <v>2299.457522348532</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O36" t="n">
-        <v>2553.061288060775</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P36" t="n">
         <v>2553.061288060775</v>
@@ -7074,34 +7074,34 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>513.8536007400712</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D37" t="n">
-        <v>513.8536007400712</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E37" t="n">
-        <v>513.8536007400712</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F37" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578601</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797182</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797182</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782956</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
@@ -7162,22 +7162,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797182</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192451</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332386</v>
@@ -7189,34 +7189,34 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068008</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694705</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852253</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398591</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492575</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474781</v>
       </c>
       <c r="U38" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7241,28 +7241,28 @@
         <v>460.7742193300128</v>
       </c>
       <c r="F39" t="n">
-        <v>314.2396613568978</v>
+        <v>314.2396613568977</v>
       </c>
       <c r="G39" t="n">
-        <v>178.4809954028057</v>
+        <v>178.4809954028056</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797182</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273896</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803936</v>
       </c>
       <c r="K39" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803936</v>
       </c>
       <c r="L39" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803936</v>
       </c>
       <c r="M39" t="n">
-        <v>842.6091804069456</v>
+        <v>680.0291294438179</v>
       </c>
       <c r="N39" t="n">
         <v>1307.627092998424</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>707.672526468518</v>
+        <v>571.6607764188007</v>
       </c>
       <c r="C40" t="n">
-        <v>538.7363435406111</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D40" t="n">
-        <v>388.6197041282753</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E40" t="n">
-        <v>240.7066105458822</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F40" t="n">
-        <v>93.81666304797187</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G40" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057737</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797182</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797182</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782956</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487568</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510509</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U40" t="n">
-        <v>1882.204779583153</v>
+        <v>1746.193029533435</v>
       </c>
       <c r="V40" t="n">
-        <v>1627.520291377266</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W40" t="n">
-        <v>1338.103121340305</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X40" t="n">
-        <v>1110.113570442288</v>
+        <v>974.1018203925705</v>
       </c>
       <c r="Y40" t="n">
-        <v>889.3209912987577</v>
+        <v>753.3092412490404</v>
       </c>
     </row>
     <row r="41">
@@ -7408,19 +7408,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192764</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111731</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075822</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N41" t="n">
         <v>2950.898526355938</v>
@@ -7475,7 +7475,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F42" t="n">
         <v>314.2396613568978</v>
@@ -7487,22 +7487,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>1074.481071167373</v>
+        <v>776.17510664033</v>
       </c>
       <c r="M42" t="n">
-        <v>1671.859558793925</v>
+        <v>1373.553594266882</v>
       </c>
       <c r="N42" t="n">
-        <v>2299.457522348532</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O42" t="n">
         <v>2553.061288060775</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1098.667160263526</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C43" t="n">
-        <v>929.7309773356194</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D43" t="n">
-        <v>779.6143379232836</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E43" t="n">
-        <v>631.7012443408905</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F43" t="n">
-        <v>484.8112968429802</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578603</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2334.285089135946</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>2045.209862480144</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1790.525374274257</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1501.108204237296</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>1501.108204237296</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="44">
@@ -7624,52 +7624,52 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192451</v>
+        <v>95.34095638192764</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111731</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075822</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R44" t="n">
         <v>4690.833152398593</v>
@@ -7681,19 +7681,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="45">
@@ -7712,7 +7712,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E45" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F45" t="n">
         <v>314.2396613568978</v>
@@ -7724,22 +7724,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>1074.481071167373</v>
+        <v>776.17510664033</v>
       </c>
       <c r="M45" t="n">
-        <v>1671.859558793925</v>
+        <v>1373.553594266882</v>
       </c>
       <c r="N45" t="n">
-        <v>2299.457522348532</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O45" t="n">
         <v>2553.061288060775</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>991.7436897307826</v>
+        <v>802.9288273958734</v>
       </c>
       <c r="C46" t="n">
-        <v>822.8075068028758</v>
+        <v>633.9926444679666</v>
       </c>
       <c r="D46" t="n">
-        <v>672.69086739054</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E46" t="n">
-        <v>524.7777738081469</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F46" t="n">
-        <v>377.8878263102365</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G46" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578603</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2446.963083580261</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2227.361618603202</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1938.2863919474</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="V46" t="n">
-        <v>1683.601903741513</v>
+        <v>1722.776592304621</v>
       </c>
       <c r="W46" t="n">
-        <v>1394.184733704552</v>
+        <v>1433.359422267661</v>
       </c>
       <c r="X46" t="n">
-        <v>1394.184733704552</v>
+        <v>1205.369871369643</v>
       </c>
       <c r="Y46" t="n">
-        <v>1173.392154561022</v>
+        <v>984.5772922261132</v>
       </c>
     </row>
   </sheetData>
@@ -8060,7 +8060,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>193.3273467878355</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -8069,7 +8069,7 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>249.3877325071649</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -8078,10 +8078,10 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>129.4330134067488</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
-        <v>45.52166981132082</v>
+        <v>20.93778120154991</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8294,13 +8294,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>193.3273467878349</v>
       </c>
       <c r="L6" t="n">
-        <v>265.0304328515144</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -8315,10 +8315,10 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
-        <v>20.93778120154991</v>
+        <v>20.9377812015499</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8534,7 +8534,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>193.3273467878349</v>
+        <v>193.3273467878355</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8555,7 +8555,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
-        <v>20.9377812015499</v>
+        <v>20.93778120154992</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -9178,7 +9178,7 @@
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>1.70530256582424e-12</v>
       </c>
       <c r="P17" t="n">
         <v>0</v>
@@ -9409,7 +9409,7 @@
         <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>1.932676241267473e-12</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
@@ -9658,7 +9658,7 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>2.046363078989089e-12</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -23415,28 +23415,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>62.35543909864957</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,10 +23463,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>118.6564717779737</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23664,16 +23664,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>57.2291039219413</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.2658363185655</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23721,7 +23721,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>37.1260136526046</v>
       </c>
     </row>
     <row r="17">
@@ -23895,7 +23895,7 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -23907,10 +23907,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,10 +23937,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>65.54986409393101</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>72.11969353038577</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -24132,7 +24132,7 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -24141,13 +24141,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>139.469330230033</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24195,7 +24195,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>57.22910392194223</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24369,7 +24369,7 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -24381,10 +24381,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>84.77391660562006</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,10 +24411,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>43.26526345294994</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24618,10 +24618,10 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24657,7 +24657,7 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>57.22910392194231</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24852,13 +24852,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>57.22910392194223</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -25095,7 +25095,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25125,7 +25125,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>57.229103921942</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25140,7 +25140,7 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>57.22910392194225</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25314,7 +25314,7 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
@@ -25323,16 +25323,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>116.6691671648111</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>57.22910392194215</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25554,22 +25554,22 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>57.22910392194222</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25605,7 +25605,7 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>191.8807364711616</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25788,16 +25788,16 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -25836,10 +25836,10 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>172.2294825375379</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -25851,7 +25851,7 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -26028,16 +26028,16 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>0.9259388694759707</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>105.8542358274162</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -26070,16 +26070,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26088,7 +26088,7 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>753319.9883283912</v>
+        <v>753319.9883283911</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>753319.9883283912</v>
+        <v>753319.9883283911</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>753319.9883283911</v>
+        <v>753319.9883283913</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>753319.9883283911</v>
+        <v>753319.9883283913</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>753319.988328391</v>
+        <v>753319.9883283913</v>
       </c>
     </row>
     <row r="10">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>753319.9883283912</v>
+        <v>753319.9883283911</v>
       </c>
     </row>
     <row r="14">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>753319.9883283913</v>
+        <v>753319.9883283912</v>
       </c>
     </row>
   </sheetData>
@@ -26313,31 +26313,31 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>677359.460138034</v>
+        <v>677359.4601380336</v>
       </c>
       <c r="C2" t="n">
-        <v>677359.4601380337</v>
+        <v>677359.4601380336</v>
       </c>
       <c r="D2" t="n">
-        <v>677359.4601380336</v>
+        <v>677359.4601380335</v>
       </c>
       <c r="E2" t="n">
-        <v>665895.944744255</v>
+        <v>665895.9447442549</v>
       </c>
       <c r="F2" t="n">
-        <v>665895.944744255</v>
+        <v>665895.9447442548</v>
       </c>
       <c r="G2" t="n">
-        <v>665895.944744255</v>
+        <v>665895.9447442549</v>
       </c>
       <c r="H2" t="n">
-        <v>665895.9447442547</v>
+        <v>665895.9447442549</v>
       </c>
       <c r="I2" t="n">
-        <v>665895.9447442552</v>
+        <v>665895.9447442549</v>
       </c>
       <c r="J2" t="n">
-        <v>665895.944744255</v>
+        <v>665895.9447442549</v>
       </c>
       <c r="K2" t="n">
         <v>665895.9447442548</v>
@@ -26346,16 +26346,16 @@
         <v>665895.9447442548</v>
       </c>
       <c r="M2" t="n">
-        <v>665895.9447442548</v>
+        <v>665895.9447442549</v>
       </c>
       <c r="N2" t="n">
+        <v>665895.9447442547</v>
+      </c>
+      <c r="O2" t="n">
         <v>665895.9447442549</v>
       </c>
-      <c r="O2" t="n">
-        <v>665895.9447442554</v>
-      </c>
       <c r="P2" t="n">
-        <v>665895.944744255</v>
+        <v>665895.9447442549</v>
       </c>
     </row>
     <row r="3">
@@ -26377,7 +26377,7 @@
         <v>507485.4416245461</v>
       </c>
       <c r="F3" t="n">
-        <v>1.797263848857256e-10</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>132607.2937289267</v>
+        <v>132607.2937289266</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,49 +26417,49 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>133113.8635467443</v>
+      </c>
+      <c r="C4" t="n">
+        <v>133113.8635467443</v>
+      </c>
+      <c r="D4" t="n">
         <v>133113.8635467444</v>
       </c>
-      <c r="C4" t="n">
-        <v>133113.8635467444</v>
-      </c>
-      <c r="D4" t="n">
-        <v>133113.8635467443</v>
-      </c>
       <c r="E4" t="n">
-        <v>7507.368461719627</v>
+        <v>7507.368461719667</v>
       </c>
       <c r="F4" t="n">
         <v>7507.368461719667</v>
       </c>
       <c r="G4" t="n">
-        <v>7507.368461719667</v>
+        <v>7507.368461719705</v>
       </c>
       <c r="H4" t="n">
-        <v>7507.368461719667</v>
+        <v>7507.36846171971</v>
       </c>
       <c r="I4" t="n">
-        <v>7507.368461719667</v>
+        <v>7507.368461719712</v>
       </c>
       <c r="J4" t="n">
         <v>7507.368461719667</v>
       </c>
       <c r="K4" t="n">
-        <v>7507.368461719667</v>
+        <v>7507.368461719719</v>
       </c>
       <c r="L4" t="n">
         <v>7507.368461719667</v>
       </c>
       <c r="M4" t="n">
-        <v>7507.368461719729</v>
+        <v>7507.368461719809</v>
       </c>
       <c r="N4" t="n">
+        <v>7507.368461719801</v>
+      </c>
+      <c r="O4" t="n">
         <v>7507.368461719668</v>
       </c>
-      <c r="O4" t="n">
-        <v>7507.368461719667</v>
-      </c>
       <c r="P4" t="n">
-        <v>7507.368461719667</v>
+        <v>7507.368461719668</v>
       </c>
     </row>
     <row r="5">
@@ -26475,7 +26475,7 @@
         <v>92937.7724398447</v>
       </c>
       <c r="D5" t="n">
-        <v>92937.7724398447</v>
+        <v>92937.77243984469</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-663443.9594244745</v>
+        <v>-663443.9594244749</v>
       </c>
       <c r="C6" t="n">
+        <v>451307.8241514446</v>
+      </c>
+      <c r="D6" t="n">
         <v>451307.8241514447</v>
       </c>
-      <c r="D6" t="n">
-        <v>451307.8241514446</v>
-      </c>
       <c r="E6" t="n">
-        <v>49433.22557972529</v>
+        <v>49745.86690864639</v>
       </c>
       <c r="F6" t="n">
-        <v>556918.667204271</v>
+        <v>557231.3085331924</v>
       </c>
       <c r="G6" t="n">
-        <v>556918.6672042717</v>
+        <v>557231.3085331927</v>
       </c>
       <c r="H6" t="n">
-        <v>556918.667204271</v>
+        <v>557231.3085331925</v>
       </c>
       <c r="I6" t="n">
-        <v>556918.6672042714</v>
+        <v>557231.3085331925</v>
       </c>
       <c r="J6" t="n">
-        <v>389313.4893942887</v>
+        <v>389626.1307232099</v>
       </c>
       <c r="K6" t="n">
-        <v>556918.6672042711</v>
+        <v>557231.3085331924</v>
       </c>
       <c r="L6" t="n">
-        <v>556918.6672042711</v>
+        <v>557231.3085331924</v>
       </c>
       <c r="M6" t="n">
-        <v>424311.3734753444</v>
+        <v>424624.0148042658</v>
       </c>
       <c r="N6" t="n">
-        <v>556918.6672042712</v>
+        <v>557231.3085331921</v>
       </c>
       <c r="O6" t="n">
-        <v>556918.6672042717</v>
+        <v>557231.3085331925</v>
       </c>
       <c r="P6" t="n">
-        <v>556918.6672042713</v>
+        <v>557231.3085331925</v>
       </c>
     </row>
   </sheetData>
@@ -26740,10 +26740,10 @@
         <v>934.0648921175391</v>
       </c>
       <c r="C3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175392</v>
       </c>
       <c r="D3" t="n">
-        <v>934.0648921175392</v>
+        <v>934.064892117539</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26789,19 +26789,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="D4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000385</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
         <v>1172.708288099648</v>
@@ -26971,7 +26971,7 @@
         <v>433.9106082241348</v>
       </c>
       <c r="F3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996096</v>
+        <v>532.1234559996092</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27393,10 +27393,10 @@
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>233.9200377128907</v>
+        <v>92.11949905293372</v>
       </c>
       <c r="I2" t="n">
         <v>65.70991267247049</v>
@@ -27435,19 +27435,19 @@
         <v>206.6581849802338</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27554,7 +27554,7 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>147.2515091551289</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>104.7965952039006</v>
@@ -27584,16 +27584,16 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>101.5575724195736</v>
+        <v>53.68974216713045</v>
       </c>
       <c r="S4" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>110.0690483121605</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -27602,10 +27602,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27630,10 +27630,10 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>188.2489513706049</v>
       </c>
       <c r="H5" t="n">
-        <v>39.29420149906747</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27672,7 +27672,7 @@
         <v>206.6581849802338</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -27788,10 +27788,10 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>147.2515091551289</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I7" t="n">
         <v>104.7965952039006</v>
@@ -27821,10 +27821,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>194.6624603617375</v>
+        <v>125.0228863640957</v>
       </c>
       <c r="T7" t="n">
         <v>220.7486959972119</v>
@@ -27833,10 +27833,10 @@
         <v>286.2271541212006</v>
       </c>
       <c r="V7" t="n">
-        <v>201.1568951983999</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -27852,28 +27852,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>28.1917459637458</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>367.6285933794787</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I8" t="n">
-        <v>65.70991267247049</v>
+        <v>65.70991267247052</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27909,7 +27909,7 @@
         <v>206.6581849802338</v>
       </c>
       <c r="U8" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -28019,19 +28019,19 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>166.3066000448042</v>
       </c>
       <c r="H10" t="n">
-        <v>147.2515091551288</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I10" t="n">
-        <v>14.09847973280007</v>
+        <v>53.81584707847265</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28070,7 +28070,7 @@
         <v>286.2271541212006</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -29568,7 +29568,7 @@
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-12</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -29991,7 +29991,7 @@
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
@@ -30003,7 +30003,7 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>3.126388037344441e-12</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -30279,7 +30279,7 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>2.955857780762017e-12</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -31281,43 +31281,43 @@
         <v>3.755034742181059</v>
       </c>
       <c r="H5" t="n">
-        <v>38.45624955336178</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I5" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J5" t="n">
-        <v>318.7038799491899</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K5" t="n">
-        <v>477.6545005857142</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L5" t="n">
-        <v>592.5726450767379</v>
+        <v>592.572645076738</v>
       </c>
       <c r="M5" t="n">
-        <v>659.3512441730003</v>
+        <v>659.3512441730004</v>
       </c>
       <c r="N5" t="n">
-        <v>670.0202366342223</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O5" t="n">
-        <v>632.6811099166594</v>
+        <v>632.6811099166595</v>
       </c>
       <c r="P5" t="n">
-        <v>539.9786897190644</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q5" t="n">
-        <v>405.5015080147051</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R5" t="n">
-        <v>235.8772011235311</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S5" t="n">
-        <v>85.56785418745096</v>
+        <v>85.56785418745098</v>
       </c>
       <c r="T5" t="n">
-        <v>16.43766458389759</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U5" t="n">
         <v>0.3004027793744847</v>
@@ -31360,10 +31360,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H6" t="n">
-        <v>19.4038763438002</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I6" t="n">
-        <v>69.17367361436493</v>
+        <v>69.17367361436494</v>
       </c>
       <c r="J6" t="n">
         <v>189.8178475575841</v>
@@ -31372,7 +31372,7 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L6" t="n">
-        <v>436.2347404177243</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M6" t="n">
         <v>509.0653662040588</v>
@@ -31381,25 +31381,25 @@
         <v>522.5388116762072</v>
       </c>
       <c r="O6" t="n">
-        <v>478.0209264405674</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P6" t="n">
         <v>383.6539365378625</v>
       </c>
       <c r="Q6" t="n">
-        <v>256.462496416876</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R6" t="n">
-        <v>124.741722762414</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S6" t="n">
-        <v>37.31853601997901</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T6" t="n">
-        <v>8.098166376000171</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1321789941675763</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31442,7 +31442,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I7" t="n">
-        <v>50.6538797233577</v>
+        <v>50.65387972335771</v>
       </c>
       <c r="J7" t="n">
         <v>119.0856174753787</v>
@@ -31457,10 +31457,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N7" t="n">
-        <v>257.7559726067958</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O7" t="n">
-        <v>238.0793597154672</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P7" t="n">
         <v>203.7180217169137</v>
@@ -31472,13 +31472,13 @@
         <v>75.73581895759585</v>
       </c>
       <c r="S7" t="n">
-        <v>29.35413767523478</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T7" t="n">
-        <v>7.196893431069561</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U7" t="n">
-        <v>0.09187523529024984</v>
+        <v>0.09187523529024985</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31518,46 +31518,46 @@
         <v>3.755034742181059</v>
       </c>
       <c r="H8" t="n">
-        <v>38.45624955336179</v>
+        <v>38.45624955336177</v>
       </c>
       <c r="I8" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J8" t="n">
-        <v>318.70387994919</v>
+        <v>318.7038799491899</v>
       </c>
       <c r="K8" t="n">
-        <v>477.6545005857143</v>
+        <v>477.6545005857142</v>
       </c>
       <c r="L8" t="n">
-        <v>592.572645076738</v>
+        <v>592.5726450767379</v>
       </c>
       <c r="M8" t="n">
-        <v>659.3512441730004</v>
+        <v>659.3512441730003</v>
       </c>
       <c r="N8" t="n">
-        <v>670.0202366342224</v>
+        <v>670.0202366342222</v>
       </c>
       <c r="O8" t="n">
-        <v>632.6811099166595</v>
+        <v>632.6811099166594</v>
       </c>
       <c r="P8" t="n">
-        <v>539.9786897190645</v>
+        <v>539.9786897190644</v>
       </c>
       <c r="Q8" t="n">
-        <v>405.5015080147052</v>
+        <v>405.5015080147051</v>
       </c>
       <c r="R8" t="n">
-        <v>235.8772011235312</v>
+        <v>235.8772011235311</v>
       </c>
       <c r="S8" t="n">
-        <v>85.56785418745098</v>
+        <v>85.56785418745095</v>
       </c>
       <c r="T8" t="n">
-        <v>16.4376645838976</v>
+        <v>16.43766458389759</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3004027793744847</v>
+        <v>0.3004027793744846</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.00912071134716</v>
+        <v>2.009120711347159</v>
       </c>
       <c r="H9" t="n">
-        <v>19.40387634380021</v>
+        <v>19.4038763438002</v>
       </c>
       <c r="I9" t="n">
-        <v>69.17367361436494</v>
+        <v>69.17367361436493</v>
       </c>
       <c r="J9" t="n">
         <v>189.8178475575841</v>
       </c>
       <c r="K9" t="n">
-        <v>324.4289352178438</v>
+        <v>324.4289352178437</v>
       </c>
       <c r="L9" t="n">
-        <v>436.2347404177244</v>
+        <v>436.2347404177243</v>
       </c>
       <c r="M9" t="n">
-        <v>509.0653662040588</v>
+        <v>509.0653662040587</v>
       </c>
       <c r="N9" t="n">
-        <v>522.5388116762072</v>
+        <v>522.538811676207</v>
       </c>
       <c r="O9" t="n">
-        <v>478.0209264405675</v>
+        <v>478.0209264405673</v>
       </c>
       <c r="P9" t="n">
-        <v>383.6539365378625</v>
+        <v>383.6539365378624</v>
       </c>
       <c r="Q9" t="n">
-        <v>256.4624964168761</v>
+        <v>256.462496416876</v>
       </c>
       <c r="R9" t="n">
-        <v>124.7417227624141</v>
+        <v>124.741722762414</v>
       </c>
       <c r="S9" t="n">
-        <v>37.31853601997902</v>
+        <v>37.31853601997901</v>
       </c>
       <c r="T9" t="n">
-        <v>8.098166376000172</v>
+        <v>8.098166376000171</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1321789941675764</v>
+        <v>0.1321789941675763</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,13 +31673,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.684379313654579</v>
+        <v>1.684379313654578</v>
       </c>
       <c r="H10" t="n">
         <v>14.97566335231072</v>
       </c>
       <c r="I10" t="n">
-        <v>50.65387972335771</v>
+        <v>50.6538797233577</v>
       </c>
       <c r="J10" t="n">
         <v>119.0856174753787</v>
@@ -31688,16 +31688,16 @@
         <v>195.6942511682319</v>
       </c>
       <c r="L10" t="n">
-        <v>250.4212663227908</v>
+        <v>250.4212663227907</v>
       </c>
       <c r="M10" t="n">
-        <v>264.0341136849627</v>
+        <v>264.0341136849626</v>
       </c>
       <c r="N10" t="n">
-        <v>257.7559726067959</v>
+        <v>257.7559726067958</v>
       </c>
       <c r="O10" t="n">
-        <v>238.0793597154673</v>
+        <v>238.0793597154672</v>
       </c>
       <c r="P10" t="n">
         <v>203.7180217169137</v>
@@ -31706,16 +31706,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R10" t="n">
-        <v>75.73581895759585</v>
+        <v>75.73581895759584</v>
       </c>
       <c r="S10" t="n">
-        <v>29.35413767523479</v>
+        <v>29.35413767523478</v>
       </c>
       <c r="T10" t="n">
-        <v>7.196893431069562</v>
+        <v>7.19689343106956</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09187523529024985</v>
+        <v>0.09187523529024984</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,7 +31752,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31764,31 +31764,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31831,10 +31831,10 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
         <v>101.3076196007749</v>
@@ -31843,16 +31843,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
         <v>398.7616643558013</v>
@@ -31867,13 +31867,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31913,25 +31913,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31940,19 +31940,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,10 +32068,10 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
         <v>101.3076196007749</v>
@@ -32080,19 +32080,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422587</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>398.7616643558009</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
@@ -32104,13 +32104,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P16" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,37 +32226,37 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H17" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R17" t="n">
         <v>345.4516222043725</v>
@@ -32265,10 +32265,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32314,25 +32314,25 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>246.9596973201451</v>
       </c>
       <c r="M18" t="n">
-        <v>444.2274915982894</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437242</v>
       </c>
       <c r="P18" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214697</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
@@ -32341,10 +32341,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T18" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U18" t="n">
         <v>0.1935814387275954</v>
@@ -32390,28 +32390,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J19" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N19" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P19" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q19" t="n">
         <v>206.5643005515927</v>
@@ -32420,7 +32420,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
@@ -32463,37 +32463,37 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H20" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J20" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R20" t="n">
         <v>345.4516222043725</v>
@@ -32502,10 +32502,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U20" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32551,22 +32551,22 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K21" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O21" t="n">
-        <v>398.7616643558013</v>
+        <v>398.7616643558023</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
@@ -32578,10 +32578,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T21" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U21" t="n">
         <v>0.1935814387275954</v>
@@ -32627,28 +32627,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J22" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N22" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P22" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q22" t="n">
         <v>206.5643005515927</v>
@@ -32657,7 +32657,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
@@ -32700,37 +32700,37 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H23" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I23" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J23" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R23" t="n">
         <v>345.4516222043725</v>
@@ -32739,10 +32739,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U23" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32788,22 +32788,22 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K24" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O24" t="n">
-        <v>398.7616643558013</v>
+        <v>398.7616643558023</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
@@ -32815,10 +32815,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T24" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U24" t="n">
         <v>0.1935814387275954</v>
@@ -32864,28 +32864,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J25" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N25" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P25" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q25" t="n">
         <v>206.5643005515927</v>
@@ -32894,7 +32894,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
@@ -32937,37 +32937,37 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H26" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I26" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J26" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L26" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R26" t="n">
         <v>345.4516222043725</v>
@@ -32976,10 +32976,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U26" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33025,22 +33025,22 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K27" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O27" t="n">
-        <v>398.7616643558013</v>
+        <v>398.7616643558023</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
@@ -33052,10 +33052,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T27" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U27" t="n">
         <v>0.1935814387275954</v>
@@ -33101,28 +33101,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J28" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N28" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P28" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q28" t="n">
         <v>206.5643005515927</v>
@@ -33131,7 +33131,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
@@ -33174,37 +33174,37 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H29" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I29" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J29" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L29" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R29" t="n">
         <v>345.4516222043725</v>
@@ -33213,10 +33213,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U29" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33262,22 +33262,22 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K30" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O30" t="n">
-        <v>398.7616643558013</v>
+        <v>398.7616643558023</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
@@ -33289,10 +33289,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T30" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U30" t="n">
         <v>0.1935814387275954</v>
@@ -33338,28 +33338,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J31" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N31" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P31" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q31" t="n">
         <v>206.5643005515927</v>
@@ -33368,7 +33368,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
@@ -33411,37 +33411,37 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H32" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J32" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817591</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R32" t="n">
         <v>345.4516222043725</v>
@@ -33450,10 +33450,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U32" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33496,25 +33496,25 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K33" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O33" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558023</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
@@ -33526,10 +33526,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T33" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U33" t="n">
         <v>0.1935814387275954</v>
@@ -33575,28 +33575,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J34" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N34" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P34" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q34" t="n">
         <v>206.5643005515927</v>
@@ -33605,7 +33605,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
@@ -33648,37 +33648,37 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H35" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067222</v>
       </c>
       <c r="J35" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R35" t="n">
         <v>345.4516222043725</v>
@@ -33687,10 +33687,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U35" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33736,25 +33736,25 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422585</v>
+        <v>349.3304751113907</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O36" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437242</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214697</v>
       </c>
       <c r="Q36" t="n">
         <v>139.9817740860215</v>
@@ -33763,10 +33763,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T36" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U36" t="n">
         <v>0.1935814387275954</v>
@@ -33812,28 +33812,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J37" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N37" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P37" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q37" t="n">
         <v>206.5643005515927</v>
@@ -33842,7 +33842,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
@@ -33885,49 +33885,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H38" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J38" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U38" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33964,16 +33964,16 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K39" t="n">
         <v>137.841438974359</v>
@@ -33982,31 +33982,31 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862122</v>
+        <v>581.3243739860832</v>
       </c>
       <c r="N39" t="n">
-        <v>601.0567753070487</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437242</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214697</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>182.689256441856</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T39" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34046,46 +34046,46 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P40" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,49 +34122,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H41" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067249</v>
       </c>
       <c r="J41" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U41" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34201,31 +34201,31 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473073</v>
+        <v>337.5641188593851</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O42" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437242</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
@@ -34237,13 +34237,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T42" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34283,46 +34283,46 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P43" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H44" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067249</v>
       </c>
       <c r="J44" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U44" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34438,31 +34438,31 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473073</v>
+        <v>337.5641188593851</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O45" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437242</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
@@ -34474,13 +34474,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T45" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34520,46 +34520,46 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P46" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34780,7 +34780,7 @@
         <v>189.0712562313262</v>
       </c>
       <c r="K3" t="n">
-        <v>186.5874962434848</v>
+        <v>379.9148430313203</v>
       </c>
       <c r="L3" t="n">
         <v>297.6803606378501</v>
@@ -34789,7 +34789,7 @@
         <v>366.9313322820404</v>
       </c>
       <c r="N3" t="n">
-        <v>640.5848321000387</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O3" t="n">
         <v>335.424681996123</v>
@@ -34798,10 +34798,10 @@
         <v>249.6795291235322</v>
       </c>
       <c r="Q3" t="n">
-        <v>245.9137357376033</v>
+        <v>326.5580100667036</v>
       </c>
       <c r="R3" t="n">
-        <v>24.58388860977091</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34935,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>137.6579754225036</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K5" t="n">
         <v>257.5646495407337</v>
       </c>
       <c r="L5" t="n">
-        <v>356.8062301067507</v>
+        <v>356.8062301067508</v>
       </c>
       <c r="M5" t="n">
-        <v>429.0050109457276</v>
+        <v>429.0050109457277</v>
       </c>
       <c r="N5" t="n">
-        <v>440.6071730376314</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O5" t="n">
-        <v>402.5828984949726</v>
+        <v>402.5828984949727</v>
       </c>
       <c r="P5" t="n">
-        <v>308.7456939637948</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q5" t="n">
-        <v>183.1958181402556</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R5" t="n">
-        <v>20.29166330939901</v>
+        <v>20.29166330939904</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,16 +35014,16 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>62.98022089091739</v>
+        <v>189.0712562313263</v>
       </c>
       <c r="K6" t="n">
-        <v>451.0527332560634</v>
+        <v>379.9148430313197</v>
       </c>
       <c r="L6" t="n">
-        <v>562.7107934893645</v>
+        <v>297.6803606378502</v>
       </c>
       <c r="M6" t="n">
-        <v>366.9313322820404</v>
+        <v>366.9313322820405</v>
       </c>
       <c r="N6" t="n">
         <v>391.1970995928739</v>
@@ -35032,10 +35032,10 @@
         <v>335.424681996123</v>
       </c>
       <c r="P6" t="n">
-        <v>249.6795291235322</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q6" t="n">
-        <v>116.4807223308545</v>
+        <v>326.5580100667037</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35093,10 +35093,10 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>25.72643735870592</v>
+        <v>25.72643735870594</v>
       </c>
       <c r="K7" t="n">
-        <v>173.424759342349</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L7" t="n">
         <v>278.0112915831069</v>
@@ -35105,7 +35105,7 @@
         <v>303.6179906468033</v>
       </c>
       <c r="N7" t="n">
-        <v>301.8881449860244</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O7" t="n">
         <v>262.6644876295069</v>
@@ -35114,7 +35114,7 @@
         <v>200.9965809818072</v>
       </c>
       <c r="Q7" t="n">
-        <v>54.881755458054</v>
+        <v>54.88175545805403</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>137.6579754225037</v>
+        <v>137.6579754225036</v>
       </c>
       <c r="K8" t="n">
-        <v>257.5646495407337</v>
+        <v>257.5646495407336</v>
       </c>
       <c r="L8" t="n">
-        <v>356.8062301067508</v>
+        <v>356.8062301067507</v>
       </c>
       <c r="M8" t="n">
-        <v>429.0050109457277</v>
+        <v>429.0050109457276</v>
       </c>
       <c r="N8" t="n">
-        <v>440.6071730376315</v>
+        <v>440.6071730376313</v>
       </c>
       <c r="O8" t="n">
-        <v>402.5828984949727</v>
+        <v>402.5828984949726</v>
       </c>
       <c r="P8" t="n">
-        <v>308.745693963795</v>
+        <v>308.7456939637948</v>
       </c>
       <c r="Q8" t="n">
-        <v>183.1958181402557</v>
+        <v>183.1958181402556</v>
       </c>
       <c r="R8" t="n">
-        <v>20.29166330939904</v>
+        <v>20.29166330939898</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>189.0712562313263</v>
+        <v>189.0712562313262</v>
       </c>
       <c r="K9" t="n">
-        <v>379.9148430313197</v>
+        <v>379.9148430313202</v>
       </c>
       <c r="L9" t="n">
-        <v>297.6803606378502</v>
+        <v>297.6803606378501</v>
       </c>
       <c r="M9" t="n">
-        <v>366.9313322820405</v>
+        <v>366.9313322820404</v>
       </c>
       <c r="N9" t="n">
-        <v>391.1970995928739</v>
+        <v>391.1970995928738</v>
       </c>
       <c r="O9" t="n">
-        <v>335.424681996123</v>
+        <v>335.4246819961229</v>
       </c>
       <c r="P9" t="n">
-        <v>249.6795291235323</v>
+        <v>249.6795291235322</v>
       </c>
       <c r="Q9" t="n">
-        <v>326.5580100667037</v>
+        <v>326.5580100667036</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35330,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.72643735870594</v>
+        <v>25.72643735870591</v>
       </c>
       <c r="K10" t="n">
-        <v>173.4247593423491</v>
+        <v>173.424759342349</v>
       </c>
       <c r="L10" t="n">
         <v>278.0112915831069</v>
       </c>
       <c r="M10" t="n">
-        <v>303.6179906468033</v>
+        <v>303.6179906468032</v>
       </c>
       <c r="N10" t="n">
-        <v>301.8881449860245</v>
+        <v>301.8881449860244</v>
       </c>
       <c r="O10" t="n">
         <v>262.6644876295069</v>
       </c>
       <c r="P10" t="n">
-        <v>200.9965809818072</v>
+        <v>200.9965809818071</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.88175545805403</v>
+        <v>54.881755458054</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,7 +35485,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J12" t="n">
         <v>151.1582247754088</v>
@@ -35494,13 +35494,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
         <v>256.1654199113569</v>
@@ -35567,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,25 +35722,25 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774943</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678997</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674332</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>256.1654199113564</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -35804,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35880,31 +35880,31 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J17" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L17" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N17" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243176</v>
       </c>
       <c r="P17" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R17" t="n">
         <v>129.8660843902404</v>
@@ -35959,28 +35959,28 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774901</v>
       </c>
       <c r="J18" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>108.4053175402709</v>
       </c>
       <c r="M18" t="n">
-        <v>302.093457676271</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>557.4845759992797</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>427.9021712071394</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36041,7 +36041,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K19" t="n">
         <v>264.3325884096349</v>
@@ -36050,19 +36050,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P19" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q19" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36117,31 +36117,31 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J20" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L20" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902966</v>
       </c>
       <c r="N20" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P20" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R20" t="n">
         <v>129.8660843902404</v>
@@ -36196,25 +36196,25 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774901</v>
       </c>
       <c r="J21" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K21" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O21" t="n">
-        <v>256.1654199113569</v>
+        <v>256.1654199113578</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36278,7 +36278,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K22" t="n">
         <v>264.3325884096349</v>
@@ -36287,19 +36287,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N22" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P22" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q22" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J23" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L23" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N23" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P23" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924747</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,25 +36433,25 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774901</v>
       </c>
       <c r="J24" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K24" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L24" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M24" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O24" t="n">
-        <v>256.1654199113569</v>
+        <v>256.1654199113578</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36515,7 +36515,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K25" t="n">
         <v>264.3325884096349</v>
@@ -36524,19 +36524,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N25" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P25" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q25" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36591,31 +36591,31 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J26" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L26" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902952</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N26" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P26" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R26" t="n">
         <v>129.8660843902404</v>
@@ -36670,25 +36670,25 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774901</v>
       </c>
       <c r="J27" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K27" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L27" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M27" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O27" t="n">
-        <v>256.1654199113569</v>
+        <v>256.1654199113578</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36752,7 +36752,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K28" t="n">
         <v>264.3325884096349</v>
@@ -36761,19 +36761,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N28" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P28" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q28" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36828,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J29" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L29" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N29" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P29" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,25 +36907,25 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774901</v>
       </c>
       <c r="J30" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K30" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L30" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M30" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O30" t="n">
-        <v>256.1654199113569</v>
+        <v>256.1654199113578</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -36989,7 +36989,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K31" t="n">
         <v>264.3325884096349</v>
@@ -36998,19 +36998,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N31" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P31" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q31" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37065,31 +37065,31 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J32" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367786</v>
       </c>
       <c r="L32" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N32" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P32" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R32" t="n">
         <v>129.8660843902404</v>
@@ -37144,25 +37144,25 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774901</v>
       </c>
       <c r="J33" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K33" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M33" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O33" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113578</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37226,7 +37226,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K34" t="n">
         <v>264.3325884096349</v>
@@ -37235,19 +37235,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N34" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P34" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q34" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37302,31 +37302,31 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236316259</v>
       </c>
       <c r="J35" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L35" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N35" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P35" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R35" t="n">
         <v>129.8660843902404</v>
@@ -37381,28 +37381,28 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774901</v>
       </c>
       <c r="J36" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K36" t="n">
-        <v>337.2977496678996</v>
+        <v>211.4890361370317</v>
       </c>
       <c r="L36" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M36" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O36" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992797</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>427.9021712071394</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37463,7 +37463,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K37" t="n">
         <v>264.3325884096349</v>
@@ -37472,19 +37472,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N37" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P37" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q37" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37539,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J38" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L38" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,10 +37618,10 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774901</v>
       </c>
       <c r="J39" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -37630,22 +37630,22 @@
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>603.4126137641938</v>
+        <v>439.1903400640649</v>
       </c>
       <c r="N39" t="n">
-        <v>469.7150632237154</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O39" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992797</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071394</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789208</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37700,28 +37700,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K40" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010452</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N40" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P40" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q40" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37776,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236318958</v>
       </c>
       <c r="J41" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L41" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,25 +37855,25 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774901</v>
       </c>
       <c r="J42" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K42" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L42" t="n">
-        <v>500.3288951674331</v>
+        <v>199.0097390795109</v>
       </c>
       <c r="M42" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238454</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O42" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992797</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -37937,28 +37937,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K43" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010452</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N43" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P43" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q43" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38013,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236318958</v>
       </c>
       <c r="J44" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L44" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,25 +38092,25 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774901</v>
       </c>
       <c r="J45" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K45" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L45" t="n">
-        <v>500.3288951674331</v>
+        <v>199.0097390795109</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238454</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O45" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992797</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
@@ -38174,28 +38174,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K46" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010452</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N46" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P46" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q46" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
